--- a/2018/SO/03_DetailDesign/SOF2000_Danh muc don hang.xlsx
+++ b/2018/SO/03_DetailDesign/SOF2000_Danh muc don hang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ASOFT_ERP9\10_DOCUMENT\13_DETAIL_DESIGN\1.STANDARD\ASOFT_SO\03_DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\2_Tai lieu phan tich_Don hang\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,12 +44,12 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$K$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1428,7 +1428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="411">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2227,9 +2227,6 @@
     <t>AccountID</t>
   </si>
   <si>
-    <t>VATAccountID</t>
-  </si>
-  <si>
     <t>RouteID</t>
   </si>
   <si>
@@ -2258,28 +2255,15 @@
   </si>
   <si>
     <t>Danh mục đơn hàng</t>
-  </si>
-  <si>
-    <t>Login
--&gt; Menu [B.ASOFT-SO]
--&gt; MenuItem [Nghiệp vụ]
--&gt; MenuItem [Đơn hàng bán]
--&gt; Page [Danh sách đơn hàng bán -SOF2000]</t>
   </si>
   <si>
     <t>Sử dụng màn hình này để:
 Cho phép người dùng theo dõi truy vấn lại danh sách các đơn hàng đã lập</t>
   </si>
   <si>
-    <t>B.Asoft-SO</t>
-  </si>
-  <si>
     <t>Nghiệp vụ</t>
   </si>
   <si>
-    <t>B.Asoft-SO/Nghiệp vụ/Đơn hàng bán</t>
-  </si>
-  <si>
     <t>Danh sách đơn hàng bán - SOF2000</t>
   </si>
   <si>
@@ -2326,9 +2310,6 @@
   </si>
   <si>
     <t>Trạng thái in</t>
-  </si>
-  <si>
-    <t>Trạng thái đơn hàng</t>
   </si>
   <si>
     <t>Giao hộ</t>
@@ -3197,6 +3178,53 @@
   </si>
   <si>
     <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>Tấn Đạt</t>
+  </si>
+  <si>
+    <t>22/02/2018</t>
+  </si>
+  <si>
+    <t>Login
+-&gt; Menu [Nghiệp vụ]
+-&gt; MenuItem [Đơn hàng]
+-&gt; Page [Danh sách đơn hàng bán -SOF2000]</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm Combo phân loại Hợp đồng/Đơn hàng
+STT yêu cầu bên file tasklist: 11</t>
+  </si>
+  <si>
+    <t>Nghiệp vụ/Đơn hàng</t>
+  </si>
+  <si>
+    <t>Ver 9.0</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>SOrderType</t>
+  </si>
+  <si>
+    <t>Lọc nâng cao</t>
+  </si>
+  <si>
+    <t>Combo chỉ có 2 giá trị: 
+1: Đơn hàng, 2:Hợp đồng</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>@SQL009</t>
+  </si>
+  <si>
+    <t>Insert into CRMT20001 (ContractID, ContractNo, DivisionID,ContractDate,ObjectID)
+ Select A.ContractID, A.Contractno, A.DivisionID, A.SignDate, A.ObjectID
+ From AT1020 A
+ Where A.ContractID not in (Select ContractID From CRMT20001)</t>
   </si>
 </sst>
 </file>
@@ -3755,7 +3783,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4261,6 +4289,69 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4339,6 +4430,15 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4348,6 +4448,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4408,16 +4517,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4744,38 +4853,18 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4793,6 +4882,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF008080"/>
       <color rgb="FF808080"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FA00"/>
@@ -4898,6 +4988,61 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="752475"/>
+          <a:ext cx="8886825" cy="6210300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5694,65 +5839,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="208"/>
-      <c r="B1" s="208"/>
-      <c r="C1" s="210" t="s">
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="209" t="s">
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="232" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209" t="s">
+      <c r="H1" s="232"/>
+      <c r="I1" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="209"/>
+      <c r="J1" s="232"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="208"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="209" t="s">
+      <c r="A2" s="231"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="232" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="205" t="s">
+      <c r="A3" s="231"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="228" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="206"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="206"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="229"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="100"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="207"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="207"/>
+      <c r="A13" s="230"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="230"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="230"/>
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
       <c r="M13" s="101"/>
@@ -5763,56 +5908,56 @@
       <c r="R13" s="101"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="201"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-      <c r="R14" s="201"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="201"/>
-      <c r="R15" s="201"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="224"/>
+      <c r="R15" s="224"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="227" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
+      <c r="B16" s="227"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
@@ -5823,384 +5968,384 @@
       <c r="R16" s="102"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="201"/>
-      <c r="R17" s="201"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="224"/>
+      <c r="R17" s="224"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="201"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="224"/>
+      <c r="R18" s="224"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="203"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="226"/>
+      <c r="N19" s="226"/>
+      <c r="O19" s="226"/>
+      <c r="P19" s="226"/>
+      <c r="Q19" s="226"/>
+      <c r="R19" s="226"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="201"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="201"/>
-      <c r="R20" s="201"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="224"/>
+      <c r="P20" s="224"/>
+      <c r="Q20" s="224"/>
+      <c r="R20" s="224"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="201"/>
-      <c r="R21" s="201"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="224"/>
+      <c r="R21" s="224"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="202"/>
-      <c r="P22" s="202"/>
-      <c r="Q22" s="202"/>
-      <c r="R22" s="202"/>
+      <c r="B22" s="225"/>
+      <c r="C22" s="225"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="225"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="225"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="225"/>
+      <c r="R22" s="225"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="202"/>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="202"/>
-      <c r="R23" s="202"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="225"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="225"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="225"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="225"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="225"/>
+      <c r="R23" s="225"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="199"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="199"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="199"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="222"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="222"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="222"/>
+      <c r="L26" s="222"/>
+      <c r="M26" s="222"/>
+      <c r="N26" s="222"/>
+      <c r="O26" s="222"/>
+      <c r="P26" s="222"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="222"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="200"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="200"/>
-      <c r="M28" s="200"/>
-      <c r="N28" s="200"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="200"/>
-      <c r="Q28" s="200"/>
-      <c r="R28" s="200"/>
-      <c r="S28" s="198"/>
-      <c r="T28" s="198"/>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="198"/>
-      <c r="X28" s="198"/>
-      <c r="Y28" s="198"/>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="198"/>
-      <c r="AC28" s="198"/>
-      <c r="AD28" s="198"/>
-      <c r="AE28" s="198"/>
-      <c r="AF28" s="198"/>
-      <c r="AG28" s="198"/>
-      <c r="AH28" s="198"/>
-      <c r="AI28" s="198"/>
-      <c r="AJ28" s="198"/>
-      <c r="AK28" s="198"/>
-      <c r="AL28" s="198"/>
-      <c r="AM28" s="198"/>
-      <c r="AN28" s="198"/>
-      <c r="AO28" s="198"/>
-      <c r="AP28" s="198"/>
-      <c r="AQ28" s="198"/>
-      <c r="AR28" s="198"/>
-      <c r="AS28" s="198"/>
-      <c r="AT28" s="198"/>
-      <c r="AU28" s="198"/>
-      <c r="AV28" s="198"/>
-      <c r="AW28" s="198"/>
-      <c r="AX28" s="198"/>
-      <c r="AY28" s="198"/>
-      <c r="AZ28" s="198"/>
-      <c r="BA28" s="198"/>
-      <c r="BB28" s="198"/>
-      <c r="BC28" s="198"/>
-      <c r="BD28" s="198"/>
-      <c r="BE28" s="198"/>
-      <c r="BF28" s="198"/>
-      <c r="BG28" s="198"/>
-      <c r="BH28" s="198"/>
-      <c r="BI28" s="198"/>
-      <c r="BJ28" s="198"/>
-      <c r="BK28" s="198"/>
-      <c r="BL28" s="198"/>
-      <c r="BM28" s="198"/>
-      <c r="BN28" s="198"/>
-      <c r="BO28" s="198"/>
-      <c r="BP28" s="198"/>
-      <c r="BQ28" s="198"/>
-      <c r="BR28" s="198"/>
-      <c r="BS28" s="198"/>
-      <c r="BT28" s="198"/>
-      <c r="BU28" s="198"/>
-      <c r="BV28" s="198"/>
-      <c r="BW28" s="198"/>
-      <c r="BX28" s="198"/>
-      <c r="BY28" s="198"/>
-      <c r="BZ28" s="198"/>
-      <c r="CA28" s="198"/>
-      <c r="CB28" s="198"/>
-      <c r="CC28" s="198"/>
-      <c r="CD28" s="198"/>
-      <c r="CE28" s="198"/>
-      <c r="CF28" s="198"/>
-      <c r="CG28" s="198"/>
-      <c r="CH28" s="198"/>
-      <c r="CI28" s="198"/>
-      <c r="CJ28" s="198"/>
-      <c r="CK28" s="198"/>
-      <c r="CL28" s="198"/>
-      <c r="CM28" s="198"/>
-      <c r="CN28" s="198"/>
-      <c r="CO28" s="198"/>
-      <c r="CP28" s="198"/>
-      <c r="CQ28" s="198"/>
-      <c r="CR28" s="198"/>
-      <c r="CS28" s="198"/>
-      <c r="CT28" s="198"/>
-      <c r="CU28" s="198"/>
-      <c r="CV28" s="198"/>
-      <c r="CW28" s="198"/>
-      <c r="CX28" s="198"/>
-      <c r="CY28" s="198"/>
-      <c r="CZ28" s="198"/>
-      <c r="DA28" s="198"/>
-      <c r="DB28" s="198"/>
-      <c r="DC28" s="198"/>
-      <c r="DD28" s="198"/>
-      <c r="DE28" s="198"/>
-      <c r="DF28" s="198"/>
-      <c r="DG28" s="198"/>
-      <c r="DH28" s="198"/>
-      <c r="DI28" s="198"/>
-      <c r="DJ28" s="198"/>
-      <c r="DK28" s="198"/>
-      <c r="DL28" s="198"/>
-      <c r="DM28" s="198"/>
-      <c r="DN28" s="198"/>
-      <c r="DO28" s="198"/>
-      <c r="DP28" s="198"/>
-      <c r="DQ28" s="198"/>
-      <c r="DR28" s="198"/>
-      <c r="DS28" s="198"/>
-      <c r="DT28" s="198"/>
-      <c r="DU28" s="198"/>
-      <c r="DV28" s="198"/>
-      <c r="DW28" s="198"/>
-      <c r="DX28" s="198"/>
-      <c r="DY28" s="198"/>
-      <c r="DZ28" s="198"/>
-      <c r="EA28" s="198"/>
-      <c r="EB28" s="198"/>
-      <c r="EC28" s="198"/>
-      <c r="ED28" s="198"/>
-      <c r="EE28" s="198"/>
-      <c r="EF28" s="198"/>
-      <c r="EG28" s="198"/>
-      <c r="EH28" s="198"/>
-      <c r="EI28" s="198"/>
-      <c r="EJ28" s="198"/>
-      <c r="EK28" s="198"/>
-      <c r="EL28" s="198"/>
-      <c r="EM28" s="198"/>
-      <c r="EN28" s="198"/>
-      <c r="EO28" s="198"/>
-      <c r="EP28" s="198"/>
-      <c r="EQ28" s="198"/>
-      <c r="ER28" s="198"/>
-      <c r="ES28" s="198"/>
-      <c r="ET28" s="198"/>
-      <c r="EU28" s="198"/>
-      <c r="EV28" s="198"/>
-      <c r="EW28" s="198"/>
-      <c r="EX28" s="198"/>
-      <c r="EY28" s="198"/>
-      <c r="EZ28" s="198"/>
-      <c r="FA28" s="198"/>
-      <c r="FB28" s="198"/>
-      <c r="FC28" s="198"/>
-      <c r="FD28" s="198"/>
-      <c r="FE28" s="198"/>
-      <c r="FF28" s="198"/>
-      <c r="FG28" s="198"/>
-      <c r="FH28" s="198"/>
-      <c r="FI28" s="198"/>
-      <c r="FJ28" s="198"/>
-      <c r="FK28" s="198"/>
-      <c r="FL28" s="198"/>
-      <c r="FM28" s="198"/>
-      <c r="FN28" s="198"/>
-      <c r="FO28" s="198"/>
-      <c r="FP28" s="198"/>
-      <c r="FQ28" s="198"/>
-      <c r="FR28" s="198"/>
-      <c r="FS28" s="198"/>
-      <c r="FT28" s="198"/>
-      <c r="FU28" s="198"/>
-      <c r="FV28" s="198"/>
-      <c r="FW28" s="198"/>
-      <c r="FX28" s="198"/>
-      <c r="FY28" s="198"/>
-      <c r="FZ28" s="198"/>
-      <c r="GA28" s="198"/>
-      <c r="GB28" s="198"/>
-      <c r="GC28" s="198"/>
-      <c r="GD28" s="198"/>
-      <c r="GE28" s="198"/>
-      <c r="GF28" s="198"/>
-      <c r="GG28" s="198"/>
-      <c r="GH28" s="198"/>
-      <c r="GI28" s="198"/>
-      <c r="GJ28" s="198"/>
-      <c r="GK28" s="198"/>
-      <c r="GL28" s="198"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
+      <c r="O28" s="223"/>
+      <c r="P28" s="223"/>
+      <c r="Q28" s="223"/>
+      <c r="R28" s="223"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="221"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="221"/>
+      <c r="W28" s="221"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="221"/>
+      <c r="Z28" s="221"/>
+      <c r="AA28" s="221"/>
+      <c r="AB28" s="221"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="221"/>
+      <c r="AE28" s="221"/>
+      <c r="AF28" s="221"/>
+      <c r="AG28" s="221"/>
+      <c r="AH28" s="221"/>
+      <c r="AI28" s="221"/>
+      <c r="AJ28" s="221"/>
+      <c r="AK28" s="221"/>
+      <c r="AL28" s="221"/>
+      <c r="AM28" s="221"/>
+      <c r="AN28" s="221"/>
+      <c r="AO28" s="221"/>
+      <c r="AP28" s="221"/>
+      <c r="AQ28" s="221"/>
+      <c r="AR28" s="221"/>
+      <c r="AS28" s="221"/>
+      <c r="AT28" s="221"/>
+      <c r="AU28" s="221"/>
+      <c r="AV28" s="221"/>
+      <c r="AW28" s="221"/>
+      <c r="AX28" s="221"/>
+      <c r="AY28" s="221"/>
+      <c r="AZ28" s="221"/>
+      <c r="BA28" s="221"/>
+      <c r="BB28" s="221"/>
+      <c r="BC28" s="221"/>
+      <c r="BD28" s="221"/>
+      <c r="BE28" s="221"/>
+      <c r="BF28" s="221"/>
+      <c r="BG28" s="221"/>
+      <c r="BH28" s="221"/>
+      <c r="BI28" s="221"/>
+      <c r="BJ28" s="221"/>
+      <c r="BK28" s="221"/>
+      <c r="BL28" s="221"/>
+      <c r="BM28" s="221"/>
+      <c r="BN28" s="221"/>
+      <c r="BO28" s="221"/>
+      <c r="BP28" s="221"/>
+      <c r="BQ28" s="221"/>
+      <c r="BR28" s="221"/>
+      <c r="BS28" s="221"/>
+      <c r="BT28" s="221"/>
+      <c r="BU28" s="221"/>
+      <c r="BV28" s="221"/>
+      <c r="BW28" s="221"/>
+      <c r="BX28" s="221"/>
+      <c r="BY28" s="221"/>
+      <c r="BZ28" s="221"/>
+      <c r="CA28" s="221"/>
+      <c r="CB28" s="221"/>
+      <c r="CC28" s="221"/>
+      <c r="CD28" s="221"/>
+      <c r="CE28" s="221"/>
+      <c r="CF28" s="221"/>
+      <c r="CG28" s="221"/>
+      <c r="CH28" s="221"/>
+      <c r="CI28" s="221"/>
+      <c r="CJ28" s="221"/>
+      <c r="CK28" s="221"/>
+      <c r="CL28" s="221"/>
+      <c r="CM28" s="221"/>
+      <c r="CN28" s="221"/>
+      <c r="CO28" s="221"/>
+      <c r="CP28" s="221"/>
+      <c r="CQ28" s="221"/>
+      <c r="CR28" s="221"/>
+      <c r="CS28" s="221"/>
+      <c r="CT28" s="221"/>
+      <c r="CU28" s="221"/>
+      <c r="CV28" s="221"/>
+      <c r="CW28" s="221"/>
+      <c r="CX28" s="221"/>
+      <c r="CY28" s="221"/>
+      <c r="CZ28" s="221"/>
+      <c r="DA28" s="221"/>
+      <c r="DB28" s="221"/>
+      <c r="DC28" s="221"/>
+      <c r="DD28" s="221"/>
+      <c r="DE28" s="221"/>
+      <c r="DF28" s="221"/>
+      <c r="DG28" s="221"/>
+      <c r="DH28" s="221"/>
+      <c r="DI28" s="221"/>
+      <c r="DJ28" s="221"/>
+      <c r="DK28" s="221"/>
+      <c r="DL28" s="221"/>
+      <c r="DM28" s="221"/>
+      <c r="DN28" s="221"/>
+      <c r="DO28" s="221"/>
+      <c r="DP28" s="221"/>
+      <c r="DQ28" s="221"/>
+      <c r="DR28" s="221"/>
+      <c r="DS28" s="221"/>
+      <c r="DT28" s="221"/>
+      <c r="DU28" s="221"/>
+      <c r="DV28" s="221"/>
+      <c r="DW28" s="221"/>
+      <c r="DX28" s="221"/>
+      <c r="DY28" s="221"/>
+      <c r="DZ28" s="221"/>
+      <c r="EA28" s="221"/>
+      <c r="EB28" s="221"/>
+      <c r="EC28" s="221"/>
+      <c r="ED28" s="221"/>
+      <c r="EE28" s="221"/>
+      <c r="EF28" s="221"/>
+      <c r="EG28" s="221"/>
+      <c r="EH28" s="221"/>
+      <c r="EI28" s="221"/>
+      <c r="EJ28" s="221"/>
+      <c r="EK28" s="221"/>
+      <c r="EL28" s="221"/>
+      <c r="EM28" s="221"/>
+      <c r="EN28" s="221"/>
+      <c r="EO28" s="221"/>
+      <c r="EP28" s="221"/>
+      <c r="EQ28" s="221"/>
+      <c r="ER28" s="221"/>
+      <c r="ES28" s="221"/>
+      <c r="ET28" s="221"/>
+      <c r="EU28" s="221"/>
+      <c r="EV28" s="221"/>
+      <c r="EW28" s="221"/>
+      <c r="EX28" s="221"/>
+      <c r="EY28" s="221"/>
+      <c r="EZ28" s="221"/>
+      <c r="FA28" s="221"/>
+      <c r="FB28" s="221"/>
+      <c r="FC28" s="221"/>
+      <c r="FD28" s="221"/>
+      <c r="FE28" s="221"/>
+      <c r="FF28" s="221"/>
+      <c r="FG28" s="221"/>
+      <c r="FH28" s="221"/>
+      <c r="FI28" s="221"/>
+      <c r="FJ28" s="221"/>
+      <c r="FK28" s="221"/>
+      <c r="FL28" s="221"/>
+      <c r="FM28" s="221"/>
+      <c r="FN28" s="221"/>
+      <c r="FO28" s="221"/>
+      <c r="FP28" s="221"/>
+      <c r="FQ28" s="221"/>
+      <c r="FR28" s="221"/>
+      <c r="FS28" s="221"/>
+      <c r="FT28" s="221"/>
+      <c r="FU28" s="221"/>
+      <c r="FV28" s="221"/>
+      <c r="FW28" s="221"/>
+      <c r="FX28" s="221"/>
+      <c r="FY28" s="221"/>
+      <c r="FZ28" s="221"/>
+      <c r="GA28" s="221"/>
+      <c r="GB28" s="221"/>
+      <c r="GC28" s="221"/>
+      <c r="GD28" s="221"/>
+      <c r="GE28" s="221"/>
+      <c r="GF28" s="221"/>
+      <c r="GG28" s="221"/>
+      <c r="GH28" s="221"/>
+      <c r="GI28" s="221"/>
+      <c r="GJ28" s="221"/>
+      <c r="GK28" s="221"/>
+      <c r="GL28" s="221"/>
       <c r="GM28" s="103"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="199"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="199"/>
-      <c r="L29" s="199"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="199"/>
-      <c r="O29" s="199"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="199"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="222"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="222"/>
+      <c r="G29" s="222"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="222"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="222"/>
+      <c r="L29" s="222"/>
+      <c r="M29" s="222"/>
+      <c r="N29" s="222"/>
+      <c r="O29" s="222"/>
+      <c r="P29" s="222"/>
+      <c r="Q29" s="222"/>
+      <c r="R29" s="222"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="197"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="197"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
       <c r="K30" s="104"/>
       <c r="L30" s="104"/>
       <c r="M30" s="104"/>
@@ -6211,16 +6356,16 @@
       <c r="R30" s="104"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="197"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="104"/>
       <c r="L31" s="104"/>
       <c r="M31" s="104"/>
@@ -6293,14 +6438,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="354" t="s">
+      <c r="B1" s="383" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6493,11 +6638,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="355" t="s">
+      <c r="E27" s="384" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="356"/>
-      <c r="G27" s="357"/>
+      <c r="F27" s="385"/>
+      <c r="G27" s="386"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -6796,74 +6941,74 @@
     </row>
     <row r="12" spans="2:3" ht="15.75" thickBot="1">
       <c r="B12" s="183" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" thickBot="1">
       <c r="B13" s="183" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1">
       <c r="B14" s="183" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickBot="1">
       <c r="B15" s="183" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1">
       <c r="B16" s="183" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1">
       <c r="B17" s="183" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1">
       <c r="B18" s="183" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27.75" thickBot="1">
       <c r="B19" s="183" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" thickBot="1">
       <c r="B20" s="183" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6877,7 +7022,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:J23"/>
+      <selection activeCell="E14" sqref="E14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6893,10 +7038,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="267"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6907,7 +7052,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -6923,19 +7068,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>6</v>
@@ -6963,14 +7108,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="239" t="s">
+      <c r="E4" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="268"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="37">
@@ -6985,14 +7130,14 @@
       <c r="D5" s="35">
         <v>42347</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="242" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
     </row>
     <row r="6" spans="1:10" s="135" customFormat="1" ht="12.75">
       <c r="A6" s="136">
@@ -7002,19 +7147,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D6" s="137">
         <v>42473</v>
       </c>
-      <c r="E6" s="240" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="242"/>
+      <c r="E6" s="269" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="271"/>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1">
       <c r="A7" s="75">
@@ -7024,19 +7169,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="160" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D7" s="160">
         <v>42697</v>
       </c>
-      <c r="E7" s="226" t="s">
-        <v>358</v>
-      </c>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="228"/>
+      <c r="E7" s="255" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="257"/>
     </row>
     <row r="8" spans="1:10" s="168" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="76">
@@ -7046,15 +7191,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="166" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D8" s="167"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="260"/>
     </row>
     <row r="9" spans="1:10" s="173" customFormat="1" ht="92.25" customHeight="1">
       <c r="A9" s="169">
@@ -7067,16 +7212,16 @@
         <v>158</v>
       </c>
       <c r="D9" s="172" t="s">
-        <v>365</v>
-      </c>
-      <c r="E9" s="232" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="234"/>
+        <v>360</v>
+      </c>
+      <c r="E9" s="261" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="263"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="78">
@@ -7086,19 +7231,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="185" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D10" s="185">
         <v>42864</v>
       </c>
-      <c r="E10" s="235" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="237"/>
+      <c r="E10" s="264" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="265"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="266"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="79">
@@ -7108,57 +7253,63 @@
         <v>7</v>
       </c>
       <c r="C11" s="188" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D11" s="188">
         <v>42880</v>
       </c>
-      <c r="E11" s="220" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" s="221"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
+      <c r="E11" s="243" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="245"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80">
         <v>8</v>
       </c>
-      <c r="B12" s="358">
+      <c r="B12" s="198">
         <v>8</v>
       </c>
-      <c r="C12" s="359" t="s">
-        <v>357</v>
-      </c>
-      <c r="D12" s="359">
+      <c r="C12" s="199" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" s="199">
         <v>43018</v>
       </c>
-      <c r="E12" s="360" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="361"/>
-      <c r="G12" s="361"/>
-      <c r="H12" s="361"/>
-      <c r="I12" s="361"/>
-      <c r="J12" s="362"/>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1">
+      <c r="E12" s="246" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="248"/>
+    </row>
+    <row r="13" spans="1:10" s="209" customFormat="1" ht="12.75">
       <c r="A13" s="81">
         <v>9</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="206">
         <v>9</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="225"/>
+      <c r="C13" s="207" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="208" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="252" t="s">
+        <v>401</v>
+      </c>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="254"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="82">
@@ -7169,12 +7320,12 @@
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="225"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="251"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -7185,12 +7336,12 @@
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="74">
@@ -7201,12 +7352,12 @@
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="75">
@@ -7217,12 +7368,12 @@
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="219"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="76">
@@ -7233,12 +7384,12 @@
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="77">
@@ -7249,12 +7400,12 @@
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="78">
@@ -7265,12 +7416,12 @@
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="219"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="242"/>
+      <c r="J20" s="242"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="79">
@@ -7281,12 +7432,12 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="242"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="80">
@@ -7297,12 +7448,12 @@
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="219"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="242"/>
+      <c r="J22" s="242"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="81">
@@ -7313,12 +7464,12 @@
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="242"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="82">
@@ -7329,12 +7480,12 @@
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="242"/>
+      <c r="H24" s="242"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="242"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -7345,12 +7496,12 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="242"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="74">
@@ -7361,12 +7512,12 @@
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="242"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="242"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="75">
@@ -7377,12 +7528,12 @@
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="76">
@@ -7393,12 +7544,12 @@
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="242"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="77">
@@ -7409,12 +7560,12 @@
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="242"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="78">
@@ -7425,12 +7576,12 @@
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="79">
@@ -7441,12 +7592,12 @@
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="242"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="242"/>
+      <c r="I31" s="242"/>
+      <c r="J31" s="242"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="80">
@@ -7457,12 +7608,12 @@
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="242"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="242"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="81">
@@ -7473,12 +7624,12 @@
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="82">
@@ -7489,12 +7640,12 @@
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="242"/>
+      <c r="G34" s="242"/>
+      <c r="H34" s="242"/>
+      <c r="I34" s="242"/>
+      <c r="J34" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -7554,8 +7705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7574,10 +7725,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="267"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7602,14 +7753,13 @@
       <c r="I1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="59" t="str">
-        <f>'Update History'!J1</f>
-        <v>Hoàng vũ</v>
+      <c r="J1" s="59" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7634,26 +7784,25 @@
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="59">
-        <f>'Update History'!J2</f>
-        <v>42347</v>
+      <c r="J2" s="59" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="272" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="243" t="s">
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="244"/>
+      <c r="J4" s="273"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="39"/>
@@ -7664,10 +7813,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="250" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="251"/>
+      <c r="I5" s="279" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="280"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -7678,8 +7827,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="253"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="282"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -7690,8 +7839,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="253"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="282"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -7702,8 +7851,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="252"/>
-      <c r="J8" s="253"/>
+      <c r="I8" s="281"/>
+      <c r="J8" s="282"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -7714,8 +7863,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -7726,8 +7875,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="255"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="284"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -7738,10 +7887,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="243" t="s">
+      <c r="I11" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="244"/>
+      <c r="J11" s="273"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -7752,10 +7901,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="246" t="s">
-        <v>243</v>
-      </c>
-      <c r="J12" s="247"/>
+      <c r="I12" s="275" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="276"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -7766,8 +7915,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="249"/>
+      <c r="I13" s="277"/>
+      <c r="J13" s="278"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -7778,8 +7927,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="248"/>
-      <c r="J14" s="249"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="278"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -7790,8 +7939,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="248"/>
-      <c r="J15" s="249"/>
+      <c r="I15" s="277"/>
+      <c r="J15" s="278"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -7802,8 +7951,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="248"/>
-      <c r="J16" s="249"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="278"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -7814,8 +7963,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="249"/>
+      <c r="I17" s="277"/>
+      <c r="J17" s="278"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -7826,8 +7975,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="248"/>
-      <c r="J18" s="249"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="278"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -7838,8 +7987,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="249"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="278"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -7850,8 +7999,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="248"/>
-      <c r="J20" s="249"/>
+      <c r="I20" s="277"/>
+      <c r="J20" s="278"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -7862,8 +8011,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="248"/>
-      <c r="J21" s="249"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="278"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -7874,8 +8023,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="248"/>
-      <c r="J22" s="249"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="278"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -7886,8 +8035,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="248"/>
-      <c r="J23" s="249"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="278"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -7898,8 +8047,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="248"/>
-      <c r="J24" s="249"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="278"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -7910,8 +8059,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="248"/>
-      <c r="J25" s="249"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="278"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -7922,8 +8071,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="248"/>
-      <c r="J26" s="249"/>
+      <c r="I26" s="277"/>
+      <c r="J26" s="278"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -7934,8 +8083,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="248"/>
-      <c r="J27" s="249"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="278"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -7946,8 +8095,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="248"/>
-      <c r="J28" s="249"/>
+      <c r="I28" s="277"/>
+      <c r="J28" s="278"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -7958,8 +8107,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="248"/>
-      <c r="J29" s="249"/>
+      <c r="I29" s="277"/>
+      <c r="J29" s="278"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -7970,8 +8119,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="248"/>
-      <c r="J30" s="249"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="278"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -7982,8 +8131,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="248"/>
-      <c r="J31" s="249"/>
+      <c r="I31" s="277"/>
+      <c r="J31" s="278"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -7994,8 +8143,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="248"/>
-      <c r="J32" s="249"/>
+      <c r="I32" s="277"/>
+      <c r="J32" s="278"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -8006,8 +8155,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="248"/>
-      <c r="J33" s="249"/>
+      <c r="I33" s="277"/>
+      <c r="J33" s="278"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -8018,8 +8167,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="248"/>
-      <c r="J34" s="249"/>
+      <c r="I34" s="277"/>
+      <c r="J34" s="278"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -8030,8 +8179,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="248"/>
-      <c r="J35" s="249"/>
+      <c r="I35" s="277"/>
+      <c r="J35" s="278"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -8042,8 +8191,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="248"/>
-      <c r="J36" s="249"/>
+      <c r="I36" s="277"/>
+      <c r="J36" s="278"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -8054,8 +8203,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="248"/>
-      <c r="J37" s="249"/>
+      <c r="I37" s="277"/>
+      <c r="J37" s="278"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -8066,8 +8215,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="248"/>
-      <c r="J38" s="249"/>
+      <c r="I38" s="277"/>
+      <c r="J38" s="278"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -8078,8 +8227,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="248"/>
-      <c r="J39" s="249"/>
+      <c r="I39" s="277"/>
+      <c r="J39" s="278"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -8090,8 +8239,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="248"/>
-      <c r="J40" s="249"/>
+      <c r="I40" s="277"/>
+      <c r="J40" s="278"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -8102,8 +8251,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="248"/>
-      <c r="J41" s="249"/>
+      <c r="I41" s="277"/>
+      <c r="J41" s="278"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -8114,8 +8263,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="248"/>
-      <c r="J42" s="249"/>
+      <c r="I42" s="277"/>
+      <c r="J42" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8140,13 +8289,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54:P54"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8154,7 +8303,7 @@
     <col min="1" max="1" width="4.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="22" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="23" bestFit="1" customWidth="1"/>
@@ -8163,7 +8312,7 @@
     <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35.42578125" style="22" customWidth="1"/>
@@ -8171,13 +8320,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -8185,16 +8334,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="256" t="s">
+      <c r="H1" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="257"/>
-      <c r="J1" s="258" t="str">
+      <c r="I1" s="286"/>
+      <c r="J1" s="287" t="str">
         <f>'Update History'!F1</f>
         <v>SOF2000</v>
       </c>
-      <c r="K1" s="259"/>
-      <c r="L1" s="260"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="289"/>
       <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
@@ -8211,11 +8360,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
@@ -8223,16 +8372,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-SO</v>
       </c>
-      <c r="H2" s="256" t="s">
+      <c r="H2" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="257"/>
-      <c r="J2" s="258" t="str">
+      <c r="I2" s="286"/>
+      <c r="J2" s="287" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục đơn hàng</v>
       </c>
-      <c r="K2" s="259"/>
-      <c r="L2" s="260"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="289"/>
       <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
@@ -8256,7 +8405,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>108</v>
@@ -8303,14 +8452,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="109">
         <v>1</v>
       </c>
-      <c r="E5" s="132" t="s">
-        <v>245</v>
+      <c r="E5" s="197" t="s">
+        <v>243</v>
       </c>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
@@ -8331,14 +8480,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="109">
         <v>2</v>
       </c>
-      <c r="E6" s="132" t="s">
-        <v>246</v>
+      <c r="E6" s="197" t="s">
+        <v>402</v>
       </c>
       <c r="F6" s="110"/>
       <c r="G6" s="110"/>
@@ -8363,15 +8512,15 @@
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="109">
-        <v>2</v>
-      </c>
-      <c r="E7" s="132" t="s">
-        <v>247</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="197" t="s">
+        <v>244</v>
       </c>
       <c r="F7" s="110"/>
       <c r="G7" s="110"/>
       <c r="H7" s="110" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="I7" s="111"/>
       <c r="J7" s="112"/>
@@ -8384,27 +8533,33 @@
     </row>
     <row r="8" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C8" s="109"/>
       <c r="D8" s="109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="132" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="110"/>
       <c r="G8" s="110"/>
       <c r="H8" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="111"/>
+        <v>285</v>
+      </c>
+      <c r="I8" s="111" t="s">
+        <v>188</v>
+      </c>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
-      <c r="L8" s="111"/>
+      <c r="L8" s="111" t="s">
+        <v>189</v>
+      </c>
       <c r="M8" s="110"/>
       <c r="N8" s="110"/>
       <c r="O8" s="110"/>
@@ -8412,61 +8567,63 @@
     </row>
     <row r="9" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C9" s="109"/>
       <c r="D9" s="109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="132" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="110" t="s">
         <v>249</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>252</v>
       </c>
       <c r="G9" s="110"/>
       <c r="H9" s="110" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I9" s="111" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
       <c r="L9" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="M9" s="110"/>
+      <c r="M9" s="110" t="s">
+        <v>287</v>
+      </c>
       <c r="N9" s="110"/>
       <c r="O9" s="110"/>
       <c r="P9" s="110"/>
     </row>
     <row r="10" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G10" s="110"/>
       <c r="H10" s="110" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J10" s="112"/>
       <c r="K10" s="112"/>
@@ -8474,7 +8631,7 @@
         <v>189</v>
       </c>
       <c r="M10" s="110" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N10" s="110"/>
       <c r="O10" s="110"/>
@@ -8482,63 +8639,63 @@
     </row>
     <row r="11" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G11" s="110"/>
       <c r="H11" s="110" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I11" s="111" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="J11" s="112"/>
       <c r="K11" s="112"/>
       <c r="L11" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="M11" s="110" t="s">
-        <v>292</v>
-      </c>
+      <c r="M11" s="110"/>
       <c r="N11" s="110"/>
       <c r="O11" s="110"/>
       <c r="P11" s="110"/>
     </row>
-    <row r="12" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:16" s="25" customFormat="1" ht="42" customHeight="1">
       <c r="A12" s="109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="109"/>
       <c r="D12" s="109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="132" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F12" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="110"/>
+        <v>252</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>252</v>
+      </c>
       <c r="H12" s="110" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="I12" s="111" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="112"/>
@@ -8548,27 +8705,29 @@
       <c r="M12" s="110"/>
       <c r="N12" s="110"/>
       <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-    </row>
-    <row r="13" spans="1:16" s="25" customFormat="1" ht="42" customHeight="1">
+      <c r="P12" s="129" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="25" customFormat="1" ht="45">
       <c r="A13" s="109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="132" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="G13" s="110" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="H13" s="110" t="s">
         <v>187</v>
@@ -8585,45 +8744,47 @@
       <c r="N13" s="110"/>
       <c r="O13" s="110"/>
       <c r="P13" s="129" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="25" customFormat="1" ht="45">
-      <c r="A14" s="109">
-        <v>9</v>
-      </c>
-      <c r="B14" s="109" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="215" customFormat="1" ht="22.5">
+      <c r="A14" s="211">
+        <v>12</v>
+      </c>
+      <c r="B14" s="211" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109">
-        <v>9</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="111" t="s">
+      <c r="C14" s="211">
+        <v>92</v>
+      </c>
+      <c r="D14" s="211">
+        <v>10</v>
+      </c>
+      <c r="E14" s="210" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="212" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="212" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="213" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="213" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="129" t="s">
-        <v>223</v>
+      <c r="M14" s="212"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="212"/>
+      <c r="P14" s="212" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="25" customFormat="1" ht="11.25">
@@ -8635,16 +8796,16 @@
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G15" s="110" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H15" s="110" t="s">
         <v>161</v>
@@ -8673,10 +8834,10 @@
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" s="110" t="s">
         <v>231</v>
@@ -8702,101 +8863,101 @@
       <c r="O16" s="110"/>
       <c r="P16" s="110"/>
     </row>
-    <row r="17" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="109">
-        <v>12</v>
-      </c>
-      <c r="B17" s="109" t="s">
+    <row r="17" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="191">
+        <v>13</v>
+      </c>
+      <c r="B17" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109">
-        <v>12</v>
-      </c>
-      <c r="E17" s="132" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="110" t="s">
+      <c r="C17" s="191"/>
+      <c r="D17" s="191">
+        <v>13</v>
+      </c>
+      <c r="E17" s="192" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="193" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="193" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="193" t="s">
+        <v>183</v>
+      </c>
+      <c r="I17" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="195">
+        <v>50</v>
+      </c>
+      <c r="K17" s="195"/>
+      <c r="L17" s="194" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+    </row>
+    <row r="18" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A18" s="109">
+        <v>14</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109">
+        <v>14</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G18" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H18" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I18" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="J17" s="112">
+      <c r="J18" s="112">
         <v>50</v>
       </c>
-      <c r="K17" s="112"/>
-      <c r="L17" s="111" t="s">
+      <c r="K18" s="112"/>
+      <c r="L18" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-    </row>
-    <row r="18" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="191">
-        <v>13</v>
-      </c>
-      <c r="B18" s="191" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191">
-        <v>13</v>
-      </c>
-      <c r="E18" s="192" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="193" t="s">
-        <v>278</v>
-      </c>
-      <c r="G18" s="193" t="s">
-        <v>278</v>
-      </c>
-      <c r="H18" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" s="194" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="195">
-        <v>50</v>
-      </c>
-      <c r="K18" s="195"/>
-      <c r="L18" s="194" t="s">
-        <v>189</v>
-      </c>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
     </row>
     <row r="19" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C19" s="109"/>
       <c r="D19" s="109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="132" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="F19" s="110" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="H19" s="110" t="s">
         <v>161</v>
@@ -8818,23 +8979,23 @@
     </row>
     <row r="20" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="109">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C20" s="109"/>
       <c r="D20" s="109">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F20" s="110" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H20" s="110" t="s">
         <v>161</v>
@@ -8856,33 +9017,31 @@
     </row>
     <row r="21" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="109"/>
       <c r="D21" s="109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F21" s="110" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G21" s="110" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H21" s="110" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I21" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="112">
-        <v>50</v>
-      </c>
+      <c r="J21" s="112"/>
       <c r="K21" s="112"/>
       <c r="L21" s="111" t="s">
         <v>189</v>
@@ -8894,23 +9053,23 @@
     </row>
     <row r="22" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="109">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="109"/>
       <c r="D22" s="109">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F22" s="110" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H22" s="110" t="s">
         <v>183</v>
@@ -8930,35 +9089,27 @@
     </row>
     <row r="23" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="109">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="109">
-        <v>18</v>
-      </c>
-      <c r="E23" s="132" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23" s="110" t="s">
-        <v>282</v>
-      </c>
-      <c r="G23" s="110" t="s">
-        <v>282</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E23" s="197" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="111" t="s">
-        <v>162</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I23" s="111"/>
       <c r="J23" s="112"/>
       <c r="K23" s="112"/>
-      <c r="L23" s="111" t="s">
-        <v>189</v>
-      </c>
+      <c r="L23" s="111"/>
       <c r="M23" s="110"/>
       <c r="N23" s="110"/>
       <c r="O23" s="110"/>
@@ -8973,7 +9124,7 @@
       </c>
       <c r="C24" s="109"/>
       <c r="D24" s="109">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="132" t="s">
         <v>169</v>
@@ -9003,7 +9154,7 @@
       </c>
       <c r="C25" s="109"/>
       <c r="D25" s="109">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="132" t="s">
         <v>168</v>
@@ -9033,7 +9184,7 @@
       </c>
       <c r="C26" s="109"/>
       <c r="D26" s="109">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="132" t="s">
         <v>170</v>
@@ -9063,7 +9214,7 @@
       </c>
       <c r="C27" s="109"/>
       <c r="D27" s="109">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="132" t="s">
         <v>171</v>
@@ -9094,16 +9245,16 @@
         <v>160</v>
       </c>
       <c r="C28" s="174" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D28" s="109">
         <v>23</v>
       </c>
       <c r="E28" s="110" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F28" s="125" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G28" s="125"/>
       <c r="H28" s="110" t="s">
@@ -9117,7 +9268,7 @@
       <c r="N28" s="109"/>
       <c r="O28" s="109"/>
       <c r="P28" s="70" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="25" customFormat="1" ht="45">
@@ -9308,13 +9459,13 @@
         <v>26.3</v>
       </c>
       <c r="E34" s="132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F34" s="110" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G34" s="110" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H34" s="110" t="s">
         <v>182</v>
@@ -9344,19 +9495,19 @@
         <v>26.4</v>
       </c>
       <c r="E35" s="132" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F35" s="110" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G35" s="110" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H35" s="110" t="s">
         <v>182</v>
       </c>
       <c r="I35" s="111" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -9364,7 +9515,7 @@
         <v>166</v>
       </c>
       <c r="M35" s="110" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N35" s="110"/>
       <c r="O35" s="110"/>
@@ -9382,13 +9533,13 @@
         <v>26.5</v>
       </c>
       <c r="E36" s="132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F36" s="110" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G36" s="110" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H36" s="110" t="s">
         <v>182</v>
@@ -9421,10 +9572,10 @@
         <v>228</v>
       </c>
       <c r="F37" s="110" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G37" s="110" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H37" s="110" t="s">
         <v>182</v>
@@ -9457,10 +9608,10 @@
         <v>229</v>
       </c>
       <c r="F38" s="110" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G38" s="110" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H38" s="110" t="s">
         <v>182</v>
@@ -9493,10 +9644,10 @@
         <v>230</v>
       </c>
       <c r="F39" s="110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G39" s="110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H39" s="110" t="s">
         <v>182</v>
@@ -9526,13 +9677,13 @@
         <v>26.9</v>
       </c>
       <c r="E40" s="132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F40" s="110" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G40" s="110" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H40" s="110" t="s">
         <v>182</v>
@@ -9559,16 +9710,16 @@
       </c>
       <c r="C41" s="109"/>
       <c r="D41" s="96" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E41" s="132" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F41" s="110" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G41" s="110" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H41" s="110" t="s">
         <v>182</v>
@@ -9595,16 +9746,16 @@
       </c>
       <c r="C42" s="109"/>
       <c r="D42" s="96" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E42" s="132" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F42" s="110" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G42" s="110" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H42" s="110" t="s">
         <v>182</v>
@@ -9631,16 +9782,16 @@
       </c>
       <c r="C43" s="109"/>
       <c r="D43" s="96" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E43" s="132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F43" s="110" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G43" s="110" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H43" s="110" t="s">
         <v>182</v>
@@ -9667,16 +9818,16 @@
       </c>
       <c r="C44" s="109"/>
       <c r="D44" s="96" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E44" s="132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F44" s="132" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G44" s="132" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H44" s="110" t="s">
         <v>182</v>
@@ -9703,10 +9854,10 @@
       </c>
       <c r="C45" s="109"/>
       <c r="D45" s="96" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E45" s="132" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F45" s="132" t="s">
         <v>131</v>
@@ -9739,22 +9890,22 @@
       </c>
       <c r="C46" s="138"/>
       <c r="D46" s="139" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E46" s="140" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F46" s="140" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G46" s="140" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H46" s="141" t="s">
         <v>182</v>
       </c>
       <c r="I46" s="142" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J46" s="143"/>
       <c r="K46" s="143"/>
@@ -9762,7 +9913,7 @@
         <v>166</v>
       </c>
       <c r="M46" s="141" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="N46" s="141"/>
       <c r="O46" s="141"/>
@@ -9773,19 +9924,19 @@
         <v>42</v>
       </c>
       <c r="B47" s="147" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C47" s="175" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D47" s="148" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E47" s="147" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F47" s="149" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G47" s="149"/>
       <c r="H47" s="149" t="s">
@@ -9799,7 +9950,7 @@
       <c r="N47" s="146"/>
       <c r="O47" s="146"/>
       <c r="P47" s="152" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
@@ -9807,16 +9958,16 @@
         <v>43</v>
       </c>
       <c r="B48" s="147" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="175" t="s">
+        <v>359</v>
+      </c>
+      <c r="D48" s="148" t="s">
         <v>338</v>
       </c>
-      <c r="C48" s="175" t="s">
-        <v>364</v>
-      </c>
-      <c r="D48" s="148" t="s">
-        <v>343</v>
-      </c>
       <c r="E48" s="147" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G48" s="146"/>
       <c r="H48" s="149"/>
@@ -9828,7 +9979,7 @@
       <c r="N48" s="146"/>
       <c r="O48" s="146"/>
       <c r="P48" s="152" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
@@ -9836,22 +9987,22 @@
         <v>44</v>
       </c>
       <c r="B49" s="147" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C49" s="175" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D49" s="148" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E49" s="147" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F49" s="147" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G49" s="147" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H49" s="153" t="s">
         <v>182</v>
@@ -9868,7 +10019,7 @@
       <c r="N49" s="146"/>
       <c r="O49" s="146"/>
       <c r="P49" s="152" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
@@ -9876,22 +10027,22 @@
         <v>45</v>
       </c>
       <c r="B50" s="147" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C50" s="175" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D50" s="148" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E50" s="147" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F50" s="147" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G50" s="147" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H50" s="153" t="s">
         <v>182</v>
@@ -9908,7 +10059,7 @@
       <c r="N50" s="146"/>
       <c r="O50" s="146"/>
       <c r="P50" s="152" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
@@ -9916,22 +10067,22 @@
         <v>46</v>
       </c>
       <c r="B51" s="147" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C51" s="175" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D51" s="148" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E51" s="147" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F51" s="147" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G51" s="147" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H51" s="153" t="s">
         <v>182</v>
@@ -9948,7 +10099,7 @@
       <c r="N51" s="146"/>
       <c r="O51" s="146"/>
       <c r="P51" s="152" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
@@ -9956,22 +10107,22 @@
         <v>47</v>
       </c>
       <c r="B52" s="147" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C52" s="175" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D52" s="148" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E52" s="147" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F52" s="147" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G52" s="147" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H52" s="153" t="s">
         <v>182</v>
@@ -9988,7 +10139,7 @@
       <c r="N52" s="146"/>
       <c r="O52" s="146"/>
       <c r="P52" s="152" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
@@ -9996,20 +10147,20 @@
         <v>48</v>
       </c>
       <c r="B53" s="161" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C53" s="174" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D53" s="162"/>
       <c r="E53" s="161" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F53" s="163" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G53" s="163" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H53" s="164"/>
       <c r="I53" s="162"/>
@@ -10021,54 +10172,77 @@
       <c r="O53" s="162"/>
       <c r="P53" s="161"/>
     </row>
-    <row r="54" spans="1:16" s="25" customFormat="1" ht="11.25">
-      <c r="A54" s="363">
+    <row r="54" spans="1:16" s="219" customFormat="1" ht="12" customHeight="1">
+      <c r="A54" s="216"/>
+      <c r="B54" s="217" t="s">
+        <v>403</v>
+      </c>
+      <c r="C54" s="218">
+        <v>92</v>
+      </c>
+      <c r="D54" s="216">
+        <v>26.22</v>
+      </c>
+      <c r="E54" s="217" t="s">
+        <v>404</v>
+      </c>
+      <c r="F54" s="212" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" s="212" t="s">
+        <v>405</v>
+      </c>
+      <c r="H54" s="212" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="213" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54" s="216"/>
+      <c r="K54" s="216"/>
+      <c r="L54" s="216" t="s">
+        <v>166</v>
+      </c>
+      <c r="M54" s="216"/>
+      <c r="N54" s="216"/>
+      <c r="O54" s="216"/>
+      <c r="P54" s="217"/>
+    </row>
+    <row r="55" spans="1:16" s="25" customFormat="1" ht="11.25">
+      <c r="A55" s="200">
         <v>49</v>
       </c>
-      <c r="B54" s="363" t="s">
-        <v>399</v>
-      </c>
-      <c r="C54" s="363"/>
-      <c r="D54" s="364" t="s">
-        <v>400</v>
-      </c>
-      <c r="E54" s="365" t="s">
-        <v>401</v>
-      </c>
-      <c r="F54" s="365" t="s">
-        <v>402</v>
-      </c>
-      <c r="G54" s="365" t="s">
-        <v>402</v>
-      </c>
-      <c r="H54" s="366" t="s">
+      <c r="B55" s="200" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="200"/>
+      <c r="D55" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="E55" s="202" t="s">
+        <v>396</v>
+      </c>
+      <c r="F55" s="202" t="s">
+        <v>397</v>
+      </c>
+      <c r="G55" s="202" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" s="203" t="s">
         <v>182</v>
       </c>
-      <c r="I54" s="367" t="s">
+      <c r="I55" s="204" t="s">
         <v>163</v>
       </c>
-      <c r="J54" s="368"/>
-      <c r="K54" s="368"/>
-      <c r="L54" s="367" t="s">
+      <c r="J55" s="205"/>
+      <c r="K55" s="205"/>
+      <c r="L55" s="204" t="s">
         <v>166</v>
       </c>
-      <c r="M54" s="366"/>
-      <c r="N54" s="366"/>
-      <c r="O54" s="366"/>
-      <c r="P54" s="366"/>
-    </row>
-    <row r="55" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="144"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="144"/>
-      <c r="M55" s="144"/>
-      <c r="N55" s="144"/>
-      <c r="O55" s="144"/>
+      <c r="M55" s="203"/>
+      <c r="N55" s="203"/>
+      <c r="O55" s="203"/>
+      <c r="P55" s="203"/>
     </row>
     <row r="56" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="144"/>
@@ -10083,6 +10257,19 @@
       <c r="N56" s="144"/>
       <c r="O56" s="144"/>
     </row>
+    <row r="57" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
+      <c r="A57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -10093,19 +10280,19 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H27 H29:H48 H5:H12 H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:H48 H54:H55 H5:H11 H14 H16:H27">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13 H15">
       <formula1>"Caption,Dropdownchecklist,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28">
       <formula1>"Caption,Textbox,DateTimePicker, SpinNumeric,Table, Cell,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid,GridColumn,Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:I47 I5:I27 I49:I52 I54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:I47 I49:I52 I54:I55 I5:I27">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L27 L29:L46 L54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L29:L46 L55 L5:L27">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10741,7 +10928,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="298" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="107"/>
@@ -10777,7 +10964,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="270"/>
+      <c r="A2" s="299"/>
       <c r="B2" s="108"/>
       <c r="C2" s="157"/>
       <c r="D2" s="30" t="s">
@@ -10818,7 +11005,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="155" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>129</v>
@@ -10829,15 +11016,15 @@
       <c r="F4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="267" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238" t="s">
+      <c r="H4" s="267"/>
+      <c r="I4" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
+      <c r="J4" s="267"/>
+      <c r="K4" s="267"/>
     </row>
     <row r="5" spans="1:12" s="120" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="117">
@@ -10854,14 +11041,14 @@
       <c r="F5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="264" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="271"/>
-      <c r="I5" s="271"/>
-      <c r="J5" s="272"/>
-      <c r="K5" s="264" t="s">
-        <v>296</v>
+      <c r="G5" s="293" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
+      <c r="J5" s="301"/>
+      <c r="K5" s="293" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="120" customFormat="1" ht="30.75" customHeight="1">
@@ -10873,17 +11060,17 @@
       </c>
       <c r="C6" s="117"/>
       <c r="D6" s="116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="117"/>
       <c r="F6" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="265"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="265"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="303"/>
+      <c r="K6" s="294"/>
     </row>
     <row r="7" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A7" s="117">
@@ -10900,12 +11087,12 @@
       <c r="F7" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="266" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="268"/>
+      <c r="G7" s="295" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="297"/>
       <c r="K7" s="119" t="s">
         <v>195</v>
       </c>
@@ -10915,10 +11102,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="176" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C8" s="176" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D8" s="177" t="s">
         <v>134</v>
@@ -10927,14 +11114,14 @@
       <c r="F8" s="178" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="261" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="263"/>
+      <c r="G8" s="290" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="291"/>
+      <c r="I8" s="291"/>
+      <c r="J8" s="292"/>
       <c r="K8" s="179" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -10964,8 +11151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048242"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10977,9 +11165,8 @@
     <col min="5" max="5" width="2.28515625" style="22" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" style="22" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="22" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" style="22" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="23" bestFit="1" customWidth="1"/>
@@ -10995,24 +11182,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="306" t="str">
+      <c r="J1" s="335" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="306"/>
+      <c r="K1" s="335"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11030,32 +11217,32 @@
       <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="307" t="str">
+      <c r="Q1" s="336" t="str">
         <f>'Update History'!J1</f>
         <v>Hoàng vũ</v>
       </c>
-      <c r="R1" s="308"/>
-      <c r="S1" s="309"/>
+      <c r="R1" s="337"/>
+      <c r="S1" s="338"/>
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
       <c r="I2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="306" t="str">
+      <c r="J2" s="335" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-SO</v>
       </c>
-      <c r="K2" s="306"/>
+      <c r="K2" s="335"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -11073,12 +11260,12 @@
       <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="307">
+      <c r="Q2" s="336">
         <f>'Update History'!J2</f>
         <v>42347</v>
       </c>
-      <c r="R2" s="308"/>
-      <c r="S2" s="309"/>
+      <c r="R2" s="337"/>
+      <c r="S2" s="338"/>
       <c r="T2" s="47"/>
       <c r="U2" s="47"/>
     </row>
@@ -11087,10 +11274,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>97</v>
@@ -11113,12 +11300,12 @@
       <c r="J4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="243" t="s">
+      <c r="K4" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="245"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="244"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="273"/>
       <c r="O4" s="36" t="s">
         <v>56</v>
       </c>
@@ -11146,38 +11333,38 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="296" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" s="296" t="s">
+      <c r="G5" s="325" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="296" t="s">
+      <c r="I5" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="299" t="s">
+      <c r="J5" s="328" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="300" t="s">
-        <v>308</v>
-      </c>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="302"/>
-      <c r="O5" s="291" t="s">
+      <c r="K5" s="329" t="s">
+        <v>303</v>
+      </c>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="320" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="291" t="s">
+      <c r="P5" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" s="293" t="s">
+      <c r="Q5" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R5" s="294" t="s">
+      <c r="R5" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S5" s="289" t="s">
-        <v>309</v>
+      <c r="S5" s="318" t="s">
+        <v>304</v>
       </c>
       <c r="T5" s="57"/>
       <c r="U5" s="57"/>
@@ -11193,19 +11380,19 @@
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="304"/>
-      <c r="M6" s="304"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="292"/>
-      <c r="P6" s="292"/>
-      <c r="Q6" s="292"/>
-      <c r="R6" s="295"/>
-      <c r="S6" s="290"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="327"/>
+      <c r="I6" s="327"/>
+      <c r="J6" s="327"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="333"/>
+      <c r="N6" s="334"/>
+      <c r="O6" s="321"/>
+      <c r="P6" s="321"/>
+      <c r="Q6" s="321"/>
+      <c r="R6" s="324"/>
+      <c r="S6" s="319"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
     </row>
@@ -11220,38 +11407,38 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="296" t="s">
+      <c r="G7" s="325" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="296" t="s">
+      <c r="H7" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="296" t="s">
+      <c r="I7" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="299" t="s">
+      <c r="J7" s="328" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="300" t="s">
-        <v>301</v>
-      </c>
-      <c r="L7" s="301"/>
-      <c r="M7" s="301"/>
-      <c r="N7" s="302"/>
-      <c r="O7" s="291" t="s">
+      <c r="K7" s="329" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="330"/>
+      <c r="M7" s="330"/>
+      <c r="N7" s="331"/>
+      <c r="O7" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="291" t="s">
+      <c r="P7" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="Q7" s="293" t="s">
+      <c r="Q7" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R7" s="294" t="s">
+      <c r="R7" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S7" s="289" t="s">
-        <v>305</v>
+      <c r="S7" s="318" t="s">
+        <v>300</v>
       </c>
       <c r="T7" s="57"/>
       <c r="U7" s="57"/>
@@ -11267,19 +11454,19 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="297"/>
-      <c r="H8" s="298"/>
-      <c r="I8" s="298"/>
-      <c r="J8" s="298"/>
-      <c r="K8" s="303"/>
-      <c r="L8" s="304"/>
-      <c r="M8" s="304"/>
-      <c r="N8" s="305"/>
-      <c r="O8" s="292"/>
-      <c r="P8" s="292"/>
-      <c r="Q8" s="292"/>
-      <c r="R8" s="295"/>
-      <c r="S8" s="290"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="327"/>
+      <c r="J8" s="327"/>
+      <c r="K8" s="332"/>
+      <c r="L8" s="333"/>
+      <c r="M8" s="333"/>
+      <c r="N8" s="334"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="321"/>
+      <c r="Q8" s="321"/>
+      <c r="R8" s="324"/>
+      <c r="S8" s="319"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
     </row>
@@ -11294,38 +11481,38 @@
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="296" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="296" t="s">
+      <c r="G9" s="325" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I9" s="296" t="s">
+      <c r="I9" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="299" t="s">
+      <c r="J9" s="328" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="300" t="s">
+      <c r="K9" s="329" t="s">
         <v>226</v>
       </c>
-      <c r="L9" s="301"/>
-      <c r="M9" s="301"/>
-      <c r="N9" s="302"/>
-      <c r="O9" s="343" t="s">
+      <c r="L9" s="330"/>
+      <c r="M9" s="330"/>
+      <c r="N9" s="331"/>
+      <c r="O9" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="P9" s="291" t="s">
+      <c r="P9" s="320" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" s="293" t="s">
+      <c r="Q9" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R9" s="294" t="s">
+      <c r="R9" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S9" s="289" t="s">
-        <v>305</v>
+      <c r="S9" s="318" t="s">
+        <v>300</v>
       </c>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
@@ -11341,19 +11528,19 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="298"/>
-      <c r="I10" s="298"/>
-      <c r="J10" s="298"/>
-      <c r="K10" s="303"/>
-      <c r="L10" s="304"/>
-      <c r="M10" s="304"/>
-      <c r="N10" s="305"/>
-      <c r="O10" s="312"/>
-      <c r="P10" s="292"/>
-      <c r="Q10" s="292"/>
-      <c r="R10" s="295"/>
-      <c r="S10" s="290"/>
+      <c r="G10" s="326"/>
+      <c r="H10" s="327"/>
+      <c r="I10" s="327"/>
+      <c r="J10" s="327"/>
+      <c r="K10" s="332"/>
+      <c r="L10" s="333"/>
+      <c r="M10" s="333"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="341"/>
+      <c r="P10" s="321"/>
+      <c r="Q10" s="321"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="319"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
     </row>
@@ -11368,38 +11555,38 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="296" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" s="296" t="s">
+      <c r="G11" s="325" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="296" t="s">
+      <c r="I11" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="299" t="s">
+      <c r="J11" s="328" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="300" t="s">
+      <c r="K11" s="329" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="301"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="302"/>
-      <c r="O11" s="343" t="s">
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="291" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q11" s="293" t="s">
+      <c r="P11" s="320" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q11" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R11" s="294" t="s">
+      <c r="R11" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S11" s="289" t="s">
-        <v>305</v>
+      <c r="S11" s="318" t="s">
+        <v>300</v>
       </c>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
@@ -11415,19 +11602,19 @@
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="297"/>
-      <c r="H12" s="298"/>
-      <c r="I12" s="298"/>
-      <c r="J12" s="298"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="304"/>
-      <c r="M12" s="304"/>
-      <c r="N12" s="305"/>
-      <c r="O12" s="312"/>
-      <c r="P12" s="292"/>
-      <c r="Q12" s="292"/>
-      <c r="R12" s="295"/>
-      <c r="S12" s="290"/>
+      <c r="G12" s="326"/>
+      <c r="H12" s="327"/>
+      <c r="I12" s="327"/>
+      <c r="J12" s="327"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="333"/>
+      <c r="M12" s="333"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="341"/>
+      <c r="P12" s="321"/>
+      <c r="Q12" s="321"/>
+      <c r="R12" s="324"/>
+      <c r="S12" s="319"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
     </row>
@@ -11442,38 +11629,38 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="296" t="s">
+      <c r="G13" s="325" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="310" t="s">
+      <c r="H13" s="339" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="310" t="s">
+      <c r="I13" s="339" t="s">
         <v>197</v>
       </c>
-      <c r="J13" s="299" t="s">
-        <v>307</v>
-      </c>
-      <c r="K13" s="311" t="s">
+      <c r="J13" s="328" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13" s="340" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="312"/>
-      <c r="M13" s="312"/>
-      <c r="N13" s="312"/>
-      <c r="O13" s="343" t="s">
+      <c r="L13" s="341"/>
+      <c r="M13" s="341"/>
+      <c r="N13" s="341"/>
+      <c r="O13" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="P13" s="293" t="s">
+      <c r="P13" s="322" t="s">
         <v>222</v>
       </c>
-      <c r="Q13" s="293" t="s">
+      <c r="Q13" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R13" s="344" t="s">
+      <c r="R13" s="373" t="s">
         <v>198</v>
       </c>
-      <c r="S13" s="289" t="s">
-        <v>305</v>
+      <c r="S13" s="318" t="s">
+        <v>300</v>
       </c>
       <c r="T13" s="57"/>
       <c r="U13" s="57"/>
@@ -11489,19 +11676,19 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="297"/>
-      <c r="H14" s="310"/>
-      <c r="I14" s="310"/>
-      <c r="J14" s="298"/>
-      <c r="K14" s="312"/>
-      <c r="L14" s="312"/>
-      <c r="M14" s="312"/>
-      <c r="N14" s="312"/>
-      <c r="O14" s="312"/>
-      <c r="P14" s="292"/>
-      <c r="Q14" s="292"/>
-      <c r="R14" s="345"/>
-      <c r="S14" s="290"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="339"/>
+      <c r="I14" s="339"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="341"/>
+      <c r="L14" s="341"/>
+      <c r="M14" s="341"/>
+      <c r="N14" s="341"/>
+      <c r="O14" s="341"/>
+      <c r="P14" s="321"/>
+      <c r="Q14" s="321"/>
+      <c r="R14" s="374"/>
+      <c r="S14" s="319"/>
       <c r="T14" s="57"/>
       <c r="U14" s="57"/>
     </row>
@@ -11510,44 +11697,44 @@
         <v>1</v>
       </c>
       <c r="B15" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="313" t="s">
+      <c r="G15" s="342" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="313" t="s">
+      <c r="H15" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="313" t="s">
+      <c r="I15" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="J15" s="316" t="s">
-        <v>315</v>
-      </c>
-      <c r="K15" s="318" t="s">
-        <v>390</v>
-      </c>
-      <c r="L15" s="319"/>
-      <c r="M15" s="319"/>
-      <c r="N15" s="320"/>
+      <c r="J15" s="345" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="347" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" s="348"/>
+      <c r="M15" s="348"/>
+      <c r="N15" s="349"/>
       <c r="O15" s="121" t="s">
         <v>134</v>
       </c>
       <c r="P15" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="Q15" s="341" t="s">
+      <c r="Q15" s="370" t="s">
         <v>216</v>
       </c>
-      <c r="R15" s="335" t="s">
+      <c r="R15" s="364" t="s">
         <v>205</v>
       </c>
-      <c r="S15" s="337" t="s">
-        <v>367</v>
+      <c r="S15" s="366" t="s">
+        <v>362</v>
       </c>
       <c r="T15" s="57"/>
       <c r="U15" s="57"/>
@@ -11557,29 +11744,29 @@
         <v>1</v>
       </c>
       <c r="B16" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="314"/>
-      <c r="H16" s="315"/>
-      <c r="I16" s="315"/>
-      <c r="J16" s="317"/>
-      <c r="K16" s="321"/>
-      <c r="L16" s="322"/>
-      <c r="M16" s="322"/>
-      <c r="N16" s="323"/>
+      <c r="G16" s="343"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="344"/>
+      <c r="J16" s="346"/>
+      <c r="K16" s="350"/>
+      <c r="L16" s="351"/>
+      <c r="M16" s="351"/>
+      <c r="N16" s="352"/>
       <c r="O16" s="121" t="s">
         <v>202</v>
       </c>
       <c r="P16" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="Q16" s="342"/>
-      <c r="R16" s="336"/>
-      <c r="S16" s="338"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="365"/>
+      <c r="S16" s="367"/>
       <c r="T16" s="57"/>
       <c r="U16" s="57"/>
     </row>
@@ -11588,29 +11775,29 @@
         <v>1</v>
       </c>
       <c r="B17" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="314"/>
-      <c r="H17" s="315"/>
-      <c r="I17" s="315"/>
-      <c r="J17" s="317"/>
-      <c r="K17" s="321"/>
-      <c r="L17" s="322"/>
-      <c r="M17" s="322"/>
-      <c r="N17" s="323"/>
+      <c r="G17" s="343"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="346"/>
+      <c r="K17" s="350"/>
+      <c r="L17" s="351"/>
+      <c r="M17" s="351"/>
+      <c r="N17" s="352"/>
       <c r="O17" s="121" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P17" s="121" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="342"/>
-      <c r="R17" s="336"/>
-      <c r="S17" s="338"/>
+        <v>315</v>
+      </c>
+      <c r="Q17" s="371"/>
+      <c r="R17" s="365"/>
+      <c r="S17" s="367"/>
       <c r="T17" s="57"/>
       <c r="U17" s="57"/>
     </row>
@@ -11619,29 +11806,29 @@
         <v>1</v>
       </c>
       <c r="B18" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="63"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="314"/>
-      <c r="H18" s="315"/>
-      <c r="I18" s="315"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="322"/>
-      <c r="M18" s="322"/>
-      <c r="N18" s="323"/>
+      <c r="G18" s="343"/>
+      <c r="H18" s="344"/>
+      <c r="I18" s="344"/>
+      <c r="J18" s="346"/>
+      <c r="K18" s="350"/>
+      <c r="L18" s="351"/>
+      <c r="M18" s="351"/>
+      <c r="N18" s="352"/>
       <c r="O18" s="121" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P18" s="121" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q18" s="342"/>
-      <c r="R18" s="336"/>
-      <c r="S18" s="338"/>
+        <v>233</v>
+      </c>
+      <c r="Q18" s="371"/>
+      <c r="R18" s="365"/>
+      <c r="S18" s="367"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
     </row>
@@ -11650,29 +11837,29 @@
         <v>1</v>
       </c>
       <c r="B19" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="126"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="314"/>
-      <c r="H19" s="315"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="321"/>
-      <c r="L19" s="322"/>
-      <c r="M19" s="322"/>
-      <c r="N19" s="323"/>
+      <c r="G19" s="343"/>
+      <c r="H19" s="344"/>
+      <c r="I19" s="344"/>
+      <c r="J19" s="346"/>
+      <c r="K19" s="350"/>
+      <c r="L19" s="351"/>
+      <c r="M19" s="351"/>
+      <c r="N19" s="352"/>
       <c r="O19" s="121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P19" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q19" s="342"/>
-      <c r="R19" s="336"/>
-      <c r="S19" s="338"/>
+        <v>234</v>
+      </c>
+      <c r="Q19" s="371"/>
+      <c r="R19" s="365"/>
+      <c r="S19" s="367"/>
       <c r="T19" s="57"/>
       <c r="U19" s="57"/>
     </row>
@@ -11681,29 +11868,29 @@
         <v>1</v>
       </c>
       <c r="B20" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="133"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="314"/>
-      <c r="H20" s="315"/>
-      <c r="I20" s="315"/>
-      <c r="J20" s="317"/>
-      <c r="K20" s="321"/>
-      <c r="L20" s="322"/>
-      <c r="M20" s="322"/>
-      <c r="N20" s="323"/>
+      <c r="G20" s="343"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="344"/>
+      <c r="J20" s="346"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="351"/>
+      <c r="M20" s="351"/>
+      <c r="N20" s="352"/>
       <c r="O20" s="121" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P20" s="121" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q20" s="342"/>
-      <c r="R20" s="336"/>
-      <c r="S20" s="338"/>
+        <v>316</v>
+      </c>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="365"/>
+      <c r="S20" s="367"/>
       <c r="T20" s="57"/>
       <c r="U20" s="57"/>
     </row>
@@ -11712,29 +11899,29 @@
         <v>1</v>
       </c>
       <c r="B21" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="133"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="314"/>
-      <c r="H21" s="315"/>
-      <c r="I21" s="315"/>
-      <c r="J21" s="317"/>
-      <c r="K21" s="321"/>
-      <c r="L21" s="322"/>
-      <c r="M21" s="322"/>
-      <c r="N21" s="323"/>
+      <c r="G21" s="343"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="344"/>
+      <c r="J21" s="346"/>
+      <c r="K21" s="350"/>
+      <c r="L21" s="351"/>
+      <c r="M21" s="351"/>
+      <c r="N21" s="352"/>
       <c r="O21" s="121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P21" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q21" s="342"/>
-      <c r="R21" s="336"/>
-      <c r="S21" s="338"/>
+        <v>235</v>
+      </c>
+      <c r="Q21" s="371"/>
+      <c r="R21" s="365"/>
+      <c r="S21" s="367"/>
       <c r="T21" s="57"/>
       <c r="U21" s="57"/>
     </row>
@@ -11743,29 +11930,29 @@
         <v>1</v>
       </c>
       <c r="B22" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="126"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="314"/>
-      <c r="H22" s="315"/>
-      <c r="I22" s="315"/>
-      <c r="J22" s="317"/>
-      <c r="K22" s="321"/>
-      <c r="L22" s="322"/>
-      <c r="M22" s="322"/>
-      <c r="N22" s="323"/>
+      <c r="G22" s="343"/>
+      <c r="H22" s="344"/>
+      <c r="I22" s="344"/>
+      <c r="J22" s="346"/>
+      <c r="K22" s="350"/>
+      <c r="L22" s="351"/>
+      <c r="M22" s="351"/>
+      <c r="N22" s="352"/>
       <c r="O22" s="121" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P22" s="121" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q22" s="342"/>
-      <c r="R22" s="336"/>
-      <c r="S22" s="338"/>
+        <v>317</v>
+      </c>
+      <c r="Q22" s="371"/>
+      <c r="R22" s="365"/>
+      <c r="S22" s="367"/>
       <c r="T22" s="57"/>
       <c r="U22" s="57"/>
     </row>
@@ -11774,29 +11961,29 @@
         <v>1</v>
       </c>
       <c r="B23" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="126"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="314"/>
-      <c r="H23" s="315"/>
-      <c r="I23" s="315"/>
-      <c r="J23" s="317"/>
-      <c r="K23" s="321"/>
-      <c r="L23" s="322"/>
-      <c r="M23" s="322"/>
-      <c r="N23" s="323"/>
+      <c r="G23" s="343"/>
+      <c r="H23" s="344"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="346"/>
+      <c r="K23" s="350"/>
+      <c r="L23" s="351"/>
+      <c r="M23" s="351"/>
+      <c r="N23" s="352"/>
       <c r="O23" s="121" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P23" s="121" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q23" s="342"/>
-      <c r="R23" s="336"/>
-      <c r="S23" s="338"/>
+        <v>318</v>
+      </c>
+      <c r="Q23" s="371"/>
+      <c r="R23" s="365"/>
+      <c r="S23" s="367"/>
       <c r="T23" s="57"/>
       <c r="U23" s="57"/>
     </row>
@@ -11805,29 +11992,29 @@
         <v>1</v>
       </c>
       <c r="B24" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="126"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="314"/>
-      <c r="H24" s="315"/>
-      <c r="I24" s="315"/>
-      <c r="J24" s="317"/>
-      <c r="K24" s="321"/>
-      <c r="L24" s="322"/>
-      <c r="M24" s="322"/>
-      <c r="N24" s="323"/>
+      <c r="G24" s="343"/>
+      <c r="H24" s="344"/>
+      <c r="I24" s="344"/>
+      <c r="J24" s="346"/>
+      <c r="K24" s="350"/>
+      <c r="L24" s="351"/>
+      <c r="M24" s="351"/>
+      <c r="N24" s="352"/>
       <c r="O24" s="121" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P24" s="121" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q24" s="342"/>
-      <c r="R24" s="336"/>
-      <c r="S24" s="338"/>
+        <v>319</v>
+      </c>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="365"/>
+      <c r="S24" s="367"/>
       <c r="T24" s="57"/>
       <c r="U24" s="57"/>
     </row>
@@ -11836,29 +12023,29 @@
         <v>1</v>
       </c>
       <c r="B25" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="126"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="315"/>
-      <c r="I25" s="315"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="321"/>
-      <c r="L25" s="322"/>
-      <c r="M25" s="322"/>
-      <c r="N25" s="323"/>
+      <c r="G25" s="343"/>
+      <c r="H25" s="344"/>
+      <c r="I25" s="344"/>
+      <c r="J25" s="346"/>
+      <c r="K25" s="350"/>
+      <c r="L25" s="351"/>
+      <c r="M25" s="351"/>
+      <c r="N25" s="352"/>
       <c r="O25" s="121" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P25" s="121" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q25" s="342"/>
-      <c r="R25" s="336"/>
-      <c r="S25" s="338"/>
+        <v>320</v>
+      </c>
+      <c r="Q25" s="371"/>
+      <c r="R25" s="365"/>
+      <c r="S25" s="367"/>
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
     </row>
@@ -11867,29 +12054,29 @@
         <v>1</v>
       </c>
       <c r="B26" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="126"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="314"/>
-      <c r="H26" s="315"/>
-      <c r="I26" s="315"/>
-      <c r="J26" s="317"/>
-      <c r="K26" s="321"/>
-      <c r="L26" s="322"/>
-      <c r="M26" s="322"/>
-      <c r="N26" s="323"/>
+      <c r="G26" s="343"/>
+      <c r="H26" s="344"/>
+      <c r="I26" s="344"/>
+      <c r="J26" s="346"/>
+      <c r="K26" s="350"/>
+      <c r="L26" s="351"/>
+      <c r="M26" s="351"/>
+      <c r="N26" s="352"/>
       <c r="O26" s="121" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P26" s="121" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q26" s="342"/>
-      <c r="R26" s="336"/>
-      <c r="S26" s="338"/>
+        <v>322</v>
+      </c>
+      <c r="Q26" s="371"/>
+      <c r="R26" s="365"/>
+      <c r="S26" s="367"/>
       <c r="T26" s="57"/>
       <c r="U26" s="57"/>
     </row>
@@ -11898,29 +12085,29 @@
         <v>1</v>
       </c>
       <c r="B27" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="126"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="314"/>
-      <c r="H27" s="315"/>
-      <c r="I27" s="315"/>
-      <c r="J27" s="317"/>
-      <c r="K27" s="321"/>
-      <c r="L27" s="322"/>
-      <c r="M27" s="322"/>
-      <c r="N27" s="323"/>
+      <c r="G27" s="343"/>
+      <c r="H27" s="344"/>
+      <c r="I27" s="344"/>
+      <c r="J27" s="346"/>
+      <c r="K27" s="350"/>
+      <c r="L27" s="351"/>
+      <c r="M27" s="351"/>
+      <c r="N27" s="352"/>
       <c r="O27" s="121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P27" s="121" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q27" s="342"/>
-      <c r="R27" s="336"/>
-      <c r="S27" s="338"/>
+        <v>321</v>
+      </c>
+      <c r="Q27" s="371"/>
+      <c r="R27" s="365"/>
+      <c r="S27" s="367"/>
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
     </row>
@@ -11929,29 +12116,29 @@
         <v>1</v>
       </c>
       <c r="B28" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
       <c r="E28" s="126"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="314"/>
-      <c r="H28" s="315"/>
-      <c r="I28" s="315"/>
-      <c r="J28" s="317"/>
-      <c r="K28" s="321"/>
-      <c r="L28" s="322"/>
-      <c r="M28" s="322"/>
-      <c r="N28" s="323"/>
+      <c r="G28" s="343"/>
+      <c r="H28" s="344"/>
+      <c r="I28" s="344"/>
+      <c r="J28" s="346"/>
+      <c r="K28" s="350"/>
+      <c r="L28" s="351"/>
+      <c r="M28" s="351"/>
+      <c r="N28" s="352"/>
       <c r="O28" s="121" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P28" s="121" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q28" s="342"/>
-      <c r="R28" s="336"/>
-      <c r="S28" s="338"/>
+        <v>323</v>
+      </c>
+      <c r="Q28" s="371"/>
+      <c r="R28" s="365"/>
+      <c r="S28" s="367"/>
       <c r="T28" s="57"/>
       <c r="U28" s="57"/>
     </row>
@@ -11960,29 +12147,29 @@
         <v>1</v>
       </c>
       <c r="B29" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="314"/>
-      <c r="H29" s="315"/>
-      <c r="I29" s="315"/>
-      <c r="J29" s="317"/>
-      <c r="K29" s="321"/>
-      <c r="L29" s="322"/>
-      <c r="M29" s="322"/>
-      <c r="N29" s="323"/>
+      <c r="G29" s="343"/>
+      <c r="H29" s="344"/>
+      <c r="I29" s="344"/>
+      <c r="J29" s="346"/>
+      <c r="K29" s="350"/>
+      <c r="L29" s="351"/>
+      <c r="M29" s="351"/>
+      <c r="N29" s="352"/>
       <c r="O29" s="121" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P29" s="121" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q29" s="342"/>
-      <c r="R29" s="336"/>
-      <c r="S29" s="338"/>
+        <v>324</v>
+      </c>
+      <c r="Q29" s="371"/>
+      <c r="R29" s="365"/>
+      <c r="S29" s="367"/>
       <c r="T29" s="57"/>
       <c r="U29" s="57"/>
     </row>
@@ -11991,29 +12178,29 @@
         <v>1</v>
       </c>
       <c r="B30" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="314"/>
-      <c r="H30" s="315"/>
-      <c r="I30" s="315"/>
-      <c r="J30" s="317"/>
-      <c r="K30" s="321"/>
-      <c r="L30" s="322"/>
-      <c r="M30" s="322"/>
-      <c r="N30" s="323"/>
+      <c r="G30" s="343"/>
+      <c r="H30" s="344"/>
+      <c r="I30" s="344"/>
+      <c r="J30" s="346"/>
+      <c r="K30" s="350"/>
+      <c r="L30" s="351"/>
+      <c r="M30" s="351"/>
+      <c r="N30" s="352"/>
       <c r="O30" s="121" t="s">
         <v>208</v>
       </c>
       <c r="P30" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="Q30" s="342"/>
-      <c r="R30" s="336"/>
-      <c r="S30" s="338"/>
+      <c r="Q30" s="371"/>
+      <c r="R30" s="365"/>
+      <c r="S30" s="367"/>
       <c r="T30" s="57"/>
       <c r="U30" s="57"/>
     </row>
@@ -12022,29 +12209,29 @@
         <v>1</v>
       </c>
       <c r="B31" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="314"/>
-      <c r="H31" s="315"/>
-      <c r="I31" s="315"/>
-      <c r="J31" s="317"/>
-      <c r="K31" s="321"/>
-      <c r="L31" s="322"/>
-      <c r="M31" s="322"/>
-      <c r="N31" s="323"/>
+      <c r="G31" s="343"/>
+      <c r="H31" s="344"/>
+      <c r="I31" s="344"/>
+      <c r="J31" s="346"/>
+      <c r="K31" s="350"/>
+      <c r="L31" s="351"/>
+      <c r="M31" s="351"/>
+      <c r="N31" s="352"/>
       <c r="O31" s="121" t="s">
         <v>203</v>
       </c>
       <c r="P31" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="Q31" s="342"/>
-      <c r="R31" s="336"/>
-      <c r="S31" s="338"/>
+      <c r="Q31" s="371"/>
+      <c r="R31" s="365"/>
+      <c r="S31" s="367"/>
       <c r="T31" s="57"/>
       <c r="U31" s="57"/>
     </row>
@@ -12053,29 +12240,29 @@
         <v>1</v>
       </c>
       <c r="B32" s="186" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="314"/>
-      <c r="H32" s="315"/>
-      <c r="I32" s="315"/>
-      <c r="J32" s="315"/>
-      <c r="K32" s="321"/>
-      <c r="L32" s="322"/>
-      <c r="M32" s="322"/>
-      <c r="N32" s="323"/>
+      <c r="G32" s="343"/>
+      <c r="H32" s="344"/>
+      <c r="I32" s="344"/>
+      <c r="J32" s="344"/>
+      <c r="K32" s="350"/>
+      <c r="L32" s="351"/>
+      <c r="M32" s="351"/>
+      <c r="N32" s="352"/>
       <c r="O32" s="122" t="s">
         <v>204</v>
       </c>
       <c r="P32" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="Q32" s="342"/>
-      <c r="R32" s="336"/>
-      <c r="S32" s="332"/>
+      <c r="Q32" s="371"/>
+      <c r="R32" s="365"/>
+      <c r="S32" s="361"/>
       <c r="T32" s="57"/>
       <c r="U32" s="57"/>
     </row>
@@ -12090,37 +12277,37 @@
       <c r="D33" s="113"/>
       <c r="E33" s="113"/>
       <c r="F33" s="113"/>
-      <c r="G33" s="324" t="s">
+      <c r="G33" s="353" t="s">
         <v>220</v>
       </c>
-      <c r="H33" s="324" t="s">
+      <c r="H33" s="353" t="s">
         <v>207</v>
       </c>
-      <c r="I33" s="324" t="s">
+      <c r="I33" s="353" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="327" t="s">
+      <c r="J33" s="356" t="s">
         <v>225</v>
       </c>
-      <c r="K33" s="329" t="s">
-        <v>335</v>
-      </c>
-      <c r="L33" s="330"/>
-      <c r="M33" s="330"/>
-      <c r="N33" s="331"/>
+      <c r="K33" s="358" t="s">
+        <v>330</v>
+      </c>
+      <c r="L33" s="359"/>
+      <c r="M33" s="359"/>
+      <c r="N33" s="360"/>
       <c r="O33" s="123" t="s">
         <v>134</v>
       </c>
       <c r="P33" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="Q33" s="339" t="s">
+      <c r="Q33" s="368" t="s">
         <v>207</v>
       </c>
-      <c r="R33" s="335" t="s">
+      <c r="R33" s="364" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="337" t="s">
+      <c r="S33" s="366" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12135,23 +12322,23 @@
       <c r="D34" s="113"/>
       <c r="E34" s="113"/>
       <c r="F34" s="113"/>
-      <c r="G34" s="325"/>
-      <c r="H34" s="325"/>
-      <c r="I34" s="325"/>
-      <c r="J34" s="328"/>
-      <c r="K34" s="332"/>
-      <c r="L34" s="333"/>
-      <c r="M34" s="333"/>
-      <c r="N34" s="334"/>
+      <c r="G34" s="354"/>
+      <c r="H34" s="354"/>
+      <c r="I34" s="354"/>
+      <c r="J34" s="357"/>
+      <c r="K34" s="361"/>
+      <c r="L34" s="362"/>
+      <c r="M34" s="362"/>
+      <c r="N34" s="363"/>
       <c r="O34" s="124" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P34" s="128" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q34" s="340"/>
-      <c r="R34" s="336"/>
-      <c r="S34" s="338"/>
+        <v>326</v>
+      </c>
+      <c r="Q34" s="369"/>
+      <c r="R34" s="365"/>
+      <c r="S34" s="367"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
       <c r="A35" s="32">
@@ -12164,23 +12351,23 @@
       <c r="D35" s="113"/>
       <c r="E35" s="113"/>
       <c r="F35" s="113"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="325"/>
-      <c r="I35" s="325"/>
-      <c r="J35" s="328"/>
-      <c r="K35" s="332"/>
-      <c r="L35" s="333"/>
-      <c r="M35" s="333"/>
-      <c r="N35" s="334"/>
+      <c r="G35" s="354"/>
+      <c r="H35" s="354"/>
+      <c r="I35" s="354"/>
+      <c r="J35" s="357"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="362"/>
+      <c r="M35" s="362"/>
+      <c r="N35" s="363"/>
       <c r="O35" s="128" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P35" s="121" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q35" s="340"/>
-      <c r="R35" s="336"/>
-      <c r="S35" s="338"/>
+        <v>328</v>
+      </c>
+      <c r="Q35" s="369"/>
+      <c r="R35" s="365"/>
+      <c r="S35" s="367"/>
     </row>
     <row r="36" spans="1:21" ht="13.5" customHeight="1">
       <c r="A36" s="32">
@@ -12193,23 +12380,23 @@
       <c r="D36" s="113"/>
       <c r="E36" s="113"/>
       <c r="F36" s="113"/>
-      <c r="G36" s="325"/>
-      <c r="H36" s="325"/>
-      <c r="I36" s="325"/>
-      <c r="J36" s="328"/>
-      <c r="K36" s="332"/>
-      <c r="L36" s="333"/>
-      <c r="M36" s="333"/>
-      <c r="N36" s="334"/>
+      <c r="G36" s="354"/>
+      <c r="H36" s="354"/>
+      <c r="I36" s="354"/>
+      <c r="J36" s="357"/>
+      <c r="K36" s="361"/>
+      <c r="L36" s="362"/>
+      <c r="M36" s="362"/>
+      <c r="N36" s="363"/>
       <c r="O36" s="128" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P36" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="Q36" s="340"/>
-      <c r="R36" s="336"/>
-      <c r="S36" s="338"/>
+      <c r="Q36" s="369"/>
+      <c r="R36" s="365"/>
+      <c r="S36" s="367"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1">
       <c r="A37" s="32">
@@ -12222,23 +12409,23 @@
       <c r="D37" s="113"/>
       <c r="E37" s="113"/>
       <c r="F37" s="113"/>
-      <c r="G37" s="326"/>
-      <c r="H37" s="325"/>
-      <c r="I37" s="325"/>
-      <c r="J37" s="325"/>
-      <c r="K37" s="332"/>
-      <c r="L37" s="333"/>
-      <c r="M37" s="333"/>
-      <c r="N37" s="334"/>
+      <c r="G37" s="355"/>
+      <c r="H37" s="354"/>
+      <c r="I37" s="354"/>
+      <c r="J37" s="354"/>
+      <c r="K37" s="361"/>
+      <c r="L37" s="362"/>
+      <c r="M37" s="362"/>
+      <c r="N37" s="363"/>
       <c r="O37" s="128" t="s">
         <v>210</v>
       </c>
       <c r="P37" s="127">
         <v>1</v>
       </c>
-      <c r="Q37" s="340"/>
-      <c r="R37" s="336"/>
-      <c r="S37" s="332"/>
+      <c r="Q37" s="369"/>
+      <c r="R37" s="365"/>
+      <c r="S37" s="361"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
       <c r="A38" s="32">
@@ -12251,104 +12438,135 @@
       <c r="D38" s="113"/>
       <c r="E38" s="113"/>
       <c r="F38" s="113"/>
-      <c r="G38" s="326"/>
-      <c r="H38" s="325"/>
-      <c r="I38" s="325"/>
-      <c r="J38" s="325"/>
-      <c r="K38" s="332"/>
-      <c r="L38" s="333"/>
-      <c r="M38" s="333"/>
-      <c r="N38" s="334"/>
+      <c r="G38" s="355"/>
+      <c r="H38" s="354"/>
+      <c r="I38" s="354"/>
+      <c r="J38" s="354"/>
+      <c r="K38" s="361"/>
+      <c r="L38" s="362"/>
+      <c r="M38" s="362"/>
+      <c r="N38" s="363"/>
       <c r="O38" s="124" t="s">
         <v>208</v>
       </c>
       <c r="P38" s="124" t="s">
         <v>209</v>
       </c>
-      <c r="Q38" s="340"/>
-      <c r="R38" s="336"/>
-      <c r="S38" s="332"/>
+      <c r="Q38" s="369"/>
+      <c r="R38" s="365"/>
+      <c r="S38" s="361"/>
     </row>
     <row r="39" spans="1:21" s="33" customFormat="1" ht="19.5" customHeight="1">
       <c r="A39" s="189">
         <v>1</v>
       </c>
       <c r="B39" s="189" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C39" s="189"/>
       <c r="D39" s="189"/>
       <c r="E39" s="189"/>
       <c r="F39" s="190"/>
-      <c r="G39" s="283" t="s">
+      <c r="G39" s="312" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="285" t="s">
+      <c r="H39" s="314" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="285" t="s">
+      <c r="I39" s="314" t="s">
         <v>197</v>
       </c>
-      <c r="J39" s="286" t="s">
-        <v>394</v>
-      </c>
-      <c r="K39" s="288" t="s">
-        <v>396</v>
-      </c>
-      <c r="L39" s="276"/>
-      <c r="M39" s="276"/>
-      <c r="N39" s="276"/>
-      <c r="O39" s="275" t="s">
-        <v>397</v>
-      </c>
-      <c r="P39" s="275" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q39" s="277" t="s">
+      <c r="J39" s="315" t="s">
+        <v>389</v>
+      </c>
+      <c r="K39" s="317" t="s">
+        <v>391</v>
+      </c>
+      <c r="L39" s="305"/>
+      <c r="M39" s="305"/>
+      <c r="N39" s="305"/>
+      <c r="O39" s="304" t="s">
+        <v>392</v>
+      </c>
+      <c r="P39" s="304" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q39" s="306" t="s">
         <v>165</v>
       </c>
-      <c r="R39" s="279" t="s">
+      <c r="R39" s="308" t="s">
         <v>198</v>
       </c>
-      <c r="S39" s="281" t="s">
-        <v>305</v>
+      <c r="S39" s="310" t="s">
+        <v>300</v>
       </c>
       <c r="T39" s="57"/>
       <c r="U39" s="57"/>
     </row>
     <row r="40" spans="1:21" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A40" s="189">
+      <c r="A40" s="387">
         <v>1</v>
       </c>
-      <c r="B40" s="189" t="s">
-        <v>395</v>
-      </c>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="284"/>
-      <c r="H40" s="285"/>
-      <c r="I40" s="285"/>
-      <c r="J40" s="287"/>
-      <c r="K40" s="276"/>
-      <c r="L40" s="276"/>
-      <c r="M40" s="276"/>
-      <c r="N40" s="276"/>
-      <c r="O40" s="276"/>
-      <c r="P40" s="276"/>
-      <c r="Q40" s="278"/>
-      <c r="R40" s="280"/>
-      <c r="S40" s="282"/>
+      <c r="B40" s="387" t="s">
+        <v>390</v>
+      </c>
+      <c r="C40" s="387"/>
+      <c r="D40" s="387"/>
+      <c r="E40" s="387"/>
+      <c r="F40" s="388"/>
+      <c r="G40" s="313"/>
+      <c r="H40" s="314"/>
+      <c r="I40" s="314"/>
+      <c r="J40" s="316"/>
+      <c r="K40" s="305"/>
+      <c r="L40" s="305"/>
+      <c r="M40" s="305"/>
+      <c r="N40" s="305"/>
+      <c r="O40" s="305"/>
+      <c r="P40" s="305"/>
+      <c r="Q40" s="307"/>
+      <c r="R40" s="309"/>
+      <c r="S40" s="311"/>
       <c r="T40" s="57"/>
       <c r="U40" s="57"/>
     </row>
+    <row r="41" spans="1:21" s="217" customFormat="1" ht="83.25" customHeight="1">
+      <c r="B41" s="217" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" s="216">
+        <v>92</v>
+      </c>
+      <c r="H41" s="217" t="s">
+        <v>408</v>
+      </c>
+      <c r="I41" s="217" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="389" t="s">
+        <v>409</v>
+      </c>
+      <c r="K41" s="390" t="s">
+        <v>410</v>
+      </c>
+      <c r="L41" s="391"/>
+      <c r="M41" s="391"/>
+      <c r="N41" s="391"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="216"/>
+      <c r="Q41" s="216"/>
+      <c r="R41" s="216"/>
+      <c r="S41" s="216"/>
+      <c r="T41" s="216"/>
+      <c r="U41" s="216"/>
+    </row>
     <row r="1048242" spans="17:17" ht="12" customHeight="1">
       <c r="Q1048242" s="66"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="82">
+  <mergeCells count="83">
+    <mergeCell ref="K41:N41"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="K9:N10"/>
     <mergeCell ref="O9:O10"/>
@@ -12473,10 +12691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="267"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12507,8 +12725,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -12568,7 +12786,7 @@
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -12672,66 +12890,66 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="B15" s="69"/>
-      <c r="C15" s="350" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="350"/>
-      <c r="E15" s="350"/>
-      <c r="F15" s="350"/>
-      <c r="G15" s="350"/>
-      <c r="H15" s="350"/>
+      <c r="C15" s="379" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="379"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="379"/>
+      <c r="G15" s="379"/>
+      <c r="H15" s="379"/>
       <c r="I15" s="40"/>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="B16" s="40"/>
-      <c r="C16" s="350" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="350"/>
-      <c r="G16" s="350"/>
-      <c r="H16" s="350"/>
+      <c r="C16" s="379" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="379"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="379"/>
       <c r="I16" s="40"/>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="40"/>
-      <c r="C17" s="350" t="s">
-        <v>312</v>
-      </c>
-      <c r="D17" s="350"/>
-      <c r="E17" s="350"/>
-      <c r="F17" s="350"/>
-      <c r="G17" s="350"/>
-      <c r="H17" s="350"/>
+      <c r="C17" s="379" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="379"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="379"/>
+      <c r="G17" s="379"/>
+      <c r="H17" s="379"/>
       <c r="I17" s="131"/>
       <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="40"/>
-      <c r="C18" s="350" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" s="350"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="350"/>
-      <c r="H18" s="350"/>
+      <c r="C18" s="379" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="379"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="379"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="379"/>
       <c r="I18" s="131"/>
       <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="B19" s="40"/>
-      <c r="C19" s="350" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="350"/>
-      <c r="E19" s="350"/>
-      <c r="F19" s="350"/>
-      <c r="G19" s="350"/>
-      <c r="H19" s="350"/>
+      <c r="C19" s="379" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="379"/>
+      <c r="E19" s="379"/>
+      <c r="F19" s="379"/>
+      <c r="G19" s="379"/>
+      <c r="H19" s="379"/>
       <c r="I19" s="131"/>
       <c r="J19" s="43"/>
     </row>
@@ -12750,16 +12968,16 @@
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="B21" s="40"/>
-      <c r="C21" s="348" t="s">
-        <v>316</v>
-      </c>
-      <c r="D21" s="349"/>
-      <c r="E21" s="349"/>
-      <c r="F21" s="349"/>
-      <c r="G21" s="349"/>
-      <c r="H21" s="349"/>
-      <c r="I21" s="349"/>
-      <c r="J21" s="349"/>
+      <c r="C21" s="377" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="378"/>
+      <c r="E21" s="378"/>
+      <c r="F21" s="378"/>
+      <c r="G21" s="378"/>
+      <c r="H21" s="378"/>
+      <c r="I21" s="378"/>
+      <c r="J21" s="378"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="B22" s="40"/>
@@ -12825,46 +13043,46 @@
     <row r="27" spans="1:10" ht="72" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="351" t="s">
-        <v>368</v>
-      </c>
-      <c r="D27" s="349"/>
-      <c r="E27" s="349"/>
-      <c r="F27" s="349"/>
-      <c r="G27" s="349"/>
-      <c r="H27" s="349"/>
-      <c r="I27" s="349"/>
-      <c r="J27" s="349"/>
+      <c r="C27" s="380" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="378"/>
+      <c r="E27" s="378"/>
+      <c r="F27" s="378"/>
+      <c r="G27" s="378"/>
+      <c r="H27" s="378"/>
+      <c r="I27" s="378"/>
+      <c r="J27" s="378"/>
     </row>
     <row r="28" spans="1:10" ht="78" customHeight="1">
       <c r="A28" s="64"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="352" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="352"/>
-      <c r="E28" s="352"/>
-      <c r="F28" s="352"/>
-      <c r="G28" s="352"/>
-      <c r="H28" s="352"/>
-      <c r="I28" s="352"/>
-      <c r="J28" s="352"/>
+      <c r="C28" s="381" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="381"/>
+      <c r="E28" s="381"/>
+      <c r="F28" s="381"/>
+      <c r="G28" s="381"/>
+      <c r="H28" s="381"/>
+      <c r="I28" s="381"/>
+      <c r="J28" s="381"/>
     </row>
     <row r="29" spans="1:10" ht="90" customHeight="1">
       <c r="A29" s="181" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B29" s="182"/>
-      <c r="C29" s="353" t="s">
-        <v>369</v>
-      </c>
-      <c r="D29" s="353"/>
-      <c r="E29" s="353"/>
-      <c r="F29" s="353"/>
-      <c r="G29" s="353"/>
-      <c r="H29" s="353"/>
-      <c r="I29" s="353"/>
-      <c r="J29" s="353"/>
+      <c r="C29" s="382" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" s="382"/>
+      <c r="E29" s="382"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="382"/>
+      <c r="H29" s="382"/>
+      <c r="I29" s="382"/>
+      <c r="J29" s="382"/>
     </row>
     <row r="30" spans="1:10" ht="11.25">
       <c r="A30" s="64"/>
@@ -13052,25 +13270,25 @@
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="B45" s="69"/>
-      <c r="C45" s="348"/>
-      <c r="D45" s="348"/>
-      <c r="E45" s="348"/>
-      <c r="F45" s="348"/>
-      <c r="G45" s="348"/>
-      <c r="H45" s="348"/>
-      <c r="I45" s="348"/>
+      <c r="C45" s="377"/>
+      <c r="D45" s="377"/>
+      <c r="E45" s="377"/>
+      <c r="F45" s="377"/>
+      <c r="G45" s="377"/>
+      <c r="H45" s="377"/>
+      <c r="I45" s="377"/>
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="72"/>
-      <c r="C46" s="348"/>
-      <c r="D46" s="348"/>
-      <c r="E46" s="348"/>
-      <c r="F46" s="348"/>
-      <c r="G46" s="348"/>
-      <c r="H46" s="348"/>
-      <c r="I46" s="348"/>
+      <c r="C46" s="377"/>
+      <c r="D46" s="377"/>
+      <c r="E46" s="377"/>
+      <c r="F46" s="377"/>
+      <c r="G46" s="377"/>
+      <c r="H46" s="377"/>
+      <c r="I46" s="377"/>
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
@@ -13102,48 +13320,48 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="69"/>
-      <c r="C49" s="346" t="s">
-        <v>317</v>
-      </c>
-      <c r="D49" s="346"/>
-      <c r="E49" s="346"/>
-      <c r="F49" s="346"/>
-      <c r="G49" s="346"/>
-      <c r="H49" s="346"/>
-      <c r="I49" s="346"/>
+      <c r="C49" s="375" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="375"/>
+      <c r="E49" s="375"/>
+      <c r="F49" s="375"/>
+      <c r="G49" s="375"/>
+      <c r="H49" s="375"/>
+      <c r="I49" s="375"/>
       <c r="J49" s="43"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="B50" s="69"/>
-      <c r="C50" s="346"/>
-      <c r="D50" s="346"/>
-      <c r="E50" s="346"/>
-      <c r="F50" s="346"/>
-      <c r="G50" s="346"/>
-      <c r="H50" s="346"/>
-      <c r="I50" s="346"/>
+      <c r="C50" s="375"/>
+      <c r="D50" s="375"/>
+      <c r="E50" s="375"/>
+      <c r="F50" s="375"/>
+      <c r="G50" s="375"/>
+      <c r="H50" s="375"/>
+      <c r="I50" s="375"/>
       <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1">
       <c r="B51" s="69"/>
-      <c r="C51" s="346"/>
-      <c r="D51" s="346"/>
-      <c r="E51" s="346"/>
-      <c r="F51" s="346"/>
-      <c r="G51" s="346"/>
-      <c r="H51" s="346"/>
-      <c r="I51" s="346"/>
+      <c r="C51" s="375"/>
+      <c r="D51" s="375"/>
+      <c r="E51" s="375"/>
+      <c r="F51" s="375"/>
+      <c r="G51" s="375"/>
+      <c r="H51" s="375"/>
+      <c r="I51" s="375"/>
       <c r="J51" s="43"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1">
       <c r="B52" s="69"/>
-      <c r="C52" s="346"/>
-      <c r="D52" s="346"/>
-      <c r="E52" s="346"/>
-      <c r="F52" s="346"/>
-      <c r="G52" s="346"/>
-      <c r="H52" s="346"/>
-      <c r="I52" s="346"/>
+      <c r="C52" s="375"/>
+      <c r="D52" s="375"/>
+      <c r="E52" s="375"/>
+      <c r="F52" s="375"/>
+      <c r="G52" s="375"/>
+      <c r="H52" s="375"/>
+      <c r="I52" s="375"/>
       <c r="J52" s="43"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1">
@@ -13161,15 +13379,15 @@
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1">
       <c r="B54" s="69"/>
-      <c r="C54" s="347" t="s">
-        <v>318</v>
-      </c>
-      <c r="D54" s="347"/>
-      <c r="E54" s="347"/>
-      <c r="F54" s="347"/>
-      <c r="G54" s="347"/>
-      <c r="H54" s="347"/>
-      <c r="I54" s="347"/>
+      <c r="C54" s="376" t="s">
+        <v>313</v>
+      </c>
+      <c r="D54" s="376"/>
+      <c r="E54" s="376"/>
+      <c r="F54" s="376"/>
+      <c r="G54" s="376"/>
+      <c r="H54" s="376"/>
+      <c r="I54" s="376"/>
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1">
@@ -13696,10 +13914,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="267"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -13730,8 +13948,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="238"/>
-      <c r="B2" s="238"/>
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/SO/03_DetailDesign/SOF2000_Danh muc don hang.xlsx
+++ b/2018/SO/03_DetailDesign/SOF2000_Danh muc don hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update History'!$A$1:$J$34</definedName>
     <definedName name="RB">#REF!</definedName>
@@ -1428,7 +1428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="412">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3221,10 +3221,15 @@
     <t>@SQL009</t>
   </si>
   <si>
-    <t>Insert into CRMT20001 (ContractID, ContractNo, DivisionID,ContractDate,ObjectID)
- Select A.ContractID, A.Contractno, A.DivisionID, A.SignDate, A.ObjectID
- From AT1020 A
- Where A.ContractID not in (Select ContractID From CRMT20001)</t>
+    <t>Insert dữ liệu từ bảng AT1020 sang CRMT20001</t>
+  </si>
+  <si>
+    <t>Insert into CRMT20001 (ContractID, ContractNo, DivisionID,ContractDate,ObjectID,VoucherTypeID
+,Notes,CreateDate,CreateUserID,LastModifyUserID,LastModifyDate,CurrencyID)
+Select A.ContractID, A.Contractno, A.DivisionID, A.SignDate, A.ObjectID, A.VoucherTypeID
+, A.Description, A.CreateDate, A.CreateUserID, A.LastModifyUserID, A.LastModifyDate,CurrencyID
+From AT1020 A
+Where A.ContractID not in (Select ContractID From CRMT20001)</t>
   </si>
 </sst>
 </file>
@@ -3783,7 +3788,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4345,82 +4350,150 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4457,57 +4530,6 @@
     <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4604,6 +4626,57 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4628,6 +4701,132 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4646,177 +4845,6 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4852,19 +4880,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5839,65 +5854,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="233" t="s">
+      <c r="A1" s="230"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="232" t="s">
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232" t="s">
+      <c r="H1" s="231"/>
+      <c r="I1" s="231" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="232"/>
+      <c r="J1" s="231"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="232" t="s">
+      <c r="A2" s="230"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="231" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="231"/>
-      <c r="B3" s="231"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="228" t="s">
+      <c r="A3" s="230"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="227" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="229"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="229"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="228"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="100"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="230"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="230"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="230"/>
-      <c r="I13" s="230"/>
-      <c r="J13" s="230"/>
+      <c r="A13" s="229"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="229"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="229"/>
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
       <c r="M13" s="101"/>
@@ -5908,56 +5923,56 @@
       <c r="R13" s="101"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="225"/>
+      <c r="N14" s="225"/>
+      <c r="O14" s="225"/>
+      <c r="P14" s="225"/>
+      <c r="Q14" s="225"/>
+      <c r="R14" s="225"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="224"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="224"/>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="224"/>
-      <c r="R15" s="224"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="225"/>
+      <c r="O15" s="225"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="225"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="227" t="s">
+      <c r="A16" s="226" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
@@ -5968,384 +5983,384 @@
       <c r="R16" s="102"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="224"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="224"/>
-      <c r="R17" s="224"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="225"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="225"/>
+      <c r="M17" s="225"/>
+      <c r="N17" s="225"/>
+      <c r="O17" s="225"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="225"/>
+      <c r="R17" s="225"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="225"/>
+      <c r="L18" s="225"/>
+      <c r="M18" s="225"/>
+      <c r="N18" s="225"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="225"/>
+      <c r="R18" s="225"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="226"/>
-      <c r="C19" s="226"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="226"/>
-      <c r="J19" s="226"/>
-      <c r="K19" s="226"/>
-      <c r="L19" s="226"/>
-      <c r="M19" s="226"/>
-      <c r="N19" s="226"/>
-      <c r="O19" s="226"/>
-      <c r="P19" s="226"/>
-      <c r="Q19" s="226"/>
-      <c r="R19" s="226"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="242"/>
+      <c r="L19" s="242"/>
+      <c r="M19" s="242"/>
+      <c r="N19" s="242"/>
+      <c r="O19" s="242"/>
+      <c r="P19" s="242"/>
+      <c r="Q19" s="242"/>
+      <c r="R19" s="242"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="224"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="224"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="224"/>
-      <c r="R20" s="224"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="225"/>
+      <c r="O20" s="225"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="225"/>
+      <c r="R20" s="225"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="224"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
-      <c r="J21" s="224"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="224"/>
-      <c r="R21" s="224"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="225"/>
+      <c r="K21" s="225"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
+      <c r="N21" s="225"/>
+      <c r="O21" s="225"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="225"/>
+      <c r="R21" s="225"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="225"/>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="225"/>
-      <c r="I22" s="225"/>
-      <c r="J22" s="225"/>
-      <c r="K22" s="225"/>
-      <c r="L22" s="225"/>
-      <c r="M22" s="225"/>
-      <c r="N22" s="225"/>
-      <c r="O22" s="225"/>
-      <c r="P22" s="225"/>
-      <c r="Q22" s="225"/>
-      <c r="R22" s="225"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
+      <c r="I22" s="241"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="241"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="241"/>
+      <c r="R22" s="241"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="225"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="225"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="225"/>
-      <c r="L23" s="225"/>
-      <c r="M23" s="225"/>
-      <c r="N23" s="225"/>
-      <c r="O23" s="225"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="225"/>
-      <c r="R23" s="225"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="241"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="241"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="222"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="222"/>
-      <c r="E26" s="222"/>
-      <c r="F26" s="222"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="222"/>
-      <c r="L26" s="222"/>
-      <c r="M26" s="222"/>
-      <c r="N26" s="222"/>
-      <c r="O26" s="222"/>
-      <c r="P26" s="222"/>
-      <c r="Q26" s="222"/>
-      <c r="R26" s="222"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="243"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="243"/>
+      <c r="K26" s="243"/>
+      <c r="L26" s="243"/>
+      <c r="M26" s="243"/>
+      <c r="N26" s="243"/>
+      <c r="O26" s="243"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="243"/>
+      <c r="R26" s="243"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="223"/>
-      <c r="P28" s="223"/>
-      <c r="Q28" s="223"/>
-      <c r="R28" s="223"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="221"/>
-      <c r="U28" s="221"/>
-      <c r="V28" s="221"/>
-      <c r="W28" s="221"/>
-      <c r="X28" s="221"/>
-      <c r="Y28" s="221"/>
-      <c r="Z28" s="221"/>
-      <c r="AA28" s="221"/>
-      <c r="AB28" s="221"/>
-      <c r="AC28" s="221"/>
-      <c r="AD28" s="221"/>
-      <c r="AE28" s="221"/>
-      <c r="AF28" s="221"/>
-      <c r="AG28" s="221"/>
-      <c r="AH28" s="221"/>
-      <c r="AI28" s="221"/>
-      <c r="AJ28" s="221"/>
-      <c r="AK28" s="221"/>
-      <c r="AL28" s="221"/>
-      <c r="AM28" s="221"/>
-      <c r="AN28" s="221"/>
-      <c r="AO28" s="221"/>
-      <c r="AP28" s="221"/>
-      <c r="AQ28" s="221"/>
-      <c r="AR28" s="221"/>
-      <c r="AS28" s="221"/>
-      <c r="AT28" s="221"/>
-      <c r="AU28" s="221"/>
-      <c r="AV28" s="221"/>
-      <c r="AW28" s="221"/>
-      <c r="AX28" s="221"/>
-      <c r="AY28" s="221"/>
-      <c r="AZ28" s="221"/>
-      <c r="BA28" s="221"/>
-      <c r="BB28" s="221"/>
-      <c r="BC28" s="221"/>
-      <c r="BD28" s="221"/>
-      <c r="BE28" s="221"/>
-      <c r="BF28" s="221"/>
-      <c r="BG28" s="221"/>
-      <c r="BH28" s="221"/>
-      <c r="BI28" s="221"/>
-      <c r="BJ28" s="221"/>
-      <c r="BK28" s="221"/>
-      <c r="BL28" s="221"/>
-      <c r="BM28" s="221"/>
-      <c r="BN28" s="221"/>
-      <c r="BO28" s="221"/>
-      <c r="BP28" s="221"/>
-      <c r="BQ28" s="221"/>
-      <c r="BR28" s="221"/>
-      <c r="BS28" s="221"/>
-      <c r="BT28" s="221"/>
-      <c r="BU28" s="221"/>
-      <c r="BV28" s="221"/>
-      <c r="BW28" s="221"/>
-      <c r="BX28" s="221"/>
-      <c r="BY28" s="221"/>
-      <c r="BZ28" s="221"/>
-      <c r="CA28" s="221"/>
-      <c r="CB28" s="221"/>
-      <c r="CC28" s="221"/>
-      <c r="CD28" s="221"/>
-      <c r="CE28" s="221"/>
-      <c r="CF28" s="221"/>
-      <c r="CG28" s="221"/>
-      <c r="CH28" s="221"/>
-      <c r="CI28" s="221"/>
-      <c r="CJ28" s="221"/>
-      <c r="CK28" s="221"/>
-      <c r="CL28" s="221"/>
-      <c r="CM28" s="221"/>
-      <c r="CN28" s="221"/>
-      <c r="CO28" s="221"/>
-      <c r="CP28" s="221"/>
-      <c r="CQ28" s="221"/>
-      <c r="CR28" s="221"/>
-      <c r="CS28" s="221"/>
-      <c r="CT28" s="221"/>
-      <c r="CU28" s="221"/>
-      <c r="CV28" s="221"/>
-      <c r="CW28" s="221"/>
-      <c r="CX28" s="221"/>
-      <c r="CY28" s="221"/>
-      <c r="CZ28" s="221"/>
-      <c r="DA28" s="221"/>
-      <c r="DB28" s="221"/>
-      <c r="DC28" s="221"/>
-      <c r="DD28" s="221"/>
-      <c r="DE28" s="221"/>
-      <c r="DF28" s="221"/>
-      <c r="DG28" s="221"/>
-      <c r="DH28" s="221"/>
-      <c r="DI28" s="221"/>
-      <c r="DJ28" s="221"/>
-      <c r="DK28" s="221"/>
-      <c r="DL28" s="221"/>
-      <c r="DM28" s="221"/>
-      <c r="DN28" s="221"/>
-      <c r="DO28" s="221"/>
-      <c r="DP28" s="221"/>
-      <c r="DQ28" s="221"/>
-      <c r="DR28" s="221"/>
-      <c r="DS28" s="221"/>
-      <c r="DT28" s="221"/>
-      <c r="DU28" s="221"/>
-      <c r="DV28" s="221"/>
-      <c r="DW28" s="221"/>
-      <c r="DX28" s="221"/>
-      <c r="DY28" s="221"/>
-      <c r="DZ28" s="221"/>
-      <c r="EA28" s="221"/>
-      <c r="EB28" s="221"/>
-      <c r="EC28" s="221"/>
-      <c r="ED28" s="221"/>
-      <c r="EE28" s="221"/>
-      <c r="EF28" s="221"/>
-      <c r="EG28" s="221"/>
-      <c r="EH28" s="221"/>
-      <c r="EI28" s="221"/>
-      <c r="EJ28" s="221"/>
-      <c r="EK28" s="221"/>
-      <c r="EL28" s="221"/>
-      <c r="EM28" s="221"/>
-      <c r="EN28" s="221"/>
-      <c r="EO28" s="221"/>
-      <c r="EP28" s="221"/>
-      <c r="EQ28" s="221"/>
-      <c r="ER28" s="221"/>
-      <c r="ES28" s="221"/>
-      <c r="ET28" s="221"/>
-      <c r="EU28" s="221"/>
-      <c r="EV28" s="221"/>
-      <c r="EW28" s="221"/>
-      <c r="EX28" s="221"/>
-      <c r="EY28" s="221"/>
-      <c r="EZ28" s="221"/>
-      <c r="FA28" s="221"/>
-      <c r="FB28" s="221"/>
-      <c r="FC28" s="221"/>
-      <c r="FD28" s="221"/>
-      <c r="FE28" s="221"/>
-      <c r="FF28" s="221"/>
-      <c r="FG28" s="221"/>
-      <c r="FH28" s="221"/>
-      <c r="FI28" s="221"/>
-      <c r="FJ28" s="221"/>
-      <c r="FK28" s="221"/>
-      <c r="FL28" s="221"/>
-      <c r="FM28" s="221"/>
-      <c r="FN28" s="221"/>
-      <c r="FO28" s="221"/>
-      <c r="FP28" s="221"/>
-      <c r="FQ28" s="221"/>
-      <c r="FR28" s="221"/>
-      <c r="FS28" s="221"/>
-      <c r="FT28" s="221"/>
-      <c r="FU28" s="221"/>
-      <c r="FV28" s="221"/>
-      <c r="FW28" s="221"/>
-      <c r="FX28" s="221"/>
-      <c r="FY28" s="221"/>
-      <c r="FZ28" s="221"/>
-      <c r="GA28" s="221"/>
-      <c r="GB28" s="221"/>
-      <c r="GC28" s="221"/>
-      <c r="GD28" s="221"/>
-      <c r="GE28" s="221"/>
-      <c r="GF28" s="221"/>
-      <c r="GG28" s="221"/>
-      <c r="GH28" s="221"/>
-      <c r="GI28" s="221"/>
-      <c r="GJ28" s="221"/>
-      <c r="GK28" s="221"/>
-      <c r="GL28" s="221"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="245"/>
+      <c r="E28" s="245"/>
+      <c r="F28" s="245"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="245"/>
+      <c r="I28" s="245"/>
+      <c r="J28" s="245"/>
+      <c r="K28" s="245"/>
+      <c r="L28" s="245"/>
+      <c r="M28" s="245"/>
+      <c r="N28" s="245"/>
+      <c r="O28" s="245"/>
+      <c r="P28" s="245"/>
+      <c r="Q28" s="245"/>
+      <c r="R28" s="245"/>
+      <c r="S28" s="244"/>
+      <c r="T28" s="244"/>
+      <c r="U28" s="244"/>
+      <c r="V28" s="244"/>
+      <c r="W28" s="244"/>
+      <c r="X28" s="244"/>
+      <c r="Y28" s="244"/>
+      <c r="Z28" s="244"/>
+      <c r="AA28" s="244"/>
+      <c r="AB28" s="244"/>
+      <c r="AC28" s="244"/>
+      <c r="AD28" s="244"/>
+      <c r="AE28" s="244"/>
+      <c r="AF28" s="244"/>
+      <c r="AG28" s="244"/>
+      <c r="AH28" s="244"/>
+      <c r="AI28" s="244"/>
+      <c r="AJ28" s="244"/>
+      <c r="AK28" s="244"/>
+      <c r="AL28" s="244"/>
+      <c r="AM28" s="244"/>
+      <c r="AN28" s="244"/>
+      <c r="AO28" s="244"/>
+      <c r="AP28" s="244"/>
+      <c r="AQ28" s="244"/>
+      <c r="AR28" s="244"/>
+      <c r="AS28" s="244"/>
+      <c r="AT28" s="244"/>
+      <c r="AU28" s="244"/>
+      <c r="AV28" s="244"/>
+      <c r="AW28" s="244"/>
+      <c r="AX28" s="244"/>
+      <c r="AY28" s="244"/>
+      <c r="AZ28" s="244"/>
+      <c r="BA28" s="244"/>
+      <c r="BB28" s="244"/>
+      <c r="BC28" s="244"/>
+      <c r="BD28" s="244"/>
+      <c r="BE28" s="244"/>
+      <c r="BF28" s="244"/>
+      <c r="BG28" s="244"/>
+      <c r="BH28" s="244"/>
+      <c r="BI28" s="244"/>
+      <c r="BJ28" s="244"/>
+      <c r="BK28" s="244"/>
+      <c r="BL28" s="244"/>
+      <c r="BM28" s="244"/>
+      <c r="BN28" s="244"/>
+      <c r="BO28" s="244"/>
+      <c r="BP28" s="244"/>
+      <c r="BQ28" s="244"/>
+      <c r="BR28" s="244"/>
+      <c r="BS28" s="244"/>
+      <c r="BT28" s="244"/>
+      <c r="BU28" s="244"/>
+      <c r="BV28" s="244"/>
+      <c r="BW28" s="244"/>
+      <c r="BX28" s="244"/>
+      <c r="BY28" s="244"/>
+      <c r="BZ28" s="244"/>
+      <c r="CA28" s="244"/>
+      <c r="CB28" s="244"/>
+      <c r="CC28" s="244"/>
+      <c r="CD28" s="244"/>
+      <c r="CE28" s="244"/>
+      <c r="CF28" s="244"/>
+      <c r="CG28" s="244"/>
+      <c r="CH28" s="244"/>
+      <c r="CI28" s="244"/>
+      <c r="CJ28" s="244"/>
+      <c r="CK28" s="244"/>
+      <c r="CL28" s="244"/>
+      <c r="CM28" s="244"/>
+      <c r="CN28" s="244"/>
+      <c r="CO28" s="244"/>
+      <c r="CP28" s="244"/>
+      <c r="CQ28" s="244"/>
+      <c r="CR28" s="244"/>
+      <c r="CS28" s="244"/>
+      <c r="CT28" s="244"/>
+      <c r="CU28" s="244"/>
+      <c r="CV28" s="244"/>
+      <c r="CW28" s="244"/>
+      <c r="CX28" s="244"/>
+      <c r="CY28" s="244"/>
+      <c r="CZ28" s="244"/>
+      <c r="DA28" s="244"/>
+      <c r="DB28" s="244"/>
+      <c r="DC28" s="244"/>
+      <c r="DD28" s="244"/>
+      <c r="DE28" s="244"/>
+      <c r="DF28" s="244"/>
+      <c r="DG28" s="244"/>
+      <c r="DH28" s="244"/>
+      <c r="DI28" s="244"/>
+      <c r="DJ28" s="244"/>
+      <c r="DK28" s="244"/>
+      <c r="DL28" s="244"/>
+      <c r="DM28" s="244"/>
+      <c r="DN28" s="244"/>
+      <c r="DO28" s="244"/>
+      <c r="DP28" s="244"/>
+      <c r="DQ28" s="244"/>
+      <c r="DR28" s="244"/>
+      <c r="DS28" s="244"/>
+      <c r="DT28" s="244"/>
+      <c r="DU28" s="244"/>
+      <c r="DV28" s="244"/>
+      <c r="DW28" s="244"/>
+      <c r="DX28" s="244"/>
+      <c r="DY28" s="244"/>
+      <c r="DZ28" s="244"/>
+      <c r="EA28" s="244"/>
+      <c r="EB28" s="244"/>
+      <c r="EC28" s="244"/>
+      <c r="ED28" s="244"/>
+      <c r="EE28" s="244"/>
+      <c r="EF28" s="244"/>
+      <c r="EG28" s="244"/>
+      <c r="EH28" s="244"/>
+      <c r="EI28" s="244"/>
+      <c r="EJ28" s="244"/>
+      <c r="EK28" s="244"/>
+      <c r="EL28" s="244"/>
+      <c r="EM28" s="244"/>
+      <c r="EN28" s="244"/>
+      <c r="EO28" s="244"/>
+      <c r="EP28" s="244"/>
+      <c r="EQ28" s="244"/>
+      <c r="ER28" s="244"/>
+      <c r="ES28" s="244"/>
+      <c r="ET28" s="244"/>
+      <c r="EU28" s="244"/>
+      <c r="EV28" s="244"/>
+      <c r="EW28" s="244"/>
+      <c r="EX28" s="244"/>
+      <c r="EY28" s="244"/>
+      <c r="EZ28" s="244"/>
+      <c r="FA28" s="244"/>
+      <c r="FB28" s="244"/>
+      <c r="FC28" s="244"/>
+      <c r="FD28" s="244"/>
+      <c r="FE28" s="244"/>
+      <c r="FF28" s="244"/>
+      <c r="FG28" s="244"/>
+      <c r="FH28" s="244"/>
+      <c r="FI28" s="244"/>
+      <c r="FJ28" s="244"/>
+      <c r="FK28" s="244"/>
+      <c r="FL28" s="244"/>
+      <c r="FM28" s="244"/>
+      <c r="FN28" s="244"/>
+      <c r="FO28" s="244"/>
+      <c r="FP28" s="244"/>
+      <c r="FQ28" s="244"/>
+      <c r="FR28" s="244"/>
+      <c r="FS28" s="244"/>
+      <c r="FT28" s="244"/>
+      <c r="FU28" s="244"/>
+      <c r="FV28" s="244"/>
+      <c r="FW28" s="244"/>
+      <c r="FX28" s="244"/>
+      <c r="FY28" s="244"/>
+      <c r="FZ28" s="244"/>
+      <c r="GA28" s="244"/>
+      <c r="GB28" s="244"/>
+      <c r="GC28" s="244"/>
+      <c r="GD28" s="244"/>
+      <c r="GE28" s="244"/>
+      <c r="GF28" s="244"/>
+      <c r="GG28" s="244"/>
+      <c r="GH28" s="244"/>
+      <c r="GI28" s="244"/>
+      <c r="GJ28" s="244"/>
+      <c r="GK28" s="244"/>
+      <c r="GL28" s="244"/>
       <c r="GM28" s="103"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="222"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="222"/>
-      <c r="E29" s="222"/>
-      <c r="F29" s="222"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="222"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="222"/>
-      <c r="K29" s="222"/>
-      <c r="L29" s="222"/>
-      <c r="M29" s="222"/>
-      <c r="N29" s="222"/>
-      <c r="O29" s="222"/>
-      <c r="P29" s="222"/>
-      <c r="Q29" s="222"/>
-      <c r="R29" s="222"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="243"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="243"/>
+      <c r="I29" s="243"/>
+      <c r="J29" s="243"/>
+      <c r="K29" s="243"/>
+      <c r="L29" s="243"/>
+      <c r="M29" s="243"/>
+      <c r="N29" s="243"/>
+      <c r="O29" s="243"/>
+      <c r="P29" s="243"/>
+      <c r="Q29" s="243"/>
+      <c r="R29" s="243"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="220"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
+      <c r="A30" s="246"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="246"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="246"/>
       <c r="K30" s="104"/>
       <c r="L30" s="104"/>
       <c r="M30" s="104"/>
@@ -6356,16 +6371,16 @@
       <c r="R30" s="104"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="220"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
+      <c r="A31" s="246"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="246"/>
+      <c r="H31" s="246"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="246"/>
       <c r="K31" s="104"/>
       <c r="L31" s="104"/>
       <c r="M31" s="104"/>
@@ -6377,6 +6392,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -6390,28 +6427,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -6438,14 +6453,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="383" t="s">
+      <c r="B1" s="390" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
+      <c r="E1" s="390"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6638,11 +6653,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="384" t="s">
+      <c r="E27" s="391" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="385"/>
-      <c r="G27" s="386"/>
+      <c r="F27" s="392"/>
+      <c r="G27" s="393"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -7038,10 +7053,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="247"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7068,8 +7083,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="267"/>
-      <c r="B2" s="267"/>
+      <c r="A2" s="247"/>
+      <c r="B2" s="247"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7108,14 +7123,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="268" t="s">
+      <c r="E4" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="268"/>
-      <c r="I4" s="268"/>
-      <c r="J4" s="268"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="37">
@@ -7130,14 +7145,14 @@
       <c r="D5" s="35">
         <v>42347</v>
       </c>
-      <c r="E5" s="242" t="s">
+      <c r="E5" s="249" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
     </row>
     <row r="6" spans="1:10" s="135" customFormat="1" ht="12.75">
       <c r="A6" s="136">
@@ -7152,14 +7167,14 @@
       <c r="D6" s="137">
         <v>42473</v>
       </c>
-      <c r="E6" s="269" t="s">
+      <c r="E6" s="250" t="s">
         <v>332</v>
       </c>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="271"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1">
       <c r="A7" s="75">
@@ -7174,14 +7189,14 @@
       <c r="D7" s="160">
         <v>42697</v>
       </c>
-      <c r="E7" s="255" t="s">
+      <c r="E7" s="253" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="257"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="255"/>
     </row>
     <row r="8" spans="1:10" s="168" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="76">
@@ -7194,12 +7209,12 @@
         <v>331</v>
       </c>
       <c r="D8" s="167"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="260"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="257"/>
+      <c r="G8" s="257"/>
+      <c r="H8" s="257"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="258"/>
     </row>
     <row r="9" spans="1:10" s="173" customFormat="1" ht="92.25" customHeight="1">
       <c r="A9" s="169">
@@ -7214,14 +7229,14 @@
       <c r="D9" s="172" t="s">
         <v>360</v>
       </c>
-      <c r="E9" s="261" t="s">
+      <c r="E9" s="259" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="263"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="261"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="78">
@@ -7236,14 +7251,14 @@
       <c r="D10" s="185">
         <v>42864</v>
       </c>
-      <c r="E10" s="264" t="s">
+      <c r="E10" s="262" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="265"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="265"/>
-      <c r="J10" s="266"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="263"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="264"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="79">
@@ -7258,14 +7273,14 @@
       <c r="D11" s="188">
         <v>42880</v>
       </c>
-      <c r="E11" s="243" t="s">
+      <c r="E11" s="265" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="245"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="267"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80">
@@ -7280,14 +7295,14 @@
       <c r="D12" s="199">
         <v>43018</v>
       </c>
-      <c r="E12" s="246" t="s">
+      <c r="E12" s="268" t="s">
         <v>393</v>
       </c>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="248"/>
+      <c r="F12" s="269"/>
+      <c r="G12" s="269"/>
+      <c r="H12" s="269"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="270"/>
     </row>
     <row r="13" spans="1:10" s="209" customFormat="1" ht="12.75">
       <c r="A13" s="81">
@@ -7302,14 +7317,14 @@
       <c r="D13" s="208" t="s">
         <v>399</v>
       </c>
-      <c r="E13" s="252" t="s">
+      <c r="E13" s="274" t="s">
         <v>401</v>
       </c>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="254"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="276"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="82">
@@ -7320,12 +7335,12 @@
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="251"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="272"/>
+      <c r="H14" s="272"/>
+      <c r="I14" s="272"/>
+      <c r="J14" s="273"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -7336,12 +7351,12 @@
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="249"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="74">
@@ -7352,12 +7367,12 @@
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="242"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="249"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="75">
@@ -7368,12 +7383,12 @@
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="242"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="249"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="76">
@@ -7384,12 +7399,12 @@
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="249"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="77">
@@ -7400,12 +7415,12 @@
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="78">
@@ -7416,12 +7431,12 @@
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="242"/>
-      <c r="J20" s="242"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="249"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="79">
@@ -7432,12 +7447,12 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
-      <c r="H21" s="242"/>
-      <c r="I21" s="242"/>
-      <c r="J21" s="242"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="249"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="80">
@@ -7448,12 +7463,12 @@
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="242"/>
-      <c r="I22" s="242"/>
-      <c r="J22" s="242"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="249"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="81">
@@ -7464,12 +7479,12 @@
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="249"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="82">
@@ -7480,12 +7495,12 @@
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="242"/>
-      <c r="I24" s="242"/>
-      <c r="J24" s="242"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -7496,12 +7511,12 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="242"/>
-      <c r="G25" s="242"/>
-      <c r="H25" s="242"/>
-      <c r="I25" s="242"/>
-      <c r="J25" s="242"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="249"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="74">
@@ -7512,12 +7527,12 @@
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="242"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="249"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="75">
@@ -7528,12 +7543,12 @@
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="242"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="242"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="76">
@@ -7544,12 +7559,12 @@
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="242"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="242"/>
-      <c r="J28" s="242"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="249"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="77">
@@ -7560,12 +7575,12 @@
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="242"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="249"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="78">
@@ -7576,12 +7591,12 @@
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="249"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="79">
@@ -7592,12 +7607,12 @@
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="242"/>
-      <c r="G31" s="242"/>
-      <c r="H31" s="242"/>
-      <c r="I31" s="242"/>
-      <c r="J31" s="242"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="249"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="80">
@@ -7608,12 +7623,12 @@
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="242"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="242"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="81">
@@ -7624,12 +7639,12 @@
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="249"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="82">
@@ -7640,26 +7655,20 @@
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="242"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242"/>
-      <c r="I34" s="242"/>
-      <c r="J34" s="242"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -7676,11 +7685,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7725,10 +7740,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="247"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7758,8 +7773,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="267"/>
-      <c r="B2" s="267"/>
+      <c r="A2" s="247"/>
+      <c r="B2" s="247"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7789,20 +7804,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="277" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="272" t="s">
+      <c r="B4" s="279"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="273"/>
+      <c r="J4" s="278"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="39"/>
@@ -7813,10 +7828,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="279" t="s">
+      <c r="I5" s="284" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="280"/>
+      <c r="J5" s="285"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -7827,8 +7842,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="282"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="287"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -7839,8 +7854,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="282"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="287"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -7851,8 +7866,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="281"/>
-      <c r="J8" s="282"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="287"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -7863,8 +7878,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="282"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="287"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -7875,8 +7890,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="284"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="289"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -7887,10 +7902,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="272" t="s">
+      <c r="I11" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="273"/>
+      <c r="J11" s="278"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -7901,10 +7916,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="275" t="s">
+      <c r="I12" s="280" t="s">
         <v>400</v>
       </c>
-      <c r="J12" s="276"/>
+      <c r="J12" s="281"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -7915,8 +7930,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="277"/>
-      <c r="J13" s="278"/>
+      <c r="I13" s="282"/>
+      <c r="J13" s="283"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -7927,8 +7942,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="277"/>
-      <c r="J14" s="278"/>
+      <c r="I14" s="282"/>
+      <c r="J14" s="283"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -7939,8 +7954,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="278"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -7951,8 +7966,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="278"/>
+      <c r="I16" s="282"/>
+      <c r="J16" s="283"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -7963,8 +7978,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="277"/>
-      <c r="J17" s="278"/>
+      <c r="I17" s="282"/>
+      <c r="J17" s="283"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -7975,8 +7990,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="278"/>
+      <c r="I18" s="282"/>
+      <c r="J18" s="283"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -7987,8 +8002,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="278"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="283"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -7999,8 +8014,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="277"/>
-      <c r="J20" s="278"/>
+      <c r="I20" s="282"/>
+      <c r="J20" s="283"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -8011,8 +8026,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="278"/>
+      <c r="I21" s="282"/>
+      <c r="J21" s="283"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -8023,8 +8038,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="277"/>
-      <c r="J22" s="278"/>
+      <c r="I22" s="282"/>
+      <c r="J22" s="283"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -8035,8 +8050,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="277"/>
-      <c r="J23" s="278"/>
+      <c r="I23" s="282"/>
+      <c r="J23" s="283"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -8047,8 +8062,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="277"/>
-      <c r="J24" s="278"/>
+      <c r="I24" s="282"/>
+      <c r="J24" s="283"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -8059,8 +8074,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="277"/>
-      <c r="J25" s="278"/>
+      <c r="I25" s="282"/>
+      <c r="J25" s="283"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -8071,8 +8086,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="277"/>
-      <c r="J26" s="278"/>
+      <c r="I26" s="282"/>
+      <c r="J26" s="283"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -8083,8 +8098,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="278"/>
+      <c r="I27" s="282"/>
+      <c r="J27" s="283"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -8095,8 +8110,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="277"/>
-      <c r="J28" s="278"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="283"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -8107,8 +8122,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="277"/>
-      <c r="J29" s="278"/>
+      <c r="I29" s="282"/>
+      <c r="J29" s="283"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -8119,8 +8134,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="277"/>
-      <c r="J30" s="278"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="283"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -8131,8 +8146,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="277"/>
-      <c r="J31" s="278"/>
+      <c r="I31" s="282"/>
+      <c r="J31" s="283"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -8143,8 +8158,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="278"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="283"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -8155,8 +8170,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="277"/>
-      <c r="J33" s="278"/>
+      <c r="I33" s="282"/>
+      <c r="J33" s="283"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -8167,8 +8182,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="277"/>
-      <c r="J34" s="278"/>
+      <c r="I34" s="282"/>
+      <c r="J34" s="283"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -8179,8 +8194,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="277"/>
-      <c r="J35" s="278"/>
+      <c r="I35" s="282"/>
+      <c r="J35" s="283"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -8191,8 +8206,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="277"/>
-      <c r="J36" s="278"/>
+      <c r="I36" s="282"/>
+      <c r="J36" s="283"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -8203,8 +8218,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="277"/>
-      <c r="J37" s="278"/>
+      <c r="I37" s="282"/>
+      <c r="J37" s="283"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -8215,8 +8230,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="277"/>
-      <c r="J38" s="278"/>
+      <c r="I38" s="282"/>
+      <c r="J38" s="283"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -8227,8 +8242,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="277"/>
-      <c r="J39" s="278"/>
+      <c r="I39" s="282"/>
+      <c r="J39" s="283"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -8239,8 +8254,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="277"/>
-      <c r="J40" s="278"/>
+      <c r="I40" s="282"/>
+      <c r="J40" s="283"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -8251,8 +8266,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="277"/>
-      <c r="J41" s="278"/>
+      <c r="I41" s="282"/>
+      <c r="J41" s="283"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -8263,8 +8278,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="277"/>
-      <c r="J42" s="278"/>
+      <c r="I42" s="282"/>
+      <c r="J42" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8289,13 +8304,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="O41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8320,13 +8335,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -8334,16 +8349,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="285" t="s">
+      <c r="H1" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="286"/>
-      <c r="J1" s="287" t="str">
+      <c r="I1" s="291"/>
+      <c r="J1" s="292" t="str">
         <f>'Update History'!F1</f>
         <v>SOF2000</v>
       </c>
-      <c r="K1" s="288"/>
-      <c r="L1" s="289"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="294"/>
       <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
@@ -8360,11 +8375,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="267"/>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
+      <c r="A2" s="247"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
@@ -8372,16 +8387,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-SO</v>
       </c>
-      <c r="H2" s="285" t="s">
+      <c r="H2" s="290" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="286"/>
-      <c r="J2" s="287" t="str">
+      <c r="I2" s="291"/>
+      <c r="J2" s="292" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục đơn hàng</v>
       </c>
-      <c r="K2" s="288"/>
-      <c r="L2" s="289"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="294"/>
       <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
@@ -8747,65 +8762,63 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="215" customFormat="1" ht="22.5">
-      <c r="A14" s="211">
-        <v>12</v>
-      </c>
-      <c r="B14" s="211" t="s">
+    <row r="14" spans="1:16" s="25" customFormat="1" ht="11.25">
+      <c r="A14" s="109">
+        <v>10</v>
+      </c>
+      <c r="B14" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="211">
-        <v>92</v>
-      </c>
-      <c r="D14" s="211">
-        <v>10</v>
-      </c>
-      <c r="E14" s="210" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14" s="212" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" s="212" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" s="212" t="s">
-        <v>183</v>
-      </c>
-      <c r="I14" s="213" t="s">
+      <c r="C14" s="109"/>
+      <c r="D14" s="109">
+        <v>11</v>
+      </c>
+      <c r="E14" s="132" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="J14" s="214"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="213" t="s">
+      <c r="J14" s="112">
+        <v>50</v>
+      </c>
+      <c r="K14" s="112"/>
+      <c r="L14" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="212"/>
-      <c r="N14" s="212"/>
-      <c r="O14" s="212"/>
-      <c r="P14" s="212" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="25" customFormat="1" ht="11.25">
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="129"/>
+    </row>
+    <row r="15" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="G15" s="110" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="H15" s="110" t="s">
         <v>161</v>
@@ -8823,103 +8836,103 @@
       <c r="M15" s="110"/>
       <c r="N15" s="110"/>
       <c r="O15" s="110"/>
-      <c r="P15" s="129"/>
-    </row>
-    <row r="16" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="109">
-        <v>11</v>
-      </c>
-      <c r="B16" s="109" t="s">
+      <c r="P15" s="110"/>
+    </row>
+    <row r="16" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="191">
+        <v>13</v>
+      </c>
+      <c r="B16" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109">
-        <v>12</v>
-      </c>
-      <c r="E16" s="132" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="110" t="s">
+      <c r="C16" s="191"/>
+      <c r="D16" s="191">
+        <v>13</v>
+      </c>
+      <c r="E16" s="192" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="193" t="s">
+        <v>273</v>
+      </c>
+      <c r="G16" s="193" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="193" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="195">
+        <v>50</v>
+      </c>
+      <c r="K16" s="195"/>
+      <c r="L16" s="194" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+    </row>
+    <row r="17" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="109">
+        <v>14</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109">
+        <v>14</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I17" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="J16" s="112">
+      <c r="J17" s="112">
         <v>50</v>
       </c>
-      <c r="K16" s="112"/>
-      <c r="L16" s="111" t="s">
+      <c r="K17" s="112"/>
+      <c r="L17" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-    </row>
-    <row r="17" spans="1:16" s="196" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="191">
-        <v>13</v>
-      </c>
-      <c r="B17" s="191" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191">
-        <v>13</v>
-      </c>
-      <c r="E17" s="192" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="193" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="193" t="s">
-        <v>273</v>
-      </c>
-      <c r="H17" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17" s="194" t="s">
-        <v>162</v>
-      </c>
-      <c r="J17" s="195">
-        <v>50</v>
-      </c>
-      <c r="K17" s="195"/>
-      <c r="L17" s="194" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
     </row>
     <row r="18" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="132" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="F18" s="110" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="G18" s="110" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="H18" s="110" t="s">
         <v>161</v>
@@ -8941,23 +8954,23 @@
     </row>
     <row r="19" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="109">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C19" s="109"/>
       <c r="D19" s="109">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F19" s="110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H19" s="110" t="s">
         <v>161</v>
@@ -8979,33 +8992,31 @@
     </row>
     <row r="20" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C20" s="109"/>
       <c r="D20" s="109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F20" s="110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I20" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="J20" s="112">
-        <v>50</v>
-      </c>
+      <c r="J20" s="112"/>
       <c r="K20" s="112"/>
       <c r="L20" s="111" t="s">
         <v>189</v>
@@ -9017,23 +9028,23 @@
     </row>
     <row r="21" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="109">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="109"/>
       <c r="D21" s="109">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="132" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F21" s="110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G21" s="110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H21" s="110" t="s">
         <v>183</v>
@@ -9053,35 +9064,27 @@
     </row>
     <row r="22" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="109">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="109"/>
       <c r="D22" s="109">
-        <v>18</v>
-      </c>
-      <c r="E22" s="132" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="110" t="s">
-        <v>277</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E22" s="197" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
       <c r="H22" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="111" t="s">
-        <v>162</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I22" s="111"/>
       <c r="J22" s="112"/>
       <c r="K22" s="112"/>
-      <c r="L22" s="111" t="s">
-        <v>189</v>
-      </c>
+      <c r="L22" s="111"/>
       <c r="M22" s="110"/>
       <c r="N22" s="110"/>
       <c r="O22" s="110"/>
@@ -9096,12 +9099,14 @@
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="109">
-        <v>19</v>
-      </c>
-      <c r="E23" s="197" t="s">
-        <v>406</v>
-      </c>
-      <c r="F23" s="110"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="132" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="110" t="s">
+        <v>178</v>
+      </c>
       <c r="G23" s="110"/>
       <c r="H23" s="110" t="s">
         <v>164</v>
@@ -9117,20 +9122,20 @@
     </row>
     <row r="24" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="109">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C24" s="109"/>
       <c r="D24" s="109">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="110"/>
       <c r="H24" s="110" t="s">
@@ -9147,20 +9152,20 @@
     </row>
     <row r="25" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="109">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C25" s="109"/>
       <c r="D25" s="109">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="132" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="110" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="110"/>
       <c r="H25" s="110" t="s">
@@ -9177,20 +9182,20 @@
     </row>
     <row r="26" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="109">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C26" s="109"/>
       <c r="D26" s="109">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="132" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26" s="110"/>
       <c r="H26" s="110" t="s">
@@ -9203,94 +9208,102 @@
       <c r="M26" s="110"/>
       <c r="N26" s="110"/>
       <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-    </row>
-    <row r="27" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="P26" s="70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="25" customFormat="1" ht="36.75" customHeight="1">
       <c r="A27" s="109">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="109"/>
+      <c r="C27" s="174" t="s">
+        <v>358</v>
+      </c>
       <c r="D27" s="109">
         <v>23</v>
       </c>
-      <c r="E27" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="110"/>
+      <c r="E27" s="110" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="125" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" s="125"/>
       <c r="H27" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="I27" s="111"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
       <c r="P27" s="70" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="25" customFormat="1" ht="36.75" customHeight="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="25" customFormat="1" ht="45">
       <c r="A28" s="109">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="174" t="s">
-        <v>358</v>
-      </c>
+      <c r="C28" s="109"/>
       <c r="D28" s="109">
-        <v>23</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>260</v>
-      </c>
-      <c r="F28" s="125" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="125"/>
+        <v>24</v>
+      </c>
+      <c r="E28" s="132" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="110"/>
       <c r="H28" s="110" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="70" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="25" customFormat="1" ht="45">
+        <v>183</v>
+      </c>
+      <c r="I28" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="111">
+        <v>25</v>
+      </c>
+      <c r="P28" s="129" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="109">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C29" s="109"/>
       <c r="D29" s="109">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" s="132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F29" s="110" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G29" s="110"/>
       <c r="H29" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I29" s="111" t="s">
         <v>163</v>
@@ -9303,133 +9316,131 @@
       <c r="M29" s="110"/>
       <c r="N29" s="110"/>
       <c r="O29" s="111">
-        <v>25</v>
-      </c>
-      <c r="P29" s="129" t="s">
-        <v>224</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P29" s="110"/>
     </row>
     <row r="30" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="109">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C30" s="109"/>
       <c r="D30" s="109">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" s="132" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="110" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G30" s="110"/>
       <c r="H30" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="I30" s="111" t="s">
-        <v>163</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="I30" s="111"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
-      <c r="L30" s="111" t="s">
-        <v>166</v>
-      </c>
+      <c r="L30" s="111"/>
       <c r="M30" s="110"/>
       <c r="N30" s="110"/>
-      <c r="O30" s="111">
-        <v>1</v>
-      </c>
+      <c r="O30" s="110"/>
       <c r="P30" s="110"/>
     </row>
     <row r="31" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="109">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C31" s="109"/>
       <c r="D31" s="109">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E31" s="132" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F31" s="110" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G31" s="110"/>
       <c r="H31" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="I31" s="111"/>
+      <c r="I31" s="111" t="s">
+        <v>188</v>
+      </c>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
       <c r="L31" s="111"/>
       <c r="M31" s="110"/>
       <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
+      <c r="O31" s="109">
+        <v>0</v>
+      </c>
+      <c r="P31" s="125" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="32" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="109">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C32" s="109"/>
       <c r="D32" s="109">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E32" s="132" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F32" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="110"/>
+        <v>176</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>176</v>
+      </c>
       <c r="H32" s="110" t="s">
         <v>182</v>
       </c>
       <c r="I32" s="111" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="J32" s="112"/>
       <c r="K32" s="112"/>
-      <c r="L32" s="111"/>
+      <c r="L32" s="111" t="s">
+        <v>166</v>
+      </c>
       <c r="M32" s="110"/>
       <c r="N32" s="110"/>
-      <c r="O32" s="109">
-        <v>0</v>
-      </c>
-      <c r="P32" s="125" t="s">
-        <v>190</v>
-      </c>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
     </row>
     <row r="33" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="109">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C33" s="109"/>
       <c r="D33" s="109">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E33" s="132" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="F33" s="110" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="G33" s="110" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="H33" s="110" t="s">
         <v>182</v>
@@ -9449,97 +9460,97 @@
     </row>
     <row r="34" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="109">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C34" s="109"/>
-      <c r="D34" s="109">
-        <v>26.3</v>
+      <c r="D34" s="96">
+        <v>26.4</v>
       </c>
       <c r="E34" s="132" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F34" s="110" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G34" s="110" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H34" s="110" t="s">
         <v>182</v>
       </c>
       <c r="I34" s="111" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
       <c r="L34" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="M34" s="110"/>
+      <c r="M34" s="110" t="s">
+        <v>287</v>
+      </c>
       <c r="N34" s="110"/>
       <c r="O34" s="110"/>
       <c r="P34" s="110"/>
     </row>
     <row r="35" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="109">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C35" s="109"/>
       <c r="D35" s="96">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E35" s="132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F35" s="110" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G35" s="110" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H35" s="110" t="s">
         <v>182</v>
       </c>
       <c r="I35" s="111" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
       <c r="L35" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="M35" s="110" t="s">
-        <v>287</v>
-      </c>
+      <c r="M35" s="110"/>
       <c r="N35" s="110"/>
       <c r="O35" s="110"/>
       <c r="P35" s="110"/>
     </row>
     <row r="36" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="109">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C36" s="109"/>
       <c r="D36" s="96">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E36" s="132" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="F36" s="110" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G36" s="110" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H36" s="110" t="s">
         <v>182</v>
@@ -9559,23 +9570,23 @@
     </row>
     <row r="37" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="109">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="109"/>
       <c r="D37" s="96">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E37" s="132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F37" s="110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G37" s="110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H37" s="110" t="s">
         <v>182</v>
@@ -9595,23 +9606,23 @@
     </row>
     <row r="38" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="109">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C38" s="109"/>
       <c r="D38" s="96">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="E38" s="132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F38" s="110" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G38" s="110" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="H38" s="110" t="s">
         <v>182</v>
@@ -9631,23 +9642,23 @@
     </row>
     <row r="39" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="109">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="109"/>
       <c r="D39" s="96">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="E39" s="132" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="F39" s="110" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="G39" s="110" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="H39" s="110" t="s">
         <v>182</v>
@@ -9667,29 +9678,29 @@
     </row>
     <row r="40" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="109">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C40" s="109"/>
-      <c r="D40" s="96">
-        <v>26.9</v>
+      <c r="D40" s="96" t="s">
+        <v>266</v>
       </c>
       <c r="E40" s="132" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F40" s="110" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G40" s="110" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H40" s="110" t="s">
         <v>182</v>
       </c>
       <c r="I40" s="111" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="J40" s="112"/>
       <c r="K40" s="112"/>
@@ -9703,23 +9714,23 @@
     </row>
     <row r="41" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="109">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C41" s="109"/>
       <c r="D41" s="96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E41" s="132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F41" s="110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G41" s="110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H41" s="110" t="s">
         <v>182</v>
@@ -9739,29 +9750,29 @@
     </row>
     <row r="42" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="109">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C42" s="109"/>
       <c r="D42" s="96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E42" s="132" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F42" s="110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G42" s="110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H42" s="110" t="s">
         <v>182</v>
       </c>
       <c r="I42" s="111" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="J42" s="112"/>
       <c r="K42" s="112"/>
@@ -9773,25 +9784,25 @@
       <c r="O42" s="110"/>
       <c r="P42" s="110"/>
     </row>
-    <row r="43" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="43" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A43" s="109">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C43" s="109"/>
       <c r="D43" s="96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E43" s="132" t="s">
-        <v>258</v>
-      </c>
-      <c r="F43" s="110" t="s">
-        <v>275</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>275</v>
+        <v>255</v>
+      </c>
+      <c r="F43" s="132" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="132" t="s">
+        <v>282</v>
       </c>
       <c r="H43" s="110" t="s">
         <v>182</v>
@@ -9811,23 +9822,23 @@
     </row>
     <row r="44" spans="1:16" s="25" customFormat="1" ht="11.25">
       <c r="A44" s="109">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="109" t="s">
         <v>160</v>
       </c>
       <c r="C44" s="109"/>
       <c r="D44" s="96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E44" s="132" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F44" s="132" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="G44" s="132" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="H44" s="110" t="s">
         <v>182</v>
@@ -9845,83 +9856,81 @@
       <c r="O44" s="110"/>
       <c r="P44" s="110"/>
     </row>
-    <row r="45" spans="1:16" s="25" customFormat="1" ht="11.25">
-      <c r="A45" s="109">
-        <v>40</v>
-      </c>
-      <c r="B45" s="109" t="s">
+    <row r="45" spans="1:16" s="25" customFormat="1" ht="22.5">
+      <c r="A45" s="138">
+        <v>41</v>
+      </c>
+      <c r="B45" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="D45" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" s="132" t="s">
-        <v>264</v>
-      </c>
-      <c r="F45" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="110" t="s">
+      <c r="C45" s="138"/>
+      <c r="D45" s="139" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="140" t="s">
+        <v>283</v>
+      </c>
+      <c r="G45" s="140" t="s">
+        <v>283</v>
+      </c>
+      <c r="H45" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="I45" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="111" t="s">
+      <c r="I45" s="142" t="s">
+        <v>284</v>
+      </c>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-    </row>
-    <row r="46" spans="1:16" s="25" customFormat="1" ht="22.5">
-      <c r="A46" s="138">
-        <v>41</v>
-      </c>
-      <c r="B46" s="138" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="139" t="s">
-        <v>271</v>
-      </c>
-      <c r="E46" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="F46" s="140" t="s">
-        <v>283</v>
-      </c>
-      <c r="G46" s="140" t="s">
-        <v>283</v>
-      </c>
-      <c r="H46" s="141" t="s">
-        <v>182</v>
-      </c>
-      <c r="I46" s="142" t="s">
-        <v>284</v>
-      </c>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="142" t="s">
-        <v>166</v>
-      </c>
-      <c r="M46" s="141" t="s">
+      <c r="M45" s="141" t="s">
         <v>288</v>
       </c>
-      <c r="N46" s="141"/>
-      <c r="O46" s="141"/>
-      <c r="P46" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="141"/>
+    </row>
+    <row r="46" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
+      <c r="A46" s="146">
+        <v>42</v>
+      </c>
+      <c r="B46" s="147" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="175" t="s">
+        <v>359</v>
+      </c>
+      <c r="D46" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" s="147" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46" s="150"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="152" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="47" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="146">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="147" t="s">
         <v>333</v>
@@ -9930,20 +9939,15 @@
         <v>359</v>
       </c>
       <c r="D47" s="148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E47" s="147" t="s">
-        <v>334</v>
-      </c>
-      <c r="F47" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149" t="s">
-        <v>161</v>
-      </c>
-      <c r="I47" s="150"/>
-      <c r="J47" s="151"/>
+        <v>335</v>
+      </c>
+      <c r="G47" s="146"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
       <c r="K47" s="146"/>
       <c r="L47" s="146"/>
       <c r="M47" s="146"/>
@@ -9955,7 +9959,7 @@
     </row>
     <row r="48" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="146">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="147" t="s">
         <v>333</v>
@@ -9964,27 +9968,38 @@
         <v>359</v>
       </c>
       <c r="D48" s="148" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E48" s="147" t="s">
-        <v>335</v>
-      </c>
-      <c r="G48" s="146"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="146"/>
+        <v>342</v>
+      </c>
+      <c r="F48" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" s="147" t="s">
+        <v>346</v>
+      </c>
+      <c r="H48" s="153" t="s">
+        <v>182</v>
+      </c>
+      <c r="I48" s="154" t="s">
+        <v>162</v>
+      </c>
       <c r="J48" s="146"/>
       <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
+      <c r="L48" s="146" t="s">
+        <v>166</v>
+      </c>
       <c r="M48" s="146"/>
       <c r="N48" s="146"/>
       <c r="O48" s="146"/>
       <c r="P48" s="152" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="146">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="147" t="s">
         <v>333</v>
@@ -9993,22 +10008,22 @@
         <v>359</v>
       </c>
       <c r="D49" s="148" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E49" s="147" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F49" s="147" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G49" s="147" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H49" s="153" t="s">
         <v>182</v>
       </c>
       <c r="I49" s="154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J49" s="146"/>
       <c r="K49" s="146"/>
@@ -10024,7 +10039,7 @@
     </row>
     <row r="50" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="146">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="147" t="s">
         <v>333</v>
@@ -10033,16 +10048,16 @@
         <v>359</v>
       </c>
       <c r="D50" s="148" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E50" s="147" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F50" s="147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G50" s="147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H50" s="153" t="s">
         <v>182</v>
@@ -10064,7 +10079,7 @@
     </row>
     <row r="51" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="146">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="147" t="s">
         <v>333</v>
@@ -10073,16 +10088,16 @@
         <v>359</v>
       </c>
       <c r="D51" s="148" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E51" s="147" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F51" s="147" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G51" s="147" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H51" s="153" t="s">
         <v>182</v>
@@ -10102,88 +10117,86 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="147" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="146">
-        <v>47</v>
-      </c>
-      <c r="B52" s="147" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" s="175" t="s">
-        <v>359</v>
-      </c>
-      <c r="D52" s="148" t="s">
-        <v>351</v>
-      </c>
-      <c r="E52" s="147" t="s">
-        <v>341</v>
-      </c>
-      <c r="F52" s="147" t="s">
-        <v>345</v>
-      </c>
-      <c r="G52" s="147" t="s">
-        <v>345</v>
-      </c>
-      <c r="H52" s="153" t="s">
+    <row r="52" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
+      <c r="A52" s="162">
+        <v>48</v>
+      </c>
+      <c r="B52" s="161" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="174" t="s">
+        <v>358</v>
+      </c>
+      <c r="D52" s="162"/>
+      <c r="E52" s="161" t="s">
+        <v>355</v>
+      </c>
+      <c r="F52" s="163" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" s="163" t="s">
+        <v>356</v>
+      </c>
+      <c r="H52" s="164"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="162"/>
+      <c r="K52" s="162"/>
+      <c r="L52" s="162"/>
+      <c r="M52" s="162"/>
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="161"/>
+    </row>
+    <row r="53" spans="1:16" s="25" customFormat="1" ht="11.25">
+      <c r="A53" s="200">
+        <v>49</v>
+      </c>
+      <c r="B53" s="200" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="200"/>
+      <c r="D53" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="202" t="s">
+        <v>396</v>
+      </c>
+      <c r="F53" s="202" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" s="202" t="s">
+        <v>397</v>
+      </c>
+      <c r="H53" s="203" t="s">
         <v>182</v>
       </c>
-      <c r="I52" s="154" t="s">
+      <c r="I53" s="204" t="s">
         <v>163</v>
       </c>
-      <c r="J52" s="146"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="146" t="s">
+      <c r="J53" s="205"/>
+      <c r="K53" s="205"/>
+      <c r="L53" s="204" t="s">
         <v>166</v>
       </c>
-      <c r="M52" s="146"/>
-      <c r="N52" s="146"/>
-      <c r="O52" s="146"/>
-      <c r="P52" s="152" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="162">
-        <v>48</v>
-      </c>
-      <c r="B53" s="161" t="s">
-        <v>354</v>
-      </c>
-      <c r="C53" s="174" t="s">
-        <v>358</v>
-      </c>
-      <c r="D53" s="162"/>
-      <c r="E53" s="161" t="s">
-        <v>355</v>
-      </c>
-      <c r="F53" s="163" t="s">
-        <v>356</v>
-      </c>
-      <c r="G53" s="163" t="s">
-        <v>356</v>
-      </c>
-      <c r="H53" s="164"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="161"/>
-    </row>
-    <row r="54" spans="1:16" s="219" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="216"/>
-      <c r="B54" s="217" t="s">
-        <v>403</v>
-      </c>
-      <c r="C54" s="218">
+      <c r="M53" s="203"/>
+      <c r="N53" s="203"/>
+      <c r="O53" s="203"/>
+      <c r="P53" s="203"/>
+    </row>
+    <row r="54" spans="1:16" s="215" customFormat="1" ht="22.5">
+      <c r="A54" s="211">
+        <v>12</v>
+      </c>
+      <c r="B54" s="211" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="211">
         <v>92</v>
       </c>
-      <c r="D54" s="216">
-        <v>26.22</v>
-      </c>
-      <c r="E54" s="217" t="s">
+      <c r="D54" s="211">
+        <v>10</v>
+      </c>
+      <c r="E54" s="210" t="s">
         <v>404</v>
       </c>
       <c r="F54" s="212" t="s">
@@ -10193,56 +10206,35 @@
         <v>405</v>
       </c>
       <c r="H54" s="212" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I54" s="213" t="s">
         <v>162</v>
       </c>
-      <c r="J54" s="216"/>
-      <c r="K54" s="216"/>
-      <c r="L54" s="216" t="s">
-        <v>166</v>
-      </c>
-      <c r="M54" s="216"/>
-      <c r="N54" s="216"/>
-      <c r="O54" s="216"/>
-      <c r="P54" s="217"/>
-    </row>
-    <row r="55" spans="1:16" s="25" customFormat="1" ht="11.25">
-      <c r="A55" s="200">
-        <v>49</v>
-      </c>
-      <c r="B55" s="200" t="s">
-        <v>394</v>
-      </c>
-      <c r="C55" s="200"/>
-      <c r="D55" s="201" t="s">
-        <v>395</v>
-      </c>
-      <c r="E55" s="202" t="s">
-        <v>396</v>
-      </c>
-      <c r="F55" s="202" t="s">
-        <v>397</v>
-      </c>
-      <c r="G55" s="202" t="s">
-        <v>397</v>
-      </c>
-      <c r="H55" s="203" t="s">
-        <v>182</v>
-      </c>
-      <c r="I55" s="204" t="s">
-        <v>163</v>
-      </c>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="204" t="s">
-        <v>166</v>
-      </c>
-      <c r="M55" s="203"/>
-      <c r="N55" s="203"/>
-      <c r="O55" s="203"/>
-      <c r="P55" s="203"/>
+      <c r="J54" s="214"/>
+      <c r="K54" s="214"/>
+      <c r="L54" s="213" t="s">
+        <v>189</v>
+      </c>
+      <c r="M54" s="212"/>
+      <c r="N54" s="212"/>
+      <c r="O54" s="212"/>
+      <c r="P54" s="212" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="144"/>
     </row>
     <row r="56" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="144"/>
@@ -10257,19 +10249,6 @@
       <c r="N56" s="144"/>
       <c r="O56" s="144"/>
     </row>
-    <row r="57" spans="1:16" s="113" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="144"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="144"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -10280,19 +10259,19 @@
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:H48 H54:H55 H5:H11 H14 H16:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:H47 H5:H11 H54 H15:H26 H53">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13 H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13 H14">
       <formula1>"Caption,Dropdownchecklist,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27">
       <formula1>"Caption,Textbox,DateTimePicker, SpinNumeric,Table, Cell,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid,GridColumn,Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:I47 I49:I52 I54:I55 I5:I27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28:I46 I48:I51 I53:I54 I5:I13 I14:I26">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L29:L46 L55 L5:L27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L28:L45 L53:L54 L5:L13 L14:L26">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10928,7 +10907,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="303" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="107"/>
@@ -10964,7 +10943,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="299"/>
+      <c r="A2" s="304"/>
       <c r="B2" s="108"/>
       <c r="C2" s="157"/>
       <c r="D2" s="30" t="s">
@@ -11016,15 +10995,15 @@
       <c r="F4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="267" t="s">
+      <c r="G4" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267" t="s">
+      <c r="H4" s="247"/>
+      <c r="I4" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="267"/>
-      <c r="K4" s="267"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
     </row>
     <row r="5" spans="1:12" s="120" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="117">
@@ -11041,13 +11020,13 @@
       <c r="F5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="293" t="s">
+      <c r="G5" s="298" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="293" t="s">
+      <c r="H5" s="305"/>
+      <c r="I5" s="305"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="298" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11066,11 +11045,11 @@
       <c r="F6" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="294"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="294"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="307"/>
+      <c r="I6" s="307"/>
+      <c r="J6" s="308"/>
+      <c r="K6" s="299"/>
     </row>
     <row r="7" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A7" s="117">
@@ -11087,12 +11066,12 @@
       <c r="F7" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="295" t="s">
+      <c r="G7" s="300" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="297"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="302"/>
       <c r="K7" s="119" t="s">
         <v>195</v>
       </c>
@@ -11114,12 +11093,12 @@
       <c r="F8" s="178" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="290" t="s">
+      <c r="G8" s="295" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="292"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="297"/>
       <c r="K8" s="179" t="s">
         <v>292</v>
       </c>
@@ -11151,9 +11130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048242"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41:N41"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11182,24 +11161,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="335" t="str">
+      <c r="J1" s="375" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="335"/>
+      <c r="K1" s="375"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11217,32 +11196,32 @@
       <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="336" t="str">
+      <c r="Q1" s="372" t="str">
         <f>'Update History'!J1</f>
         <v>Hoàng vũ</v>
       </c>
-      <c r="R1" s="337"/>
-      <c r="S1" s="338"/>
+      <c r="R1" s="373"/>
+      <c r="S1" s="374"/>
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="267"/>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
+      <c r="A2" s="247"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="335" t="str">
+      <c r="J2" s="375" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-SO</v>
       </c>
-      <c r="K2" s="335"/>
+      <c r="K2" s="375"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -11260,12 +11239,12 @@
       <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="336">
+      <c r="Q2" s="372">
         <f>'Update History'!J2</f>
         <v>42347</v>
       </c>
-      <c r="R2" s="337"/>
-      <c r="S2" s="338"/>
+      <c r="R2" s="373"/>
+      <c r="S2" s="374"/>
       <c r="T2" s="47"/>
       <c r="U2" s="47"/>
     </row>
@@ -11300,12 +11279,12 @@
       <c r="J4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="272" t="s">
+      <c r="K4" s="277" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="274"/>
-      <c r="M4" s="274"/>
-      <c r="N4" s="273"/>
+      <c r="L4" s="279"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="278"/>
       <c r="O4" s="36" t="s">
         <v>56</v>
       </c>
@@ -11333,37 +11312,37 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="325" t="s">
+      <c r="G5" s="368" t="s">
         <v>301</v>
       </c>
-      <c r="H5" s="325" t="s">
+      <c r="H5" s="368" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="325" t="s">
+      <c r="I5" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="328" t="s">
+      <c r="J5" s="334" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="329" t="s">
+      <c r="K5" s="313" t="s">
         <v>303</v>
       </c>
-      <c r="L5" s="330"/>
-      <c r="M5" s="330"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="320" t="s">
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="315"/>
+      <c r="O5" s="321" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="320" t="s">
+      <c r="P5" s="321" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" s="322" t="s">
+      <c r="Q5" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="R5" s="323" t="s">
+      <c r="R5" s="324" t="s">
         <v>198</v>
       </c>
-      <c r="S5" s="318" t="s">
+      <c r="S5" s="311" t="s">
         <v>304</v>
       </c>
       <c r="T5" s="57"/>
@@ -11380,19 +11359,19 @@
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="327"/>
-      <c r="I6" s="327"/>
-      <c r="J6" s="327"/>
-      <c r="K6" s="332"/>
-      <c r="L6" s="333"/>
-      <c r="M6" s="333"/>
-      <c r="N6" s="334"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="321"/>
-      <c r="Q6" s="321"/>
-      <c r="R6" s="324"/>
-      <c r="S6" s="319"/>
+      <c r="G6" s="369"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="335"/>
+      <c r="K6" s="316"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="318"/>
+      <c r="O6" s="322"/>
+      <c r="P6" s="322"/>
+      <c r="Q6" s="322"/>
+      <c r="R6" s="325"/>
+      <c r="S6" s="312"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
     </row>
@@ -11407,37 +11386,37 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="325" t="s">
+      <c r="G7" s="368" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="325" t="s">
+      <c r="H7" s="368" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="325" t="s">
+      <c r="I7" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="328" t="s">
+      <c r="J7" s="334" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="329" t="s">
+      <c r="K7" s="313" t="s">
         <v>296</v>
       </c>
-      <c r="L7" s="330"/>
-      <c r="M7" s="330"/>
-      <c r="N7" s="331"/>
-      <c r="O7" s="320" t="s">
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="315"/>
+      <c r="O7" s="321" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="320" t="s">
+      <c r="P7" s="321" t="s">
         <v>221</v>
       </c>
-      <c r="Q7" s="322" t="s">
+      <c r="Q7" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="R7" s="323" t="s">
+      <c r="R7" s="324" t="s">
         <v>198</v>
       </c>
-      <c r="S7" s="318" t="s">
+      <c r="S7" s="311" t="s">
         <v>300</v>
       </c>
       <c r="T7" s="57"/>
@@ -11454,19 +11433,19 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="326"/>
-      <c r="H8" s="327"/>
-      <c r="I8" s="327"/>
-      <c r="J8" s="327"/>
-      <c r="K8" s="332"/>
-      <c r="L8" s="333"/>
-      <c r="M8" s="333"/>
-      <c r="N8" s="334"/>
-      <c r="O8" s="321"/>
-      <c r="P8" s="321"/>
-      <c r="Q8" s="321"/>
-      <c r="R8" s="324"/>
-      <c r="S8" s="319"/>
+      <c r="G8" s="369"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="335"/>
+      <c r="J8" s="335"/>
+      <c r="K8" s="316"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="318"/>
+      <c r="O8" s="322"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="322"/>
+      <c r="R8" s="325"/>
+      <c r="S8" s="312"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
     </row>
@@ -11481,37 +11460,37 @@
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="325" t="s">
+      <c r="G9" s="368" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="325" t="s">
+      <c r="H9" s="368" t="s">
         <v>196</v>
       </c>
-      <c r="I9" s="325" t="s">
+      <c r="I9" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="328" t="s">
+      <c r="J9" s="334" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="329" t="s">
+      <c r="K9" s="313" t="s">
         <v>226</v>
       </c>
-      <c r="L9" s="330"/>
-      <c r="M9" s="330"/>
-      <c r="N9" s="331"/>
-      <c r="O9" s="372" t="s">
+      <c r="L9" s="314"/>
+      <c r="M9" s="314"/>
+      <c r="N9" s="315"/>
+      <c r="O9" s="319" t="s">
         <v>199</v>
       </c>
-      <c r="P9" s="320" t="s">
+      <c r="P9" s="321" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" s="322" t="s">
+      <c r="Q9" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="R9" s="323" t="s">
+      <c r="R9" s="324" t="s">
         <v>198</v>
       </c>
-      <c r="S9" s="318" t="s">
+      <c r="S9" s="311" t="s">
         <v>300</v>
       </c>
       <c r="T9" s="57"/>
@@ -11528,19 +11507,19 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="326"/>
-      <c r="H10" s="327"/>
-      <c r="I10" s="327"/>
-      <c r="J10" s="327"/>
-      <c r="K10" s="332"/>
-      <c r="L10" s="333"/>
-      <c r="M10" s="333"/>
-      <c r="N10" s="334"/>
-      <c r="O10" s="341"/>
-      <c r="P10" s="321"/>
-      <c r="Q10" s="321"/>
-      <c r="R10" s="324"/>
-      <c r="S10" s="319"/>
+      <c r="G10" s="369"/>
+      <c r="H10" s="335"/>
+      <c r="I10" s="335"/>
+      <c r="J10" s="335"/>
+      <c r="K10" s="316"/>
+      <c r="L10" s="317"/>
+      <c r="M10" s="317"/>
+      <c r="N10" s="318"/>
+      <c r="O10" s="320"/>
+      <c r="P10" s="322"/>
+      <c r="Q10" s="322"/>
+      <c r="R10" s="325"/>
+      <c r="S10" s="312"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
     </row>
@@ -11555,37 +11534,37 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="325" t="s">
+      <c r="G11" s="368" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="325" t="s">
+      <c r="H11" s="368" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="325" t="s">
+      <c r="I11" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="328" t="s">
+      <c r="J11" s="334" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="329" t="s">
+      <c r="K11" s="313" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="330"/>
-      <c r="M11" s="330"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="372" t="s">
+      <c r="L11" s="314"/>
+      <c r="M11" s="314"/>
+      <c r="N11" s="315"/>
+      <c r="O11" s="319" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="320" t="s">
+      <c r="P11" s="321" t="s">
         <v>299</v>
       </c>
-      <c r="Q11" s="322" t="s">
+      <c r="Q11" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="R11" s="323" t="s">
+      <c r="R11" s="324" t="s">
         <v>198</v>
       </c>
-      <c r="S11" s="318" t="s">
+      <c r="S11" s="311" t="s">
         <v>300</v>
       </c>
       <c r="T11" s="57"/>
@@ -11602,19 +11581,19 @@
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="326"/>
-      <c r="H12" s="327"/>
-      <c r="I12" s="327"/>
-      <c r="J12" s="327"/>
-      <c r="K12" s="332"/>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="334"/>
-      <c r="O12" s="341"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="324"/>
-      <c r="S12" s="319"/>
+      <c r="G12" s="369"/>
+      <c r="H12" s="335"/>
+      <c r="I12" s="335"/>
+      <c r="J12" s="335"/>
+      <c r="K12" s="316"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="317"/>
+      <c r="N12" s="318"/>
+      <c r="O12" s="320"/>
+      <c r="P12" s="322"/>
+      <c r="Q12" s="322"/>
+      <c r="R12" s="325"/>
+      <c r="S12" s="312"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
     </row>
@@ -11629,37 +11608,37 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="325" t="s">
+      <c r="G13" s="368" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="339" t="s">
+      <c r="H13" s="370" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="339" t="s">
+      <c r="I13" s="370" t="s">
         <v>197</v>
       </c>
-      <c r="J13" s="328" t="s">
+      <c r="J13" s="334" t="s">
         <v>302</v>
       </c>
-      <c r="K13" s="340" t="s">
+      <c r="K13" s="371" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="341"/>
-      <c r="M13" s="341"/>
-      <c r="N13" s="341"/>
-      <c r="O13" s="372" t="s">
+      <c r="L13" s="320"/>
+      <c r="M13" s="320"/>
+      <c r="N13" s="320"/>
+      <c r="O13" s="319" t="s">
         <v>199</v>
       </c>
-      <c r="P13" s="322" t="s">
+      <c r="P13" s="323" t="s">
         <v>222</v>
       </c>
-      <c r="Q13" s="322" t="s">
+      <c r="Q13" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="R13" s="373" t="s">
+      <c r="R13" s="345" t="s">
         <v>198</v>
       </c>
-      <c r="S13" s="318" t="s">
+      <c r="S13" s="311" t="s">
         <v>300</v>
       </c>
       <c r="T13" s="57"/>
@@ -11676,19 +11655,19 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="326"/>
-      <c r="H14" s="339"/>
-      <c r="I14" s="339"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="341"/>
-      <c r="L14" s="341"/>
-      <c r="M14" s="341"/>
-      <c r="N14" s="341"/>
-      <c r="O14" s="341"/>
-      <c r="P14" s="321"/>
-      <c r="Q14" s="321"/>
-      <c r="R14" s="374"/>
-      <c r="S14" s="319"/>
+      <c r="G14" s="369"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="335"/>
+      <c r="K14" s="320"/>
+      <c r="L14" s="320"/>
+      <c r="M14" s="320"/>
+      <c r="N14" s="320"/>
+      <c r="O14" s="320"/>
+      <c r="P14" s="322"/>
+      <c r="Q14" s="322"/>
+      <c r="R14" s="346"/>
+      <c r="S14" s="312"/>
       <c r="T14" s="57"/>
       <c r="U14" s="57"/>
     </row>
@@ -11703,37 +11682,37 @@
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="342" t="s">
+      <c r="G15" s="357" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="342" t="s">
+      <c r="H15" s="357" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="342" t="s">
+      <c r="I15" s="357" t="s">
         <v>200</v>
       </c>
-      <c r="J15" s="345" t="s">
+      <c r="J15" s="360" t="s">
         <v>310</v>
       </c>
-      <c r="K15" s="347" t="s">
+      <c r="K15" s="362" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="348"/>
-      <c r="M15" s="348"/>
-      <c r="N15" s="349"/>
+      <c r="L15" s="363"/>
+      <c r="M15" s="363"/>
+      <c r="N15" s="364"/>
       <c r="O15" s="121" t="s">
         <v>134</v>
       </c>
       <c r="P15" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="Q15" s="370" t="s">
+      <c r="Q15" s="343" t="s">
         <v>216</v>
       </c>
-      <c r="R15" s="364" t="s">
+      <c r="R15" s="336" t="s">
         <v>205</v>
       </c>
-      <c r="S15" s="366" t="s">
+      <c r="S15" s="338" t="s">
         <v>362</v>
       </c>
       <c r="T15" s="57"/>
@@ -11750,23 +11729,23 @@
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="343"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="344"/>
-      <c r="J16" s="346"/>
-      <c r="K16" s="350"/>
-      <c r="L16" s="351"/>
-      <c r="M16" s="351"/>
-      <c r="N16" s="352"/>
+      <c r="G16" s="358"/>
+      <c r="H16" s="359"/>
+      <c r="I16" s="359"/>
+      <c r="J16" s="361"/>
+      <c r="K16" s="365"/>
+      <c r="L16" s="366"/>
+      <c r="M16" s="366"/>
+      <c r="N16" s="367"/>
       <c r="O16" s="121" t="s">
         <v>202</v>
       </c>
       <c r="P16" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="Q16" s="371"/>
-      <c r="R16" s="365"/>
-      <c r="S16" s="367"/>
+      <c r="Q16" s="344"/>
+      <c r="R16" s="337"/>
+      <c r="S16" s="339"/>
       <c r="T16" s="57"/>
       <c r="U16" s="57"/>
     </row>
@@ -11781,23 +11760,23 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="343"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="346"/>
-      <c r="K17" s="350"/>
-      <c r="L17" s="351"/>
-      <c r="M17" s="351"/>
-      <c r="N17" s="352"/>
+      <c r="G17" s="358"/>
+      <c r="H17" s="359"/>
+      <c r="I17" s="359"/>
+      <c r="J17" s="361"/>
+      <c r="K17" s="365"/>
+      <c r="L17" s="366"/>
+      <c r="M17" s="366"/>
+      <c r="N17" s="367"/>
       <c r="O17" s="121" t="s">
         <v>315</v>
       </c>
       <c r="P17" s="121" t="s">
         <v>315</v>
       </c>
-      <c r="Q17" s="371"/>
-      <c r="R17" s="365"/>
-      <c r="S17" s="367"/>
+      <c r="Q17" s="344"/>
+      <c r="R17" s="337"/>
+      <c r="S17" s="339"/>
       <c r="T17" s="57"/>
       <c r="U17" s="57"/>
     </row>
@@ -11812,23 +11791,23 @@
       <c r="D18" s="32"/>
       <c r="E18" s="63"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="343"/>
-      <c r="H18" s="344"/>
-      <c r="I18" s="344"/>
-      <c r="J18" s="346"/>
-      <c r="K18" s="350"/>
-      <c r="L18" s="351"/>
-      <c r="M18" s="351"/>
-      <c r="N18" s="352"/>
+      <c r="G18" s="358"/>
+      <c r="H18" s="359"/>
+      <c r="I18" s="359"/>
+      <c r="J18" s="361"/>
+      <c r="K18" s="365"/>
+      <c r="L18" s="366"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="367"/>
       <c r="O18" s="121" t="s">
         <v>233</v>
       </c>
       <c r="P18" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="Q18" s="371"/>
-      <c r="R18" s="365"/>
-      <c r="S18" s="367"/>
+      <c r="Q18" s="344"/>
+      <c r="R18" s="337"/>
+      <c r="S18" s="339"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
     </row>
@@ -11843,23 +11822,23 @@
       <c r="D19" s="32"/>
       <c r="E19" s="126"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="343"/>
-      <c r="H19" s="344"/>
-      <c r="I19" s="344"/>
-      <c r="J19" s="346"/>
-      <c r="K19" s="350"/>
-      <c r="L19" s="351"/>
-      <c r="M19" s="351"/>
-      <c r="N19" s="352"/>
+      <c r="G19" s="358"/>
+      <c r="H19" s="359"/>
+      <c r="I19" s="359"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="365"/>
+      <c r="L19" s="366"/>
+      <c r="M19" s="366"/>
+      <c r="N19" s="367"/>
       <c r="O19" s="121" t="s">
         <v>234</v>
       </c>
       <c r="P19" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="Q19" s="371"/>
-      <c r="R19" s="365"/>
-      <c r="S19" s="367"/>
+      <c r="Q19" s="344"/>
+      <c r="R19" s="337"/>
+      <c r="S19" s="339"/>
       <c r="T19" s="57"/>
       <c r="U19" s="57"/>
     </row>
@@ -11874,23 +11853,23 @@
       <c r="D20" s="32"/>
       <c r="E20" s="133"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="343"/>
-      <c r="H20" s="344"/>
-      <c r="I20" s="344"/>
-      <c r="J20" s="346"/>
-      <c r="K20" s="350"/>
-      <c r="L20" s="351"/>
-      <c r="M20" s="351"/>
-      <c r="N20" s="352"/>
+      <c r="G20" s="358"/>
+      <c r="H20" s="359"/>
+      <c r="I20" s="359"/>
+      <c r="J20" s="361"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="366"/>
+      <c r="M20" s="366"/>
+      <c r="N20" s="367"/>
       <c r="O20" s="121" t="s">
         <v>316</v>
       </c>
       <c r="P20" s="121" t="s">
         <v>316</v>
       </c>
-      <c r="Q20" s="371"/>
-      <c r="R20" s="365"/>
-      <c r="S20" s="367"/>
+      <c r="Q20" s="344"/>
+      <c r="R20" s="337"/>
+      <c r="S20" s="339"/>
       <c r="T20" s="57"/>
       <c r="U20" s="57"/>
     </row>
@@ -11905,23 +11884,23 @@
       <c r="D21" s="32"/>
       <c r="E21" s="133"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="343"/>
-      <c r="H21" s="344"/>
-      <c r="I21" s="344"/>
-      <c r="J21" s="346"/>
-      <c r="K21" s="350"/>
-      <c r="L21" s="351"/>
-      <c r="M21" s="351"/>
-      <c r="N21" s="352"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="361"/>
+      <c r="K21" s="365"/>
+      <c r="L21" s="366"/>
+      <c r="M21" s="366"/>
+      <c r="N21" s="367"/>
       <c r="O21" s="121" t="s">
         <v>235</v>
       </c>
       <c r="P21" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="Q21" s="371"/>
-      <c r="R21" s="365"/>
-      <c r="S21" s="367"/>
+      <c r="Q21" s="344"/>
+      <c r="R21" s="337"/>
+      <c r="S21" s="339"/>
       <c r="T21" s="57"/>
       <c r="U21" s="57"/>
     </row>
@@ -11936,23 +11915,23 @@
       <c r="D22" s="32"/>
       <c r="E22" s="126"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="343"/>
-      <c r="H22" s="344"/>
-      <c r="I22" s="344"/>
-      <c r="J22" s="346"/>
-      <c r="K22" s="350"/>
-      <c r="L22" s="351"/>
-      <c r="M22" s="351"/>
-      <c r="N22" s="352"/>
+      <c r="G22" s="358"/>
+      <c r="H22" s="359"/>
+      <c r="I22" s="359"/>
+      <c r="J22" s="361"/>
+      <c r="K22" s="365"/>
+      <c r="L22" s="366"/>
+      <c r="M22" s="366"/>
+      <c r="N22" s="367"/>
       <c r="O22" s="121" t="s">
         <v>317</v>
       </c>
       <c r="P22" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="Q22" s="371"/>
-      <c r="R22" s="365"/>
-      <c r="S22" s="367"/>
+      <c r="Q22" s="344"/>
+      <c r="R22" s="337"/>
+      <c r="S22" s="339"/>
       <c r="T22" s="57"/>
       <c r="U22" s="57"/>
     </row>
@@ -11967,23 +11946,23 @@
       <c r="D23" s="32"/>
       <c r="E23" s="126"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="343"/>
-      <c r="H23" s="344"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="346"/>
-      <c r="K23" s="350"/>
-      <c r="L23" s="351"/>
-      <c r="M23" s="351"/>
-      <c r="N23" s="352"/>
+      <c r="G23" s="358"/>
+      <c r="H23" s="359"/>
+      <c r="I23" s="359"/>
+      <c r="J23" s="361"/>
+      <c r="K23" s="365"/>
+      <c r="L23" s="366"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="367"/>
       <c r="O23" s="121" t="s">
         <v>318</v>
       </c>
       <c r="P23" s="121" t="s">
         <v>318</v>
       </c>
-      <c r="Q23" s="371"/>
-      <c r="R23" s="365"/>
-      <c r="S23" s="367"/>
+      <c r="Q23" s="344"/>
+      <c r="R23" s="337"/>
+      <c r="S23" s="339"/>
       <c r="T23" s="57"/>
       <c r="U23" s="57"/>
     </row>
@@ -11998,23 +11977,23 @@
       <c r="D24" s="32"/>
       <c r="E24" s="126"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="343"/>
-      <c r="H24" s="344"/>
-      <c r="I24" s="344"/>
-      <c r="J24" s="346"/>
-      <c r="K24" s="350"/>
-      <c r="L24" s="351"/>
-      <c r="M24" s="351"/>
-      <c r="N24" s="352"/>
+      <c r="G24" s="358"/>
+      <c r="H24" s="359"/>
+      <c r="I24" s="359"/>
+      <c r="J24" s="361"/>
+      <c r="K24" s="365"/>
+      <c r="L24" s="366"/>
+      <c r="M24" s="366"/>
+      <c r="N24" s="367"/>
       <c r="O24" s="121" t="s">
         <v>319</v>
       </c>
       <c r="P24" s="121" t="s">
         <v>319</v>
       </c>
-      <c r="Q24" s="371"/>
-      <c r="R24" s="365"/>
-      <c r="S24" s="367"/>
+      <c r="Q24" s="344"/>
+      <c r="R24" s="337"/>
+      <c r="S24" s="339"/>
       <c r="T24" s="57"/>
       <c r="U24" s="57"/>
     </row>
@@ -12029,23 +12008,23 @@
       <c r="D25" s="32"/>
       <c r="E25" s="126"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="343"/>
-      <c r="H25" s="344"/>
-      <c r="I25" s="344"/>
-      <c r="J25" s="346"/>
-      <c r="K25" s="350"/>
-      <c r="L25" s="351"/>
-      <c r="M25" s="351"/>
-      <c r="N25" s="352"/>
+      <c r="G25" s="358"/>
+      <c r="H25" s="359"/>
+      <c r="I25" s="359"/>
+      <c r="J25" s="361"/>
+      <c r="K25" s="365"/>
+      <c r="L25" s="366"/>
+      <c r="M25" s="366"/>
+      <c r="N25" s="367"/>
       <c r="O25" s="121" t="s">
         <v>320</v>
       </c>
       <c r="P25" s="121" t="s">
         <v>320</v>
       </c>
-      <c r="Q25" s="371"/>
-      <c r="R25" s="365"/>
-      <c r="S25" s="367"/>
+      <c r="Q25" s="344"/>
+      <c r="R25" s="337"/>
+      <c r="S25" s="339"/>
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
     </row>
@@ -12060,23 +12039,23 @@
       <c r="D26" s="32"/>
       <c r="E26" s="126"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="343"/>
-      <c r="H26" s="344"/>
-      <c r="I26" s="344"/>
-      <c r="J26" s="346"/>
-      <c r="K26" s="350"/>
-      <c r="L26" s="351"/>
-      <c r="M26" s="351"/>
-      <c r="N26" s="352"/>
+      <c r="G26" s="358"/>
+      <c r="H26" s="359"/>
+      <c r="I26" s="359"/>
+      <c r="J26" s="361"/>
+      <c r="K26" s="365"/>
+      <c r="L26" s="366"/>
+      <c r="M26" s="366"/>
+      <c r="N26" s="367"/>
       <c r="O26" s="121" t="s">
         <v>322</v>
       </c>
       <c r="P26" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="Q26" s="371"/>
-      <c r="R26" s="365"/>
-      <c r="S26" s="367"/>
+      <c r="Q26" s="344"/>
+      <c r="R26" s="337"/>
+      <c r="S26" s="339"/>
       <c r="T26" s="57"/>
       <c r="U26" s="57"/>
     </row>
@@ -12091,23 +12070,23 @@
       <c r="D27" s="32"/>
       <c r="E27" s="126"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="343"/>
-      <c r="H27" s="344"/>
-      <c r="I27" s="344"/>
-      <c r="J27" s="346"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="351"/>
-      <c r="M27" s="351"/>
-      <c r="N27" s="352"/>
+      <c r="G27" s="358"/>
+      <c r="H27" s="359"/>
+      <c r="I27" s="359"/>
+      <c r="J27" s="361"/>
+      <c r="K27" s="365"/>
+      <c r="L27" s="366"/>
+      <c r="M27" s="366"/>
+      <c r="N27" s="367"/>
       <c r="O27" s="121" t="s">
         <v>321</v>
       </c>
       <c r="P27" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="Q27" s="371"/>
-      <c r="R27" s="365"/>
-      <c r="S27" s="367"/>
+      <c r="Q27" s="344"/>
+      <c r="R27" s="337"/>
+      <c r="S27" s="339"/>
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
     </row>
@@ -12122,23 +12101,23 @@
       <c r="D28" s="32"/>
       <c r="E28" s="126"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="344"/>
-      <c r="I28" s="344"/>
-      <c r="J28" s="346"/>
-      <c r="K28" s="350"/>
-      <c r="L28" s="351"/>
-      <c r="M28" s="351"/>
-      <c r="N28" s="352"/>
+      <c r="G28" s="358"/>
+      <c r="H28" s="359"/>
+      <c r="I28" s="359"/>
+      <c r="J28" s="361"/>
+      <c r="K28" s="365"/>
+      <c r="L28" s="366"/>
+      <c r="M28" s="366"/>
+      <c r="N28" s="367"/>
       <c r="O28" s="121" t="s">
         <v>323</v>
       </c>
       <c r="P28" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="Q28" s="371"/>
-      <c r="R28" s="365"/>
-      <c r="S28" s="367"/>
+      <c r="Q28" s="344"/>
+      <c r="R28" s="337"/>
+      <c r="S28" s="339"/>
       <c r="T28" s="57"/>
       <c r="U28" s="57"/>
     </row>
@@ -12153,23 +12132,23 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="343"/>
-      <c r="H29" s="344"/>
-      <c r="I29" s="344"/>
-      <c r="J29" s="346"/>
-      <c r="K29" s="350"/>
-      <c r="L29" s="351"/>
-      <c r="M29" s="351"/>
-      <c r="N29" s="352"/>
+      <c r="G29" s="358"/>
+      <c r="H29" s="359"/>
+      <c r="I29" s="359"/>
+      <c r="J29" s="361"/>
+      <c r="K29" s="365"/>
+      <c r="L29" s="366"/>
+      <c r="M29" s="366"/>
+      <c r="N29" s="367"/>
       <c r="O29" s="121" t="s">
         <v>324</v>
       </c>
       <c r="P29" s="121" t="s">
         <v>324</v>
       </c>
-      <c r="Q29" s="371"/>
-      <c r="R29" s="365"/>
-      <c r="S29" s="367"/>
+      <c r="Q29" s="344"/>
+      <c r="R29" s="337"/>
+      <c r="S29" s="339"/>
       <c r="T29" s="57"/>
       <c r="U29" s="57"/>
     </row>
@@ -12184,23 +12163,23 @@
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="343"/>
-      <c r="H30" s="344"/>
-      <c r="I30" s="344"/>
-      <c r="J30" s="346"/>
-      <c r="K30" s="350"/>
-      <c r="L30" s="351"/>
-      <c r="M30" s="351"/>
-      <c r="N30" s="352"/>
+      <c r="G30" s="358"/>
+      <c r="H30" s="359"/>
+      <c r="I30" s="359"/>
+      <c r="J30" s="361"/>
+      <c r="K30" s="365"/>
+      <c r="L30" s="366"/>
+      <c r="M30" s="366"/>
+      <c r="N30" s="367"/>
       <c r="O30" s="121" t="s">
         <v>208</v>
       </c>
       <c r="P30" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="Q30" s="371"/>
-      <c r="R30" s="365"/>
-      <c r="S30" s="367"/>
+      <c r="Q30" s="344"/>
+      <c r="R30" s="337"/>
+      <c r="S30" s="339"/>
       <c r="T30" s="57"/>
       <c r="U30" s="57"/>
     </row>
@@ -12215,23 +12194,23 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="343"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="344"/>
-      <c r="J31" s="346"/>
-      <c r="K31" s="350"/>
-      <c r="L31" s="351"/>
-      <c r="M31" s="351"/>
-      <c r="N31" s="352"/>
+      <c r="G31" s="358"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="361"/>
+      <c r="K31" s="365"/>
+      <c r="L31" s="366"/>
+      <c r="M31" s="366"/>
+      <c r="N31" s="367"/>
       <c r="O31" s="121" t="s">
         <v>203</v>
       </c>
       <c r="P31" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="Q31" s="371"/>
-      <c r="R31" s="365"/>
-      <c r="S31" s="367"/>
+      <c r="Q31" s="344"/>
+      <c r="R31" s="337"/>
+      <c r="S31" s="339"/>
       <c r="T31" s="57"/>
       <c r="U31" s="57"/>
     </row>
@@ -12246,23 +12225,23 @@
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="343"/>
-      <c r="H32" s="344"/>
-      <c r="I32" s="344"/>
-      <c r="J32" s="344"/>
-      <c r="K32" s="350"/>
-      <c r="L32" s="351"/>
-      <c r="M32" s="351"/>
-      <c r="N32" s="352"/>
+      <c r="G32" s="358"/>
+      <c r="H32" s="359"/>
+      <c r="I32" s="359"/>
+      <c r="J32" s="359"/>
+      <c r="K32" s="365"/>
+      <c r="L32" s="366"/>
+      <c r="M32" s="366"/>
+      <c r="N32" s="367"/>
       <c r="O32" s="122" t="s">
         <v>204</v>
       </c>
       <c r="P32" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="Q32" s="371"/>
-      <c r="R32" s="365"/>
-      <c r="S32" s="361"/>
+      <c r="Q32" s="344"/>
+      <c r="R32" s="337"/>
+      <c r="S32" s="340"/>
       <c r="T32" s="57"/>
       <c r="U32" s="57"/>
     </row>
@@ -12277,37 +12256,37 @@
       <c r="D33" s="113"/>
       <c r="E33" s="113"/>
       <c r="F33" s="113"/>
-      <c r="G33" s="353" t="s">
+      <c r="G33" s="347" t="s">
         <v>220</v>
       </c>
-      <c r="H33" s="353" t="s">
+      <c r="H33" s="347" t="s">
         <v>207</v>
       </c>
-      <c r="I33" s="353" t="s">
+      <c r="I33" s="347" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="356" t="s">
+      <c r="J33" s="350" t="s">
         <v>225</v>
       </c>
-      <c r="K33" s="358" t="s">
+      <c r="K33" s="352" t="s">
         <v>330</v>
       </c>
-      <c r="L33" s="359"/>
-      <c r="M33" s="359"/>
-      <c r="N33" s="360"/>
+      <c r="L33" s="353"/>
+      <c r="M33" s="353"/>
+      <c r="N33" s="354"/>
       <c r="O33" s="123" t="s">
         <v>134</v>
       </c>
       <c r="P33" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="Q33" s="368" t="s">
+      <c r="Q33" s="341" t="s">
         <v>207</v>
       </c>
-      <c r="R33" s="364" t="s">
+      <c r="R33" s="336" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="366" t="s">
+      <c r="S33" s="338" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12322,23 +12301,23 @@
       <c r="D34" s="113"/>
       <c r="E34" s="113"/>
       <c r="F34" s="113"/>
-      <c r="G34" s="354"/>
-      <c r="H34" s="354"/>
-      <c r="I34" s="354"/>
-      <c r="J34" s="357"/>
-      <c r="K34" s="361"/>
-      <c r="L34" s="362"/>
-      <c r="M34" s="362"/>
-      <c r="N34" s="363"/>
+      <c r="G34" s="348"/>
+      <c r="H34" s="348"/>
+      <c r="I34" s="348"/>
+      <c r="J34" s="351"/>
+      <c r="K34" s="340"/>
+      <c r="L34" s="355"/>
+      <c r="M34" s="355"/>
+      <c r="N34" s="356"/>
       <c r="O34" s="124" t="s">
         <v>325</v>
       </c>
       <c r="P34" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="Q34" s="369"/>
-      <c r="R34" s="365"/>
-      <c r="S34" s="367"/>
+      <c r="Q34" s="342"/>
+      <c r="R34" s="337"/>
+      <c r="S34" s="339"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
       <c r="A35" s="32">
@@ -12351,23 +12330,23 @@
       <c r="D35" s="113"/>
       <c r="E35" s="113"/>
       <c r="F35" s="113"/>
-      <c r="G35" s="354"/>
-      <c r="H35" s="354"/>
-      <c r="I35" s="354"/>
-      <c r="J35" s="357"/>
-      <c r="K35" s="361"/>
-      <c r="L35" s="362"/>
-      <c r="M35" s="362"/>
-      <c r="N35" s="363"/>
+      <c r="G35" s="348"/>
+      <c r="H35" s="348"/>
+      <c r="I35" s="348"/>
+      <c r="J35" s="351"/>
+      <c r="K35" s="340"/>
+      <c r="L35" s="355"/>
+      <c r="M35" s="355"/>
+      <c r="N35" s="356"/>
       <c r="O35" s="128" t="s">
         <v>327</v>
       </c>
       <c r="P35" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="Q35" s="369"/>
-      <c r="R35" s="365"/>
-      <c r="S35" s="367"/>
+      <c r="Q35" s="342"/>
+      <c r="R35" s="337"/>
+      <c r="S35" s="339"/>
     </row>
     <row r="36" spans="1:21" ht="13.5" customHeight="1">
       <c r="A36" s="32">
@@ -12380,23 +12359,23 @@
       <c r="D36" s="113"/>
       <c r="E36" s="113"/>
       <c r="F36" s="113"/>
-      <c r="G36" s="354"/>
-      <c r="H36" s="354"/>
-      <c r="I36" s="354"/>
-      <c r="J36" s="357"/>
-      <c r="K36" s="361"/>
-      <c r="L36" s="362"/>
-      <c r="M36" s="362"/>
-      <c r="N36" s="363"/>
+      <c r="G36" s="348"/>
+      <c r="H36" s="348"/>
+      <c r="I36" s="348"/>
+      <c r="J36" s="351"/>
+      <c r="K36" s="340"/>
+      <c r="L36" s="355"/>
+      <c r="M36" s="355"/>
+      <c r="N36" s="356"/>
       <c r="O36" s="128" t="s">
         <v>329</v>
       </c>
       <c r="P36" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="Q36" s="369"/>
-      <c r="R36" s="365"/>
-      <c r="S36" s="367"/>
+      <c r="Q36" s="342"/>
+      <c r="R36" s="337"/>
+      <c r="S36" s="339"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1">
       <c r="A37" s="32">
@@ -12409,23 +12388,23 @@
       <c r="D37" s="113"/>
       <c r="E37" s="113"/>
       <c r="F37" s="113"/>
-      <c r="G37" s="355"/>
-      <c r="H37" s="354"/>
-      <c r="I37" s="354"/>
-      <c r="J37" s="354"/>
-      <c r="K37" s="361"/>
-      <c r="L37" s="362"/>
-      <c r="M37" s="362"/>
-      <c r="N37" s="363"/>
+      <c r="G37" s="349"/>
+      <c r="H37" s="348"/>
+      <c r="I37" s="348"/>
+      <c r="J37" s="348"/>
+      <c r="K37" s="340"/>
+      <c r="L37" s="355"/>
+      <c r="M37" s="355"/>
+      <c r="N37" s="356"/>
       <c r="O37" s="128" t="s">
         <v>210</v>
       </c>
       <c r="P37" s="127">
         <v>1</v>
       </c>
-      <c r="Q37" s="369"/>
-      <c r="R37" s="365"/>
-      <c r="S37" s="361"/>
+      <c r="Q37" s="342"/>
+      <c r="R37" s="337"/>
+      <c r="S37" s="340"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
       <c r="A38" s="32">
@@ -12438,23 +12417,23 @@
       <c r="D38" s="113"/>
       <c r="E38" s="113"/>
       <c r="F38" s="113"/>
-      <c r="G38" s="355"/>
-      <c r="H38" s="354"/>
-      <c r="I38" s="354"/>
-      <c r="J38" s="354"/>
-      <c r="K38" s="361"/>
-      <c r="L38" s="362"/>
-      <c r="M38" s="362"/>
-      <c r="N38" s="363"/>
+      <c r="G38" s="349"/>
+      <c r="H38" s="348"/>
+      <c r="I38" s="348"/>
+      <c r="J38" s="348"/>
+      <c r="K38" s="340"/>
+      <c r="L38" s="355"/>
+      <c r="M38" s="355"/>
+      <c r="N38" s="356"/>
       <c r="O38" s="124" t="s">
         <v>208</v>
       </c>
       <c r="P38" s="124" t="s">
         <v>209</v>
       </c>
-      <c r="Q38" s="369"/>
-      <c r="R38" s="365"/>
-      <c r="S38" s="361"/>
+      <c r="Q38" s="342"/>
+      <c r="R38" s="337"/>
+      <c r="S38" s="340"/>
     </row>
     <row r="39" spans="1:21" s="33" customFormat="1" ht="19.5" customHeight="1">
       <c r="A39" s="189">
@@ -12467,98 +12446,109 @@
       <c r="D39" s="189"/>
       <c r="E39" s="189"/>
       <c r="F39" s="190"/>
-      <c r="G39" s="312" t="s">
+      <c r="G39" s="376" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="314" t="s">
+      <c r="H39" s="378" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="314" t="s">
+      <c r="I39" s="378" t="s">
         <v>197</v>
       </c>
-      <c r="J39" s="315" t="s">
+      <c r="J39" s="379" t="s">
         <v>389</v>
       </c>
-      <c r="K39" s="317" t="s">
+      <c r="K39" s="381" t="s">
         <v>391</v>
       </c>
-      <c r="L39" s="305"/>
-      <c r="M39" s="305"/>
-      <c r="N39" s="305"/>
-      <c r="O39" s="304" t="s">
+      <c r="L39" s="327"/>
+      <c r="M39" s="327"/>
+      <c r="N39" s="327"/>
+      <c r="O39" s="326" t="s">
         <v>392</v>
       </c>
-      <c r="P39" s="304" t="s">
+      <c r="P39" s="326" t="s">
         <v>392</v>
       </c>
-      <c r="Q39" s="306" t="s">
+      <c r="Q39" s="328" t="s">
         <v>165</v>
       </c>
-      <c r="R39" s="308" t="s">
+      <c r="R39" s="330" t="s">
         <v>198</v>
       </c>
-      <c r="S39" s="310" t="s">
+      <c r="S39" s="332" t="s">
         <v>300</v>
       </c>
       <c r="T39" s="57"/>
       <c r="U39" s="57"/>
     </row>
     <row r="40" spans="1:21" s="33" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A40" s="387">
+      <c r="A40" s="218">
         <v>1</v>
       </c>
-      <c r="B40" s="387" t="s">
+      <c r="B40" s="218" t="s">
         <v>390</v>
       </c>
-      <c r="C40" s="387"/>
-      <c r="D40" s="387"/>
-      <c r="E40" s="387"/>
-      <c r="F40" s="388"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="314"/>
-      <c r="I40" s="314"/>
-      <c r="J40" s="316"/>
-      <c r="K40" s="305"/>
-      <c r="L40" s="305"/>
-      <c r="M40" s="305"/>
-      <c r="N40" s="305"/>
-      <c r="O40" s="305"/>
-      <c r="P40" s="305"/>
-      <c r="Q40" s="307"/>
-      <c r="R40" s="309"/>
-      <c r="S40" s="311"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="377"/>
+      <c r="H40" s="378"/>
+      <c r="I40" s="378"/>
+      <c r="J40" s="380"/>
+      <c r="K40" s="327"/>
+      <c r="L40" s="327"/>
+      <c r="M40" s="327"/>
+      <c r="N40" s="327"/>
+      <c r="O40" s="327"/>
+      <c r="P40" s="327"/>
+      <c r="Q40" s="329"/>
+      <c r="R40" s="331"/>
+      <c r="S40" s="333"/>
       <c r="T40" s="57"/>
       <c r="U40" s="57"/>
     </row>
-    <row r="41" spans="1:21" s="217" customFormat="1" ht="83.25" customHeight="1">
-      <c r="B41" s="217" t="s">
+    <row r="41" spans="1:21" s="217" customFormat="1" ht="176.25" customHeight="1">
+      <c r="A41" s="220"/>
+      <c r="B41" s="220" t="s">
         <v>403</v>
       </c>
       <c r="C41" s="216">
         <v>92</v>
       </c>
-      <c r="H41" s="217" t="s">
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="222" t="s">
+        <v>410</v>
+      </c>
+      <c r="H41" s="220" t="s">
         <v>408</v>
       </c>
-      <c r="I41" s="217" t="s">
+      <c r="I41" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="389" t="s">
+      <c r="J41" s="221" t="s">
         <v>409</v>
       </c>
-      <c r="K41" s="390" t="s">
-        <v>410</v>
-      </c>
-      <c r="L41" s="391"/>
-      <c r="M41" s="391"/>
-      <c r="N41" s="391"/>
+      <c r="K41" s="309" t="s">
+        <v>411</v>
+      </c>
+      <c r="L41" s="310"/>
+      <c r="M41" s="310"/>
+      <c r="N41" s="310"/>
       <c r="O41" s="216"/>
       <c r="P41" s="216"/>
-      <c r="Q41" s="216"/>
-      <c r="R41" s="216"/>
-      <c r="S41" s="216"/>
-      <c r="T41" s="216"/>
-      <c r="U41" s="216"/>
+      <c r="Q41" s="216" t="s">
+        <v>165</v>
+      </c>
+      <c r="R41" s="216" t="s">
+        <v>198</v>
+      </c>
+      <c r="S41" s="223"/>
+      <c r="T41" s="224"/>
+      <c r="U41" s="224"/>
     </row>
     <row r="1048242" spans="17:17" ht="12" customHeight="1">
       <c r="Q1048242" s="66"/>
@@ -12566,63 +12556,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="83">
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="S33:S38"/>
-    <mergeCell ref="Q33:Q38"/>
-    <mergeCell ref="Q15:Q32"/>
-    <mergeCell ref="R15:R32"/>
-    <mergeCell ref="S15:S32"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="K11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:N38"/>
-    <mergeCell ref="G15:G32"/>
-    <mergeCell ref="H15:H32"/>
-    <mergeCell ref="I15:I32"/>
-    <mergeCell ref="J15:J32"/>
-    <mergeCell ref="K15:N32"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:N6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:N40"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
@@ -12639,11 +12577,63 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:N40"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:N6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="G15:G32"/>
+    <mergeCell ref="H15:H32"/>
+    <mergeCell ref="I15:I32"/>
+    <mergeCell ref="J15:J32"/>
+    <mergeCell ref="K15:N32"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:N38"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="S33:S38"/>
+    <mergeCell ref="Q33:Q38"/>
+    <mergeCell ref="Q15:Q32"/>
+    <mergeCell ref="R15:R32"/>
+    <mergeCell ref="S15:S32"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S11:S12"/>
     <mergeCell ref="O39:O40"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="Q39:Q40"/>
@@ -12691,10 +12681,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="247"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12725,8 +12715,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="267"/>
-      <c r="B2" s="267"/>
+      <c r="A2" s="247"/>
+      <c r="B2" s="247"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -12890,66 +12880,66 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="B15" s="69"/>
-      <c r="C15" s="379" t="s">
+      <c r="C15" s="386" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="379"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="379"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="379"/>
+      <c r="D15" s="386"/>
+      <c r="E15" s="386"/>
+      <c r="F15" s="386"/>
+      <c r="G15" s="386"/>
+      <c r="H15" s="386"/>
       <c r="I15" s="40"/>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="B16" s="40"/>
-      <c r="C16" s="379" t="s">
+      <c r="C16" s="386" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="379"/>
-      <c r="E16" s="379"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="379"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="386"/>
+      <c r="F16" s="386"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="386"/>
       <c r="I16" s="40"/>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="40"/>
-      <c r="C17" s="379" t="s">
+      <c r="C17" s="386" t="s">
         <v>307</v>
       </c>
-      <c r="D17" s="379"/>
-      <c r="E17" s="379"/>
-      <c r="F17" s="379"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="379"/>
+      <c r="D17" s="386"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="386"/>
+      <c r="G17" s="386"/>
+      <c r="H17" s="386"/>
       <c r="I17" s="131"/>
       <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="40"/>
-      <c r="C18" s="379" t="s">
+      <c r="C18" s="386" t="s">
         <v>308</v>
       </c>
-      <c r="D18" s="379"/>
-      <c r="E18" s="379"/>
-      <c r="F18" s="379"/>
-      <c r="G18" s="379"/>
-      <c r="H18" s="379"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="386"/>
+      <c r="F18" s="386"/>
+      <c r="G18" s="386"/>
+      <c r="H18" s="386"/>
       <c r="I18" s="131"/>
       <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="B19" s="40"/>
-      <c r="C19" s="379" t="s">
+      <c r="C19" s="386" t="s">
         <v>309</v>
       </c>
-      <c r="D19" s="379"/>
-      <c r="E19" s="379"/>
-      <c r="F19" s="379"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="379"/>
+      <c r="D19" s="386"/>
+      <c r="E19" s="386"/>
+      <c r="F19" s="386"/>
+      <c r="G19" s="386"/>
+      <c r="H19" s="386"/>
       <c r="I19" s="131"/>
       <c r="J19" s="43"/>
     </row>
@@ -12968,16 +12958,16 @@
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="B21" s="40"/>
-      <c r="C21" s="377" t="s">
+      <c r="C21" s="384" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="378"/>
-      <c r="E21" s="378"/>
-      <c r="F21" s="378"/>
-      <c r="G21" s="378"/>
-      <c r="H21" s="378"/>
-      <c r="I21" s="378"/>
-      <c r="J21" s="378"/>
+      <c r="D21" s="385"/>
+      <c r="E21" s="385"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="385"/>
+      <c r="I21" s="385"/>
+      <c r="J21" s="385"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="B22" s="40"/>
@@ -13043,46 +13033,46 @@
     <row r="27" spans="1:10" ht="72" customHeight="1">
       <c r="A27" s="64"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="380" t="s">
+      <c r="C27" s="387" t="s">
         <v>363</v>
       </c>
-      <c r="D27" s="378"/>
-      <c r="E27" s="378"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="378"/>
-      <c r="H27" s="378"/>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
+      <c r="D27" s="385"/>
+      <c r="E27" s="385"/>
+      <c r="F27" s="385"/>
+      <c r="G27" s="385"/>
+      <c r="H27" s="385"/>
+      <c r="I27" s="385"/>
+      <c r="J27" s="385"/>
     </row>
     <row r="28" spans="1:10" ht="78" customHeight="1">
       <c r="A28" s="64"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="381" t="s">
+      <c r="C28" s="388" t="s">
         <v>314</v>
       </c>
-      <c r="D28" s="381"/>
-      <c r="E28" s="381"/>
-      <c r="F28" s="381"/>
-      <c r="G28" s="381"/>
-      <c r="H28" s="381"/>
-      <c r="I28" s="381"/>
-      <c r="J28" s="381"/>
+      <c r="D28" s="388"/>
+      <c r="E28" s="388"/>
+      <c r="F28" s="388"/>
+      <c r="G28" s="388"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="388"/>
+      <c r="J28" s="388"/>
     </row>
     <row r="29" spans="1:10" ht="90" customHeight="1">
       <c r="A29" s="181" t="s">
         <v>365</v>
       </c>
       <c r="B29" s="182"/>
-      <c r="C29" s="382" t="s">
+      <c r="C29" s="389" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="382"/>
-      <c r="E29" s="382"/>
-      <c r="F29" s="382"/>
-      <c r="G29" s="382"/>
-      <c r="H29" s="382"/>
-      <c r="I29" s="382"/>
-      <c r="J29" s="382"/>
+      <c r="D29" s="389"/>
+      <c r="E29" s="389"/>
+      <c r="F29" s="389"/>
+      <c r="G29" s="389"/>
+      <c r="H29" s="389"/>
+      <c r="I29" s="389"/>
+      <c r="J29" s="389"/>
     </row>
     <row r="30" spans="1:10" ht="11.25">
       <c r="A30" s="64"/>
@@ -13270,25 +13260,25 @@
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="B45" s="69"/>
-      <c r="C45" s="377"/>
-      <c r="D45" s="377"/>
-      <c r="E45" s="377"/>
-      <c r="F45" s="377"/>
-      <c r="G45" s="377"/>
-      <c r="H45" s="377"/>
-      <c r="I45" s="377"/>
+      <c r="C45" s="384"/>
+      <c r="D45" s="384"/>
+      <c r="E45" s="384"/>
+      <c r="F45" s="384"/>
+      <c r="G45" s="384"/>
+      <c r="H45" s="384"/>
+      <c r="I45" s="384"/>
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="72"/>
-      <c r="C46" s="377"/>
-      <c r="D46" s="377"/>
-      <c r="E46" s="377"/>
-      <c r="F46" s="377"/>
-      <c r="G46" s="377"/>
-      <c r="H46" s="377"/>
-      <c r="I46" s="377"/>
+      <c r="C46" s="384"/>
+      <c r="D46" s="384"/>
+      <c r="E46" s="384"/>
+      <c r="F46" s="384"/>
+      <c r="G46" s="384"/>
+      <c r="H46" s="384"/>
+      <c r="I46" s="384"/>
       <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
@@ -13320,48 +13310,48 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="69"/>
-      <c r="C49" s="375" t="s">
+      <c r="C49" s="382" t="s">
         <v>312</v>
       </c>
-      <c r="D49" s="375"/>
-      <c r="E49" s="375"/>
-      <c r="F49" s="375"/>
-      <c r="G49" s="375"/>
-      <c r="H49" s="375"/>
-      <c r="I49" s="375"/>
+      <c r="D49" s="382"/>
+      <c r="E49" s="382"/>
+      <c r="F49" s="382"/>
+      <c r="G49" s="382"/>
+      <c r="H49" s="382"/>
+      <c r="I49" s="382"/>
       <c r="J49" s="43"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="B50" s="69"/>
-      <c r="C50" s="375"/>
-      <c r="D50" s="375"/>
-      <c r="E50" s="375"/>
-      <c r="F50" s="375"/>
-      <c r="G50" s="375"/>
-      <c r="H50" s="375"/>
-      <c r="I50" s="375"/>
+      <c r="C50" s="382"/>
+      <c r="D50" s="382"/>
+      <c r="E50" s="382"/>
+      <c r="F50" s="382"/>
+      <c r="G50" s="382"/>
+      <c r="H50" s="382"/>
+      <c r="I50" s="382"/>
       <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1">
       <c r="B51" s="69"/>
-      <c r="C51" s="375"/>
-      <c r="D51" s="375"/>
-      <c r="E51" s="375"/>
-      <c r="F51" s="375"/>
-      <c r="G51" s="375"/>
-      <c r="H51" s="375"/>
-      <c r="I51" s="375"/>
+      <c r="C51" s="382"/>
+      <c r="D51" s="382"/>
+      <c r="E51" s="382"/>
+      <c r="F51" s="382"/>
+      <c r="G51" s="382"/>
+      <c r="H51" s="382"/>
+      <c r="I51" s="382"/>
       <c r="J51" s="43"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1">
       <c r="B52" s="69"/>
-      <c r="C52" s="375"/>
-      <c r="D52" s="375"/>
-      <c r="E52" s="375"/>
-      <c r="F52" s="375"/>
-      <c r="G52" s="375"/>
-      <c r="H52" s="375"/>
-      <c r="I52" s="375"/>
+      <c r="C52" s="382"/>
+      <c r="D52" s="382"/>
+      <c r="E52" s="382"/>
+      <c r="F52" s="382"/>
+      <c r="G52" s="382"/>
+      <c r="H52" s="382"/>
+      <c r="I52" s="382"/>
       <c r="J52" s="43"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1">
@@ -13379,15 +13369,15 @@
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1">
       <c r="B54" s="69"/>
-      <c r="C54" s="376" t="s">
+      <c r="C54" s="383" t="s">
         <v>313</v>
       </c>
-      <c r="D54" s="376"/>
-      <c r="E54" s="376"/>
-      <c r="F54" s="376"/>
-      <c r="G54" s="376"/>
-      <c r="H54" s="376"/>
-      <c r="I54" s="376"/>
+      <c r="D54" s="383"/>
+      <c r="E54" s="383"/>
+      <c r="F54" s="383"/>
+      <c r="G54" s="383"/>
+      <c r="H54" s="383"/>
+      <c r="I54" s="383"/>
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1">
@@ -13914,10 +13904,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="247"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -13948,8 +13938,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="267"/>
-      <c r="B2" s="267"/>
+      <c r="A2" s="247"/>
+      <c r="B2" s="247"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>

--- a/2018/SO/03_DetailDesign/SOF2000_Danh muc don hang.xlsx
+++ b/2018/SO/03_DetailDesign/SOF2000_Danh muc don hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$K$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$34</definedName>
@@ -1226,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="1" shapeId="0">
+    <comment ref="B24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="1" shapeId="0">
+    <comment ref="A27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="413">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3224,7 +3224,10 @@
     <t>Insert dữ liệu từ bảng AT1020 sang CRMT20001</t>
   </si>
   <si>
-    <t>Insert into CRMT20001 (ContractID, ContractNo, DivisionID,ContractDate,ObjectID,VoucherTypeID
+    <t xml:space="preserve">Thực thi @SQL009: Insert dữ liệu Hợp đồng từ bảng </t>
+  </si>
+  <si>
+    <t>Insert into CRMT2001 (ContractID, ContractNo, DivisionID,ContractDate,ObjectID,VoucherTypeID
 ,Notes,CreateDate,CreateUserID,LastModifyUserID,LastModifyDate,CurrencyID)
 Select A.ContractID, A.Contractno, A.DivisionID, A.SignDate, A.ObjectID, A.VoucherTypeID
 , A.Description, A.CreateDate, A.CreateUserID, A.LastModifyUserID, A.LastModifyDate,CurrencyID
@@ -3788,7 +3791,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4374,9 +4377,33 @@
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4422,23 +4449,80 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4446,9 +4530,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4458,78 +4539,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4626,63 +4635,207 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4700,150 +4853,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5854,65 +5863,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="230"/>
-      <c r="B1" s="230"/>
-      <c r="C1" s="232" t="s">
+      <c r="A1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="231" t="s">
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="239" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231" t="s">
+      <c r="H1" s="239"/>
+      <c r="I1" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="231"/>
+      <c r="J1" s="239"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="230"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="231" t="s">
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="239" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="230"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="227" t="s">
+      <c r="A3" s="238"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="235" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="228"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="228"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="236"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="100"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="229"/>
-      <c r="G13" s="229"/>
-      <c r="H13" s="229"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="229"/>
+      <c r="A13" s="237"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
       <c r="M13" s="101"/>
@@ -5923,56 +5932,56 @@
       <c r="R13" s="101"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="225"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="225"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225"/>
-      <c r="G14" s="225"/>
-      <c r="H14" s="225"/>
-      <c r="I14" s="225"/>
-      <c r="J14" s="225"/>
-      <c r="K14" s="225"/>
-      <c r="L14" s="225"/>
-      <c r="M14" s="225"/>
-      <c r="N14" s="225"/>
-      <c r="O14" s="225"/>
-      <c r="P14" s="225"/>
-      <c r="Q14" s="225"/>
-      <c r="R14" s="225"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="231"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="231"/>
+      <c r="L14" s="231"/>
+      <c r="M14" s="231"/>
+      <c r="N14" s="231"/>
+      <c r="O14" s="231"/>
+      <c r="P14" s="231"/>
+      <c r="Q14" s="231"/>
+      <c r="R14" s="231"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="225"/>
-      <c r="O15" s="225"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="225"/>
-      <c r="R15" s="225"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="231"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="231"/>
+      <c r="O15" s="231"/>
+      <c r="P15" s="231"/>
+      <c r="Q15" s="231"/>
+      <c r="R15" s="231"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="226" t="s">
+      <c r="A16" s="234" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="226"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
@@ -5983,384 +5992,384 @@
       <c r="R16" s="102"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="225"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="225"/>
-      <c r="H17" s="225"/>
-      <c r="I17" s="225"/>
-      <c r="J17" s="225"/>
-      <c r="K17" s="225"/>
-      <c r="L17" s="225"/>
-      <c r="M17" s="225"/>
-      <c r="N17" s="225"/>
-      <c r="O17" s="225"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="225"/>
-      <c r="R17" s="225"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="231"/>
+      <c r="N17" s="231"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="231"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="231"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="225"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="225"/>
-      <c r="I18" s="225"/>
-      <c r="J18" s="225"/>
-      <c r="K18" s="225"/>
-      <c r="L18" s="225"/>
-      <c r="M18" s="225"/>
-      <c r="N18" s="225"/>
-      <c r="O18" s="225"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="225"/>
-      <c r="R18" s="225"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="231"/>
+      <c r="N18" s="231"/>
+      <c r="O18" s="231"/>
+      <c r="P18" s="231"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="231"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="242"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="242"/>
-      <c r="M19" s="242"/>
-      <c r="N19" s="242"/>
-      <c r="O19" s="242"/>
-      <c r="P19" s="242"/>
-      <c r="Q19" s="242"/>
-      <c r="R19" s="242"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="225"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="225"/>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="225"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="225"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="231"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="225"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="225"/>
-      <c r="J21" s="225"/>
-      <c r="K21" s="225"/>
-      <c r="L21" s="225"/>
-      <c r="M21" s="225"/>
-      <c r="N21" s="225"/>
-      <c r="O21" s="225"/>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="225"/>
-      <c r="R21" s="225"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="231"/>
+      <c r="O21" s="231"/>
+      <c r="P21" s="231"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="231"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="241"/>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="241"/>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="241"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="232"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="232"/>
+      <c r="Q22" s="232"/>
+      <c r="R22" s="232"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="241"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="241"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="241"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="232"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="243"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="243"/>
-      <c r="I26" s="243"/>
-      <c r="J26" s="243"/>
-      <c r="K26" s="243"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="243"/>
-      <c r="N26" s="243"/>
-      <c r="O26" s="243"/>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="243"/>
-      <c r="R26" s="243"/>
+      <c r="B26" s="229"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="229"/>
+      <c r="K26" s="229"/>
+      <c r="L26" s="229"/>
+      <c r="M26" s="229"/>
+      <c r="N26" s="229"/>
+      <c r="O26" s="229"/>
+      <c r="P26" s="229"/>
+      <c r="Q26" s="229"/>
+      <c r="R26" s="229"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="245"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="245"/>
-      <c r="F28" s="245"/>
-      <c r="G28" s="245"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="245"/>
-      <c r="J28" s="245"/>
-      <c r="K28" s="245"/>
-      <c r="L28" s="245"/>
-      <c r="M28" s="245"/>
-      <c r="N28" s="245"/>
-      <c r="O28" s="245"/>
-      <c r="P28" s="245"/>
-      <c r="Q28" s="245"/>
-      <c r="R28" s="245"/>
-      <c r="S28" s="244"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="244"/>
-      <c r="V28" s="244"/>
-      <c r="W28" s="244"/>
-      <c r="X28" s="244"/>
-      <c r="Y28" s="244"/>
-      <c r="Z28" s="244"/>
-      <c r="AA28" s="244"/>
-      <c r="AB28" s="244"/>
-      <c r="AC28" s="244"/>
-      <c r="AD28" s="244"/>
-      <c r="AE28" s="244"/>
-      <c r="AF28" s="244"/>
-      <c r="AG28" s="244"/>
-      <c r="AH28" s="244"/>
-      <c r="AI28" s="244"/>
-      <c r="AJ28" s="244"/>
-      <c r="AK28" s="244"/>
-      <c r="AL28" s="244"/>
-      <c r="AM28" s="244"/>
-      <c r="AN28" s="244"/>
-      <c r="AO28" s="244"/>
-      <c r="AP28" s="244"/>
-      <c r="AQ28" s="244"/>
-      <c r="AR28" s="244"/>
-      <c r="AS28" s="244"/>
-      <c r="AT28" s="244"/>
-      <c r="AU28" s="244"/>
-      <c r="AV28" s="244"/>
-      <c r="AW28" s="244"/>
-      <c r="AX28" s="244"/>
-      <c r="AY28" s="244"/>
-      <c r="AZ28" s="244"/>
-      <c r="BA28" s="244"/>
-      <c r="BB28" s="244"/>
-      <c r="BC28" s="244"/>
-      <c r="BD28" s="244"/>
-      <c r="BE28" s="244"/>
-      <c r="BF28" s="244"/>
-      <c r="BG28" s="244"/>
-      <c r="BH28" s="244"/>
-      <c r="BI28" s="244"/>
-      <c r="BJ28" s="244"/>
-      <c r="BK28" s="244"/>
-      <c r="BL28" s="244"/>
-      <c r="BM28" s="244"/>
-      <c r="BN28" s="244"/>
-      <c r="BO28" s="244"/>
-      <c r="BP28" s="244"/>
-      <c r="BQ28" s="244"/>
-      <c r="BR28" s="244"/>
-      <c r="BS28" s="244"/>
-      <c r="BT28" s="244"/>
-      <c r="BU28" s="244"/>
-      <c r="BV28" s="244"/>
-      <c r="BW28" s="244"/>
-      <c r="BX28" s="244"/>
-      <c r="BY28" s="244"/>
-      <c r="BZ28" s="244"/>
-      <c r="CA28" s="244"/>
-      <c r="CB28" s="244"/>
-      <c r="CC28" s="244"/>
-      <c r="CD28" s="244"/>
-      <c r="CE28" s="244"/>
-      <c r="CF28" s="244"/>
-      <c r="CG28" s="244"/>
-      <c r="CH28" s="244"/>
-      <c r="CI28" s="244"/>
-      <c r="CJ28" s="244"/>
-      <c r="CK28" s="244"/>
-      <c r="CL28" s="244"/>
-      <c r="CM28" s="244"/>
-      <c r="CN28" s="244"/>
-      <c r="CO28" s="244"/>
-      <c r="CP28" s="244"/>
-      <c r="CQ28" s="244"/>
-      <c r="CR28" s="244"/>
-      <c r="CS28" s="244"/>
-      <c r="CT28" s="244"/>
-      <c r="CU28" s="244"/>
-      <c r="CV28" s="244"/>
-      <c r="CW28" s="244"/>
-      <c r="CX28" s="244"/>
-      <c r="CY28" s="244"/>
-      <c r="CZ28" s="244"/>
-      <c r="DA28" s="244"/>
-      <c r="DB28" s="244"/>
-      <c r="DC28" s="244"/>
-      <c r="DD28" s="244"/>
-      <c r="DE28" s="244"/>
-      <c r="DF28" s="244"/>
-      <c r="DG28" s="244"/>
-      <c r="DH28" s="244"/>
-      <c r="DI28" s="244"/>
-      <c r="DJ28" s="244"/>
-      <c r="DK28" s="244"/>
-      <c r="DL28" s="244"/>
-      <c r="DM28" s="244"/>
-      <c r="DN28" s="244"/>
-      <c r="DO28" s="244"/>
-      <c r="DP28" s="244"/>
-      <c r="DQ28" s="244"/>
-      <c r="DR28" s="244"/>
-      <c r="DS28" s="244"/>
-      <c r="DT28" s="244"/>
-      <c r="DU28" s="244"/>
-      <c r="DV28" s="244"/>
-      <c r="DW28" s="244"/>
-      <c r="DX28" s="244"/>
-      <c r="DY28" s="244"/>
-      <c r="DZ28" s="244"/>
-      <c r="EA28" s="244"/>
-      <c r="EB28" s="244"/>
-      <c r="EC28" s="244"/>
-      <c r="ED28" s="244"/>
-      <c r="EE28" s="244"/>
-      <c r="EF28" s="244"/>
-      <c r="EG28" s="244"/>
-      <c r="EH28" s="244"/>
-      <c r="EI28" s="244"/>
-      <c r="EJ28" s="244"/>
-      <c r="EK28" s="244"/>
-      <c r="EL28" s="244"/>
-      <c r="EM28" s="244"/>
-      <c r="EN28" s="244"/>
-      <c r="EO28" s="244"/>
-      <c r="EP28" s="244"/>
-      <c r="EQ28" s="244"/>
-      <c r="ER28" s="244"/>
-      <c r="ES28" s="244"/>
-      <c r="ET28" s="244"/>
-      <c r="EU28" s="244"/>
-      <c r="EV28" s="244"/>
-      <c r="EW28" s="244"/>
-      <c r="EX28" s="244"/>
-      <c r="EY28" s="244"/>
-      <c r="EZ28" s="244"/>
-      <c r="FA28" s="244"/>
-      <c r="FB28" s="244"/>
-      <c r="FC28" s="244"/>
-      <c r="FD28" s="244"/>
-      <c r="FE28" s="244"/>
-      <c r="FF28" s="244"/>
-      <c r="FG28" s="244"/>
-      <c r="FH28" s="244"/>
-      <c r="FI28" s="244"/>
-      <c r="FJ28" s="244"/>
-      <c r="FK28" s="244"/>
-      <c r="FL28" s="244"/>
-      <c r="FM28" s="244"/>
-      <c r="FN28" s="244"/>
-      <c r="FO28" s="244"/>
-      <c r="FP28" s="244"/>
-      <c r="FQ28" s="244"/>
-      <c r="FR28" s="244"/>
-      <c r="FS28" s="244"/>
-      <c r="FT28" s="244"/>
-      <c r="FU28" s="244"/>
-      <c r="FV28" s="244"/>
-      <c r="FW28" s="244"/>
-      <c r="FX28" s="244"/>
-      <c r="FY28" s="244"/>
-      <c r="FZ28" s="244"/>
-      <c r="GA28" s="244"/>
-      <c r="GB28" s="244"/>
-      <c r="GC28" s="244"/>
-      <c r="GD28" s="244"/>
-      <c r="GE28" s="244"/>
-      <c r="GF28" s="244"/>
-      <c r="GG28" s="244"/>
-      <c r="GH28" s="244"/>
-      <c r="GI28" s="244"/>
-      <c r="GJ28" s="244"/>
-      <c r="GK28" s="244"/>
-      <c r="GL28" s="244"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="230"/>
+      <c r="M28" s="230"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="230"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
+      <c r="R28" s="230"/>
+      <c r="S28" s="228"/>
+      <c r="T28" s="228"/>
+      <c r="U28" s="228"/>
+      <c r="V28" s="228"/>
+      <c r="W28" s="228"/>
+      <c r="X28" s="228"/>
+      <c r="Y28" s="228"/>
+      <c r="Z28" s="228"/>
+      <c r="AA28" s="228"/>
+      <c r="AB28" s="228"/>
+      <c r="AC28" s="228"/>
+      <c r="AD28" s="228"/>
+      <c r="AE28" s="228"/>
+      <c r="AF28" s="228"/>
+      <c r="AG28" s="228"/>
+      <c r="AH28" s="228"/>
+      <c r="AI28" s="228"/>
+      <c r="AJ28" s="228"/>
+      <c r="AK28" s="228"/>
+      <c r="AL28" s="228"/>
+      <c r="AM28" s="228"/>
+      <c r="AN28" s="228"/>
+      <c r="AO28" s="228"/>
+      <c r="AP28" s="228"/>
+      <c r="AQ28" s="228"/>
+      <c r="AR28" s="228"/>
+      <c r="AS28" s="228"/>
+      <c r="AT28" s="228"/>
+      <c r="AU28" s="228"/>
+      <c r="AV28" s="228"/>
+      <c r="AW28" s="228"/>
+      <c r="AX28" s="228"/>
+      <c r="AY28" s="228"/>
+      <c r="AZ28" s="228"/>
+      <c r="BA28" s="228"/>
+      <c r="BB28" s="228"/>
+      <c r="BC28" s="228"/>
+      <c r="BD28" s="228"/>
+      <c r="BE28" s="228"/>
+      <c r="BF28" s="228"/>
+      <c r="BG28" s="228"/>
+      <c r="BH28" s="228"/>
+      <c r="BI28" s="228"/>
+      <c r="BJ28" s="228"/>
+      <c r="BK28" s="228"/>
+      <c r="BL28" s="228"/>
+      <c r="BM28" s="228"/>
+      <c r="BN28" s="228"/>
+      <c r="BO28" s="228"/>
+      <c r="BP28" s="228"/>
+      <c r="BQ28" s="228"/>
+      <c r="BR28" s="228"/>
+      <c r="BS28" s="228"/>
+      <c r="BT28" s="228"/>
+      <c r="BU28" s="228"/>
+      <c r="BV28" s="228"/>
+      <c r="BW28" s="228"/>
+      <c r="BX28" s="228"/>
+      <c r="BY28" s="228"/>
+      <c r="BZ28" s="228"/>
+      <c r="CA28" s="228"/>
+      <c r="CB28" s="228"/>
+      <c r="CC28" s="228"/>
+      <c r="CD28" s="228"/>
+      <c r="CE28" s="228"/>
+      <c r="CF28" s="228"/>
+      <c r="CG28" s="228"/>
+      <c r="CH28" s="228"/>
+      <c r="CI28" s="228"/>
+      <c r="CJ28" s="228"/>
+      <c r="CK28" s="228"/>
+      <c r="CL28" s="228"/>
+      <c r="CM28" s="228"/>
+      <c r="CN28" s="228"/>
+      <c r="CO28" s="228"/>
+      <c r="CP28" s="228"/>
+      <c r="CQ28" s="228"/>
+      <c r="CR28" s="228"/>
+      <c r="CS28" s="228"/>
+      <c r="CT28" s="228"/>
+      <c r="CU28" s="228"/>
+      <c r="CV28" s="228"/>
+      <c r="CW28" s="228"/>
+      <c r="CX28" s="228"/>
+      <c r="CY28" s="228"/>
+      <c r="CZ28" s="228"/>
+      <c r="DA28" s="228"/>
+      <c r="DB28" s="228"/>
+      <c r="DC28" s="228"/>
+      <c r="DD28" s="228"/>
+      <c r="DE28" s="228"/>
+      <c r="DF28" s="228"/>
+      <c r="DG28" s="228"/>
+      <c r="DH28" s="228"/>
+      <c r="DI28" s="228"/>
+      <c r="DJ28" s="228"/>
+      <c r="DK28" s="228"/>
+      <c r="DL28" s="228"/>
+      <c r="DM28" s="228"/>
+      <c r="DN28" s="228"/>
+      <c r="DO28" s="228"/>
+      <c r="DP28" s="228"/>
+      <c r="DQ28" s="228"/>
+      <c r="DR28" s="228"/>
+      <c r="DS28" s="228"/>
+      <c r="DT28" s="228"/>
+      <c r="DU28" s="228"/>
+      <c r="DV28" s="228"/>
+      <c r="DW28" s="228"/>
+      <c r="DX28" s="228"/>
+      <c r="DY28" s="228"/>
+      <c r="DZ28" s="228"/>
+      <c r="EA28" s="228"/>
+      <c r="EB28" s="228"/>
+      <c r="EC28" s="228"/>
+      <c r="ED28" s="228"/>
+      <c r="EE28" s="228"/>
+      <c r="EF28" s="228"/>
+      <c r="EG28" s="228"/>
+      <c r="EH28" s="228"/>
+      <c r="EI28" s="228"/>
+      <c r="EJ28" s="228"/>
+      <c r="EK28" s="228"/>
+      <c r="EL28" s="228"/>
+      <c r="EM28" s="228"/>
+      <c r="EN28" s="228"/>
+      <c r="EO28" s="228"/>
+      <c r="EP28" s="228"/>
+      <c r="EQ28" s="228"/>
+      <c r="ER28" s="228"/>
+      <c r="ES28" s="228"/>
+      <c r="ET28" s="228"/>
+      <c r="EU28" s="228"/>
+      <c r="EV28" s="228"/>
+      <c r="EW28" s="228"/>
+      <c r="EX28" s="228"/>
+      <c r="EY28" s="228"/>
+      <c r="EZ28" s="228"/>
+      <c r="FA28" s="228"/>
+      <c r="FB28" s="228"/>
+      <c r="FC28" s="228"/>
+      <c r="FD28" s="228"/>
+      <c r="FE28" s="228"/>
+      <c r="FF28" s="228"/>
+      <c r="FG28" s="228"/>
+      <c r="FH28" s="228"/>
+      <c r="FI28" s="228"/>
+      <c r="FJ28" s="228"/>
+      <c r="FK28" s="228"/>
+      <c r="FL28" s="228"/>
+      <c r="FM28" s="228"/>
+      <c r="FN28" s="228"/>
+      <c r="FO28" s="228"/>
+      <c r="FP28" s="228"/>
+      <c r="FQ28" s="228"/>
+      <c r="FR28" s="228"/>
+      <c r="FS28" s="228"/>
+      <c r="FT28" s="228"/>
+      <c r="FU28" s="228"/>
+      <c r="FV28" s="228"/>
+      <c r="FW28" s="228"/>
+      <c r="FX28" s="228"/>
+      <c r="FY28" s="228"/>
+      <c r="FZ28" s="228"/>
+      <c r="GA28" s="228"/>
+      <c r="GB28" s="228"/>
+      <c r="GC28" s="228"/>
+      <c r="GD28" s="228"/>
+      <c r="GE28" s="228"/>
+      <c r="GF28" s="228"/>
+      <c r="GG28" s="228"/>
+      <c r="GH28" s="228"/>
+      <c r="GI28" s="228"/>
+      <c r="GJ28" s="228"/>
+      <c r="GK28" s="228"/>
+      <c r="GL28" s="228"/>
       <c r="GM28" s="103"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="243"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
-      <c r="I29" s="243"/>
-      <c r="J29" s="243"/>
-      <c r="K29" s="243"/>
-      <c r="L29" s="243"/>
-      <c r="M29" s="243"/>
-      <c r="N29" s="243"/>
-      <c r="O29" s="243"/>
-      <c r="P29" s="243"/>
-      <c r="Q29" s="243"/>
-      <c r="R29" s="243"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="229"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="229"/>
+      <c r="L29" s="229"/>
+      <c r="M29" s="229"/>
+      <c r="N29" s="229"/>
+      <c r="O29" s="229"/>
+      <c r="P29" s="229"/>
+      <c r="Q29" s="229"/>
+      <c r="R29" s="229"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="246"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="246"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
-      <c r="G30" s="246"/>
-      <c r="H30" s="246"/>
-      <c r="I30" s="246"/>
-      <c r="J30" s="246"/>
+      <c r="A30" s="227"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="227"/>
+      <c r="J30" s="227"/>
       <c r="K30" s="104"/>
       <c r="L30" s="104"/>
       <c r="M30" s="104"/>
@@ -6371,16 +6380,16 @@
       <c r="R30" s="104"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="246"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="246"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="246"/>
-      <c r="H31" s="246"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="246"/>
+      <c r="A31" s="227"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="227"/>
       <c r="K31" s="104"/>
       <c r="L31" s="104"/>
       <c r="M31" s="104"/>
@@ -6392,28 +6401,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -6427,6 +6414,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -6453,14 +6462,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="390" t="s">
+      <c r="B1" s="392" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="390"/>
-      <c r="F1" s="390"/>
-      <c r="G1" s="390"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -6653,11 +6662,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="391" t="s">
+      <c r="E27" s="393" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="392"/>
-      <c r="G27" s="393"/>
+      <c r="F27" s="394"/>
+      <c r="G27" s="395"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -7053,10 +7062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="247"/>
+      <c r="B1" s="274"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7083,8 +7092,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247"/>
+      <c r="A2" s="274"/>
+      <c r="B2" s="274"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7123,14 +7132,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="248"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="37">
@@ -7167,14 +7176,14 @@
       <c r="D6" s="137">
         <v>42473</v>
       </c>
-      <c r="E6" s="250" t="s">
+      <c r="E6" s="276" t="s">
         <v>332</v>
       </c>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="252"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="277"/>
+      <c r="H6" s="277"/>
+      <c r="I6" s="277"/>
+      <c r="J6" s="278"/>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1">
       <c r="A7" s="75">
@@ -7189,14 +7198,14 @@
       <c r="D7" s="160">
         <v>42697</v>
       </c>
-      <c r="E7" s="253" t="s">
+      <c r="E7" s="262" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="255"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="264"/>
     </row>
     <row r="8" spans="1:10" s="168" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="76">
@@ -7209,12 +7218,12 @@
         <v>331</v>
       </c>
       <c r="D8" s="167"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="258"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="266"/>
+      <c r="J8" s="267"/>
     </row>
     <row r="9" spans="1:10" s="173" customFormat="1" ht="92.25" customHeight="1">
       <c r="A9" s="169">
@@ -7229,14 +7238,14 @@
       <c r="D9" s="172" t="s">
         <v>360</v>
       </c>
-      <c r="E9" s="259" t="s">
+      <c r="E9" s="268" t="s">
         <v>366</v>
       </c>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="260"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="261"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="270"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="78">
@@ -7251,14 +7260,14 @@
       <c r="D10" s="185">
         <v>42864</v>
       </c>
-      <c r="E10" s="262" t="s">
+      <c r="E10" s="271" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="263"/>
-      <c r="G10" s="263"/>
-      <c r="H10" s="263"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="264"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="272"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="272"/>
+      <c r="J10" s="273"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="79">
@@ -7273,14 +7282,14 @@
       <c r="D11" s="188">
         <v>42880</v>
       </c>
-      <c r="E11" s="265" t="s">
+      <c r="E11" s="250" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="266"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="267"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="252"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80">
@@ -7295,14 +7304,14 @@
       <c r="D12" s="199">
         <v>43018</v>
       </c>
-      <c r="E12" s="268" t="s">
+      <c r="E12" s="253" t="s">
         <v>393</v>
       </c>
-      <c r="F12" s="269"/>
-      <c r="G12" s="269"/>
-      <c r="H12" s="269"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="270"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="255"/>
     </row>
     <row r="13" spans="1:10" s="209" customFormat="1" ht="12.75">
       <c r="A13" s="81">
@@ -7317,14 +7326,14 @@
       <c r="D13" s="208" t="s">
         <v>399</v>
       </c>
-      <c r="E13" s="274" t="s">
+      <c r="E13" s="259" t="s">
         <v>401</v>
       </c>
-      <c r="F13" s="275"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="275"/>
-      <c r="I13" s="275"/>
-      <c r="J13" s="276"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="261"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="82">
@@ -7335,12 +7344,12 @@
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="272"/>
-      <c r="G14" s="272"/>
-      <c r="H14" s="272"/>
-      <c r="I14" s="272"/>
-      <c r="J14" s="273"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="257"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="257"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="258"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -7664,11 +7673,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -7685,17 +7700,11 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -7740,10 +7749,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="247"/>
+      <c r="B1" s="274"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7773,8 +7782,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247"/>
+      <c r="A2" s="274"/>
+      <c r="B2" s="274"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7804,20 +7813,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="279" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="279"/>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="277" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="280"/>
+      <c r="I4" s="279" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="278"/>
+      <c r="J4" s="280"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="39"/>
@@ -7828,10 +7837,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="284" t="s">
+      <c r="I5" s="286" t="s">
         <v>242</v>
       </c>
-      <c r="J5" s="285"/>
+      <c r="J5" s="287"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -7842,8 +7851,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
+      <c r="I6" s="288"/>
+      <c r="J6" s="289"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -7854,8 +7863,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="287"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="289"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -7866,8 +7875,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="287"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="289"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -7878,8 +7887,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="287"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="289"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -7890,8 +7899,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="289"/>
+      <c r="I10" s="290"/>
+      <c r="J10" s="291"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -7902,10 +7911,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="277" t="s">
+      <c r="I11" s="279" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="278"/>
+      <c r="J11" s="280"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -7916,10 +7925,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="280" t="s">
+      <c r="I12" s="282" t="s">
         <v>400</v>
       </c>
-      <c r="J12" s="281"/>
+      <c r="J12" s="283"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -7930,8 +7939,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="282"/>
-      <c r="J13" s="283"/>
+      <c r="I13" s="284"/>
+      <c r="J13" s="285"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -7942,8 +7951,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="282"/>
-      <c r="J14" s="283"/>
+      <c r="I14" s="284"/>
+      <c r="J14" s="285"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -7954,8 +7963,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="282"/>
-      <c r="J15" s="283"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="285"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -7966,8 +7975,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="282"/>
-      <c r="J16" s="283"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="285"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -7978,8 +7987,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="282"/>
-      <c r="J17" s="283"/>
+      <c r="I17" s="284"/>
+      <c r="J17" s="285"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -7990,8 +7999,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="282"/>
-      <c r="J18" s="283"/>
+      <c r="I18" s="284"/>
+      <c r="J18" s="285"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -8002,8 +8011,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="283"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="285"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -8014,8 +8023,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="282"/>
-      <c r="J20" s="283"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="285"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -8026,8 +8035,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="282"/>
-      <c r="J21" s="283"/>
+      <c r="I21" s="284"/>
+      <c r="J21" s="285"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -8038,8 +8047,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="282"/>
-      <c r="J22" s="283"/>
+      <c r="I22" s="284"/>
+      <c r="J22" s="285"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -8050,8 +8059,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="282"/>
-      <c r="J23" s="283"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="285"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -8062,8 +8071,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="283"/>
+      <c r="I24" s="284"/>
+      <c r="J24" s="285"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -8074,8 +8083,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="282"/>
-      <c r="J25" s="283"/>
+      <c r="I25" s="284"/>
+      <c r="J25" s="285"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -8086,8 +8095,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="283"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="285"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -8098,8 +8107,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="282"/>
-      <c r="J27" s="283"/>
+      <c r="I27" s="284"/>
+      <c r="J27" s="285"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -8110,8 +8119,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="282"/>
-      <c r="J28" s="283"/>
+      <c r="I28" s="284"/>
+      <c r="J28" s="285"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -8122,8 +8131,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="282"/>
-      <c r="J29" s="283"/>
+      <c r="I29" s="284"/>
+      <c r="J29" s="285"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -8134,8 +8143,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="282"/>
-      <c r="J30" s="283"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="285"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -8146,8 +8155,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="282"/>
-      <c r="J31" s="283"/>
+      <c r="I31" s="284"/>
+      <c r="J31" s="285"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -8158,8 +8167,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="282"/>
-      <c r="J32" s="283"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="285"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -8170,8 +8179,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="283"/>
+      <c r="I33" s="284"/>
+      <c r="J33" s="285"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -8182,8 +8191,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="282"/>
-      <c r="J34" s="283"/>
+      <c r="I34" s="284"/>
+      <c r="J34" s="285"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -8194,8 +8203,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="282"/>
-      <c r="J35" s="283"/>
+      <c r="I35" s="284"/>
+      <c r="J35" s="285"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -8206,8 +8215,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="283"/>
+      <c r="I36" s="284"/>
+      <c r="J36" s="285"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -8218,8 +8227,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="282"/>
-      <c r="J37" s="283"/>
+      <c r="I37" s="284"/>
+      <c r="J37" s="285"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -8230,8 +8239,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="282"/>
-      <c r="J38" s="283"/>
+      <c r="I38" s="284"/>
+      <c r="J38" s="285"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -8242,8 +8251,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="282"/>
-      <c r="J39" s="283"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="285"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="39"/>
@@ -8254,8 +8263,8 @@
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="42"/>
-      <c r="I40" s="282"/>
-      <c r="J40" s="283"/>
+      <c r="I40" s="284"/>
+      <c r="J40" s="285"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="39"/>
@@ -8266,8 +8275,8 @@
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="282"/>
-      <c r="J41" s="283"/>
+      <c r="I41" s="284"/>
+      <c r="J41" s="285"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="39"/>
@@ -8278,8 +8287,8 @@
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="42"/>
-      <c r="I42" s="282"/>
-      <c r="J42" s="283"/>
+      <c r="I42" s="284"/>
+      <c r="J42" s="285"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8306,7 +8315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="O41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -8335,13 +8344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -8349,16 +8358,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="290" t="s">
+      <c r="H1" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="291"/>
-      <c r="J1" s="292" t="str">
+      <c r="I1" s="293"/>
+      <c r="J1" s="294" t="str">
         <f>'Update History'!F1</f>
         <v>SOF2000</v>
       </c>
-      <c r="K1" s="293"/>
-      <c r="L1" s="294"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="296"/>
       <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
@@ -8375,11 +8384,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
+      <c r="A2" s="274"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
@@ -8387,16 +8396,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-SO</v>
       </c>
-      <c r="H2" s="290" t="s">
+      <c r="H2" s="292" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="291"/>
-      <c r="J2" s="292" t="str">
+      <c r="I2" s="293"/>
+      <c r="J2" s="294" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục đơn hàng</v>
       </c>
-      <c r="K2" s="293"/>
-      <c r="L2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="296"/>
       <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
@@ -10907,7 +10916,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="305" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="107"/>
@@ -10943,7 +10952,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="304"/>
+      <c r="A2" s="306"/>
       <c r="B2" s="108"/>
       <c r="C2" s="157"/>
       <c r="D2" s="30" t="s">
@@ -10995,15 +11004,15 @@
       <c r="F4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="247" t="s">
+      <c r="G4" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247" t="s">
+      <c r="H4" s="274"/>
+      <c r="I4" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="247"/>
-      <c r="K4" s="247"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
     </row>
     <row r="5" spans="1:12" s="120" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="117">
@@ -11020,13 +11029,13 @@
       <c r="F5" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="298" t="s">
+      <c r="G5" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="305"/>
-      <c r="I5" s="305"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="298" t="s">
+      <c r="H5" s="307"/>
+      <c r="I5" s="307"/>
+      <c r="J5" s="308"/>
+      <c r="K5" s="300" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11045,11 +11054,11 @@
       <c r="F6" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="299"/>
-      <c r="H6" s="307"/>
-      <c r="I6" s="307"/>
-      <c r="J6" s="308"/>
-      <c r="K6" s="299"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
+      <c r="J6" s="310"/>
+      <c r="K6" s="301"/>
     </row>
     <row r="7" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A7" s="117">
@@ -11066,12 +11075,12 @@
       <c r="F7" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="300" t="s">
+      <c r="G7" s="302" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="302"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="304"/>
       <c r="K7" s="119" t="s">
         <v>195</v>
       </c>
@@ -11093,12 +11102,12 @@
       <c r="F8" s="178" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="295" t="s">
+      <c r="G8" s="297" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="296"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="297"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="298"/>
+      <c r="J8" s="299"/>
       <c r="K8" s="179" t="s">
         <v>292</v>
       </c>
@@ -11130,9 +11139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048242"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11161,24 +11170,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="375" t="str">
+      <c r="J1" s="335" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="375"/>
+      <c r="K1" s="335"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -11196,32 +11205,32 @@
       <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="372" t="str">
+      <c r="Q1" s="336" t="str">
         <f>'Update History'!J1</f>
         <v>Hoàng vũ</v>
       </c>
-      <c r="R1" s="373"/>
-      <c r="S1" s="374"/>
+      <c r="R1" s="337"/>
+      <c r="S1" s="338"/>
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
+      <c r="A2" s="274"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
       <c r="I2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="375" t="str">
+      <c r="J2" s="335" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-SO</v>
       </c>
-      <c r="K2" s="375"/>
+      <c r="K2" s="335"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -11239,12 +11248,12 @@
       <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="372">
+      <c r="Q2" s="336">
         <f>'Update History'!J2</f>
         <v>42347</v>
       </c>
-      <c r="R2" s="373"/>
-      <c r="S2" s="374"/>
+      <c r="R2" s="337"/>
+      <c r="S2" s="338"/>
       <c r="T2" s="47"/>
       <c r="U2" s="47"/>
     </row>
@@ -11279,12 +11288,12 @@
       <c r="J4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="277" t="s">
+      <c r="K4" s="279" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="279"/>
-      <c r="M4" s="279"/>
-      <c r="N4" s="278"/>
+      <c r="L4" s="281"/>
+      <c r="M4" s="281"/>
+      <c r="N4" s="280"/>
       <c r="O4" s="36" t="s">
         <v>56</v>
       </c>
@@ -11312,37 +11321,37 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="368" t="s">
+      <c r="G5" s="325" t="s">
         <v>301</v>
       </c>
-      <c r="H5" s="368" t="s">
+      <c r="H5" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="368" t="s">
+      <c r="I5" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="334" t="s">
+      <c r="J5" s="328" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="313" t="s">
+      <c r="K5" s="329" t="s">
         <v>303</v>
       </c>
-      <c r="L5" s="314"/>
-      <c r="M5" s="314"/>
-      <c r="N5" s="315"/>
-      <c r="O5" s="321" t="s">
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="320" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="321" t="s">
+      <c r="P5" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" s="323" t="s">
+      <c r="Q5" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R5" s="324" t="s">
+      <c r="R5" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S5" s="311" t="s">
+      <c r="S5" s="318" t="s">
         <v>304</v>
       </c>
       <c r="T5" s="57"/>
@@ -11359,19 +11368,19 @@
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="369"/>
-      <c r="H6" s="335"/>
-      <c r="I6" s="335"/>
-      <c r="J6" s="335"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="317"/>
-      <c r="N6" s="318"/>
-      <c r="O6" s="322"/>
-      <c r="P6" s="322"/>
-      <c r="Q6" s="322"/>
-      <c r="R6" s="325"/>
-      <c r="S6" s="312"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="327"/>
+      <c r="I6" s="327"/>
+      <c r="J6" s="327"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="333"/>
+      <c r="N6" s="334"/>
+      <c r="O6" s="321"/>
+      <c r="P6" s="321"/>
+      <c r="Q6" s="321"/>
+      <c r="R6" s="324"/>
+      <c r="S6" s="319"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
     </row>
@@ -11386,37 +11395,37 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="368" t="s">
+      <c r="G7" s="325" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="368" t="s">
+      <c r="H7" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="368" t="s">
+      <c r="I7" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="334" t="s">
+      <c r="J7" s="328" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="313" t="s">
+      <c r="K7" s="329" t="s">
         <v>296</v>
       </c>
-      <c r="L7" s="314"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="315"/>
-      <c r="O7" s="321" t="s">
+      <c r="L7" s="330"/>
+      <c r="M7" s="330"/>
+      <c r="N7" s="331"/>
+      <c r="O7" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="P7" s="321" t="s">
+      <c r="P7" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="Q7" s="323" t="s">
+      <c r="Q7" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R7" s="324" t="s">
+      <c r="R7" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S7" s="311" t="s">
+      <c r="S7" s="318" t="s">
         <v>300</v>
       </c>
       <c r="T7" s="57"/>
@@ -11433,19 +11442,19 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="369"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="318"/>
-      <c r="O8" s="322"/>
-      <c r="P8" s="322"/>
-      <c r="Q8" s="322"/>
-      <c r="R8" s="325"/>
-      <c r="S8" s="312"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="327"/>
+      <c r="J8" s="327"/>
+      <c r="K8" s="332"/>
+      <c r="L8" s="333"/>
+      <c r="M8" s="333"/>
+      <c r="N8" s="334"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="321"/>
+      <c r="Q8" s="321"/>
+      <c r="R8" s="324"/>
+      <c r="S8" s="319"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
     </row>
@@ -11460,37 +11469,37 @@
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
-      <c r="G9" s="368" t="s">
+      <c r="G9" s="325" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="368" t="s">
+      <c r="H9" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I9" s="368" t="s">
+      <c r="I9" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="334" t="s">
+      <c r="J9" s="328" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="313" t="s">
+      <c r="K9" s="329" t="s">
         <v>226</v>
       </c>
-      <c r="L9" s="314"/>
-      <c r="M9" s="314"/>
-      <c r="N9" s="315"/>
-      <c r="O9" s="319" t="s">
+      <c r="L9" s="330"/>
+      <c r="M9" s="330"/>
+      <c r="N9" s="331"/>
+      <c r="O9" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="P9" s="321" t="s">
+      <c r="P9" s="320" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" s="323" t="s">
+      <c r="Q9" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R9" s="324" t="s">
+      <c r="R9" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S9" s="311" t="s">
+      <c r="S9" s="318" t="s">
         <v>300</v>
       </c>
       <c r="T9" s="57"/>
@@ -11507,19 +11516,19 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="369"/>
-      <c r="H10" s="335"/>
-      <c r="I10" s="335"/>
-      <c r="J10" s="335"/>
-      <c r="K10" s="316"/>
-      <c r="L10" s="317"/>
-      <c r="M10" s="317"/>
-      <c r="N10" s="318"/>
-      <c r="O10" s="320"/>
-      <c r="P10" s="322"/>
-      <c r="Q10" s="322"/>
-      <c r="R10" s="325"/>
-      <c r="S10" s="312"/>
+      <c r="G10" s="326"/>
+      <c r="H10" s="327"/>
+      <c r="I10" s="327"/>
+      <c r="J10" s="327"/>
+      <c r="K10" s="332"/>
+      <c r="L10" s="333"/>
+      <c r="M10" s="333"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="341"/>
+      <c r="P10" s="321"/>
+      <c r="Q10" s="321"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="319"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
     </row>
@@ -11534,37 +11543,37 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
-      <c r="G11" s="368" t="s">
+      <c r="G11" s="325" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="368" t="s">
+      <c r="H11" s="325" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="368" t="s">
+      <c r="I11" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="334" t="s">
+      <c r="J11" s="328" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="313" t="s">
+      <c r="K11" s="329" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="314"/>
-      <c r="M11" s="314"/>
-      <c r="N11" s="315"/>
-      <c r="O11" s="319" t="s">
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="321" t="s">
+      <c r="P11" s="320" t="s">
         <v>299</v>
       </c>
-      <c r="Q11" s="323" t="s">
+      <c r="Q11" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R11" s="324" t="s">
+      <c r="R11" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="S11" s="311" t="s">
+      <c r="S11" s="318" t="s">
         <v>300</v>
       </c>
       <c r="T11" s="57"/>
@@ -11581,19 +11590,19 @@
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="31"/>
-      <c r="G12" s="369"/>
-      <c r="H12" s="335"/>
-      <c r="I12" s="335"/>
-      <c r="J12" s="335"/>
-      <c r="K12" s="316"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="317"/>
-      <c r="N12" s="318"/>
-      <c r="O12" s="320"/>
-      <c r="P12" s="322"/>
-      <c r="Q12" s="322"/>
-      <c r="R12" s="325"/>
-      <c r="S12" s="312"/>
+      <c r="G12" s="326"/>
+      <c r="H12" s="327"/>
+      <c r="I12" s="327"/>
+      <c r="J12" s="327"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="333"/>
+      <c r="M12" s="333"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="341"/>
+      <c r="P12" s="321"/>
+      <c r="Q12" s="321"/>
+      <c r="R12" s="324"/>
+      <c r="S12" s="319"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
     </row>
@@ -11608,37 +11617,37 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="368" t="s">
+      <c r="G13" s="325" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="370" t="s">
+      <c r="H13" s="339" t="s">
         <v>196</v>
       </c>
-      <c r="I13" s="370" t="s">
+      <c r="I13" s="339" t="s">
         <v>197</v>
       </c>
-      <c r="J13" s="334" t="s">
+      <c r="J13" s="328" t="s">
         <v>302</v>
       </c>
-      <c r="K13" s="371" t="s">
+      <c r="K13" s="340" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="320"/>
-      <c r="M13" s="320"/>
-      <c r="N13" s="320"/>
-      <c r="O13" s="319" t="s">
+      <c r="L13" s="341"/>
+      <c r="M13" s="341"/>
+      <c r="N13" s="341"/>
+      <c r="O13" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="P13" s="323" t="s">
+      <c r="P13" s="322" t="s">
         <v>222</v>
       </c>
-      <c r="Q13" s="323" t="s">
+      <c r="Q13" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="R13" s="345" t="s">
+      <c r="R13" s="373" t="s">
         <v>198</v>
       </c>
-      <c r="S13" s="311" t="s">
+      <c r="S13" s="318" t="s">
         <v>300</v>
       </c>
       <c r="T13" s="57"/>
@@ -11655,19 +11664,19 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="369"/>
-      <c r="H14" s="370"/>
-      <c r="I14" s="370"/>
-      <c r="J14" s="335"/>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
-      <c r="M14" s="320"/>
-      <c r="N14" s="320"/>
-      <c r="O14" s="320"/>
-      <c r="P14" s="322"/>
-      <c r="Q14" s="322"/>
-      <c r="R14" s="346"/>
-      <c r="S14" s="312"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="339"/>
+      <c r="I14" s="339"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="341"/>
+      <c r="L14" s="341"/>
+      <c r="M14" s="341"/>
+      <c r="N14" s="341"/>
+      <c r="O14" s="341"/>
+      <c r="P14" s="321"/>
+      <c r="Q14" s="321"/>
+      <c r="R14" s="374"/>
+      <c r="S14" s="319"/>
       <c r="T14" s="57"/>
       <c r="U14" s="57"/>
     </row>
@@ -11682,37 +11691,37 @@
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="357" t="s">
+      <c r="G15" s="342" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="357" t="s">
+      <c r="H15" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="357" t="s">
+      <c r="I15" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="J15" s="360" t="s">
+      <c r="J15" s="345" t="s">
         <v>310</v>
       </c>
-      <c r="K15" s="362" t="s">
+      <c r="K15" s="347" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="363"/>
-      <c r="M15" s="363"/>
-      <c r="N15" s="364"/>
+      <c r="L15" s="348"/>
+      <c r="M15" s="348"/>
+      <c r="N15" s="349"/>
       <c r="O15" s="121" t="s">
         <v>134</v>
       </c>
       <c r="P15" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="Q15" s="343" t="s">
+      <c r="Q15" s="370" t="s">
         <v>216</v>
       </c>
-      <c r="R15" s="336" t="s">
+      <c r="R15" s="364" t="s">
         <v>205</v>
       </c>
-      <c r="S15" s="338" t="s">
+      <c r="S15" s="366" t="s">
         <v>362</v>
       </c>
       <c r="T15" s="57"/>
@@ -11729,23 +11738,23 @@
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="358"/>
-      <c r="H16" s="359"/>
-      <c r="I16" s="359"/>
-      <c r="J16" s="361"/>
-      <c r="K16" s="365"/>
-      <c r="L16" s="366"/>
-      <c r="M16" s="366"/>
-      <c r="N16" s="367"/>
+      <c r="G16" s="343"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="344"/>
+      <c r="J16" s="346"/>
+      <c r="K16" s="350"/>
+      <c r="L16" s="351"/>
+      <c r="M16" s="351"/>
+      <c r="N16" s="352"/>
       <c r="O16" s="121" t="s">
         <v>202</v>
       </c>
       <c r="P16" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="Q16" s="344"/>
-      <c r="R16" s="337"/>
-      <c r="S16" s="339"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="365"/>
+      <c r="S16" s="367"/>
       <c r="T16" s="57"/>
       <c r="U16" s="57"/>
     </row>
@@ -11760,23 +11769,23 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="358"/>
-      <c r="H17" s="359"/>
-      <c r="I17" s="359"/>
-      <c r="J17" s="361"/>
-      <c r="K17" s="365"/>
-      <c r="L17" s="366"/>
-      <c r="M17" s="366"/>
-      <c r="N17" s="367"/>
+      <c r="G17" s="343"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="346"/>
+      <c r="K17" s="350"/>
+      <c r="L17" s="351"/>
+      <c r="M17" s="351"/>
+      <c r="N17" s="352"/>
       <c r="O17" s="121" t="s">
         <v>315</v>
       </c>
       <c r="P17" s="121" t="s">
         <v>315</v>
       </c>
-      <c r="Q17" s="344"/>
-      <c r="R17" s="337"/>
-      <c r="S17" s="339"/>
+      <c r="Q17" s="371"/>
+      <c r="R17" s="365"/>
+      <c r="S17" s="367"/>
       <c r="T17" s="57"/>
       <c r="U17" s="57"/>
     </row>
@@ -11791,23 +11800,23 @@
       <c r="D18" s="32"/>
       <c r="E18" s="63"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="359"/>
-      <c r="I18" s="359"/>
-      <c r="J18" s="361"/>
-      <c r="K18" s="365"/>
-      <c r="L18" s="366"/>
-      <c r="M18" s="366"/>
-      <c r="N18" s="367"/>
+      <c r="G18" s="343"/>
+      <c r="H18" s="344"/>
+      <c r="I18" s="344"/>
+      <c r="J18" s="346"/>
+      <c r="K18" s="350"/>
+      <c r="L18" s="351"/>
+      <c r="M18" s="351"/>
+      <c r="N18" s="352"/>
       <c r="O18" s="121" t="s">
         <v>233</v>
       </c>
       <c r="P18" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="Q18" s="344"/>
-      <c r="R18" s="337"/>
-      <c r="S18" s="339"/>
+      <c r="Q18" s="371"/>
+      <c r="R18" s="365"/>
+      <c r="S18" s="367"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
     </row>
@@ -11822,23 +11831,23 @@
       <c r="D19" s="32"/>
       <c r="E19" s="126"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="358"/>
-      <c r="H19" s="359"/>
-      <c r="I19" s="359"/>
-      <c r="J19" s="361"/>
-      <c r="K19" s="365"/>
-      <c r="L19" s="366"/>
-      <c r="M19" s="366"/>
-      <c r="N19" s="367"/>
+      <c r="G19" s="343"/>
+      <c r="H19" s="344"/>
+      <c r="I19" s="344"/>
+      <c r="J19" s="346"/>
+      <c r="K19" s="350"/>
+      <c r="L19" s="351"/>
+      <c r="M19" s="351"/>
+      <c r="N19" s="352"/>
       <c r="O19" s="121" t="s">
         <v>234</v>
       </c>
       <c r="P19" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="Q19" s="344"/>
-      <c r="R19" s="337"/>
-      <c r="S19" s="339"/>
+      <c r="Q19" s="371"/>
+      <c r="R19" s="365"/>
+      <c r="S19" s="367"/>
       <c r="T19" s="57"/>
       <c r="U19" s="57"/>
     </row>
@@ -11853,23 +11862,23 @@
       <c r="D20" s="32"/>
       <c r="E20" s="133"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="358"/>
-      <c r="H20" s="359"/>
-      <c r="I20" s="359"/>
-      <c r="J20" s="361"/>
-      <c r="K20" s="365"/>
-      <c r="L20" s="366"/>
-      <c r="M20" s="366"/>
-      <c r="N20" s="367"/>
+      <c r="G20" s="343"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="344"/>
+      <c r="J20" s="346"/>
+      <c r="K20" s="350"/>
+      <c r="L20" s="351"/>
+      <c r="M20" s="351"/>
+      <c r="N20" s="352"/>
       <c r="O20" s="121" t="s">
         <v>316</v>
       </c>
       <c r="P20" s="121" t="s">
         <v>316</v>
       </c>
-      <c r="Q20" s="344"/>
-      <c r="R20" s="337"/>
-      <c r="S20" s="339"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="365"/>
+      <c r="S20" s="367"/>
       <c r="T20" s="57"/>
       <c r="U20" s="57"/>
     </row>
@@ -11884,27 +11893,27 @@
       <c r="D21" s="32"/>
       <c r="E21" s="133"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="361"/>
-      <c r="K21" s="365"/>
-      <c r="L21" s="366"/>
-      <c r="M21" s="366"/>
-      <c r="N21" s="367"/>
+      <c r="G21" s="343"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="344"/>
+      <c r="J21" s="346"/>
+      <c r="K21" s="350"/>
+      <c r="L21" s="351"/>
+      <c r="M21" s="351"/>
+      <c r="N21" s="352"/>
       <c r="O21" s="121" t="s">
         <v>235</v>
       </c>
       <c r="P21" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="Q21" s="344"/>
-      <c r="R21" s="337"/>
-      <c r="S21" s="339"/>
+      <c r="Q21" s="371"/>
+      <c r="R21" s="365"/>
+      <c r="S21" s="367"/>
       <c r="T21" s="57"/>
       <c r="U21" s="57"/>
     </row>
-    <row r="22" spans="1:21" s="33" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:21" s="33" customFormat="1" ht="21">
       <c r="A22" s="32">
         <v>1</v>
       </c>
@@ -11915,23 +11924,23 @@
       <c r="D22" s="32"/>
       <c r="E22" s="126"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="358"/>
-      <c r="H22" s="359"/>
-      <c r="I22" s="359"/>
-      <c r="J22" s="361"/>
-      <c r="K22" s="365"/>
-      <c r="L22" s="366"/>
-      <c r="M22" s="366"/>
-      <c r="N22" s="367"/>
+      <c r="G22" s="343"/>
+      <c r="H22" s="344"/>
+      <c r="I22" s="344"/>
+      <c r="J22" s="346"/>
+      <c r="K22" s="350"/>
+      <c r="L22" s="351"/>
+      <c r="M22" s="351"/>
+      <c r="N22" s="352"/>
       <c r="O22" s="121" t="s">
         <v>317</v>
       </c>
       <c r="P22" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="Q22" s="344"/>
-      <c r="R22" s="337"/>
-      <c r="S22" s="339"/>
+      <c r="Q22" s="371"/>
+      <c r="R22" s="365"/>
+      <c r="S22" s="367"/>
       <c r="T22" s="57"/>
       <c r="U22" s="57"/>
     </row>
@@ -11946,23 +11955,23 @@
       <c r="D23" s="32"/>
       <c r="E23" s="126"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="358"/>
-      <c r="H23" s="359"/>
-      <c r="I23" s="359"/>
-      <c r="J23" s="361"/>
-      <c r="K23" s="365"/>
-      <c r="L23" s="366"/>
-      <c r="M23" s="366"/>
-      <c r="N23" s="367"/>
+      <c r="G23" s="343"/>
+      <c r="H23" s="344"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="346"/>
+      <c r="K23" s="350"/>
+      <c r="L23" s="351"/>
+      <c r="M23" s="351"/>
+      <c r="N23" s="352"/>
       <c r="O23" s="121" t="s">
         <v>318</v>
       </c>
       <c r="P23" s="121" t="s">
         <v>318</v>
       </c>
-      <c r="Q23" s="344"/>
-      <c r="R23" s="337"/>
-      <c r="S23" s="339"/>
+      <c r="Q23" s="371"/>
+      <c r="R23" s="365"/>
+      <c r="S23" s="367"/>
       <c r="T23" s="57"/>
       <c r="U23" s="57"/>
     </row>
@@ -11977,23 +11986,23 @@
       <c r="D24" s="32"/>
       <c r="E24" s="126"/>
       <c r="F24" s="31"/>
-      <c r="G24" s="358"/>
-      <c r="H24" s="359"/>
-      <c r="I24" s="359"/>
-      <c r="J24" s="361"/>
-      <c r="K24" s="365"/>
-      <c r="L24" s="366"/>
-      <c r="M24" s="366"/>
-      <c r="N24" s="367"/>
+      <c r="G24" s="343"/>
+      <c r="H24" s="344"/>
+      <c r="I24" s="344"/>
+      <c r="J24" s="346"/>
+      <c r="K24" s="350"/>
+      <c r="L24" s="351"/>
+      <c r="M24" s="351"/>
+      <c r="N24" s="352"/>
       <c r="O24" s="121" t="s">
         <v>319</v>
       </c>
       <c r="P24" s="121" t="s">
         <v>319</v>
       </c>
-      <c r="Q24" s="344"/>
-      <c r="R24" s="337"/>
-      <c r="S24" s="339"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="365"/>
+      <c r="S24" s="367"/>
       <c r="T24" s="57"/>
       <c r="U24" s="57"/>
     </row>
@@ -12008,23 +12017,23 @@
       <c r="D25" s="32"/>
       <c r="E25" s="126"/>
       <c r="F25" s="31"/>
-      <c r="G25" s="358"/>
-      <c r="H25" s="359"/>
-      <c r="I25" s="359"/>
-      <c r="J25" s="361"/>
-      <c r="K25" s="365"/>
-      <c r="L25" s="366"/>
-      <c r="M25" s="366"/>
-      <c r="N25" s="367"/>
+      <c r="G25" s="343"/>
+      <c r="H25" s="344"/>
+      <c r="I25" s="344"/>
+      <c r="J25" s="346"/>
+      <c r="K25" s="350"/>
+      <c r="L25" s="351"/>
+      <c r="M25" s="351"/>
+      <c r="N25" s="352"/>
       <c r="O25" s="121" t="s">
         <v>320</v>
       </c>
       <c r="P25" s="121" t="s">
         <v>320</v>
       </c>
-      <c r="Q25" s="344"/>
-      <c r="R25" s="337"/>
-      <c r="S25" s="339"/>
+      <c r="Q25" s="371"/>
+      <c r="R25" s="365"/>
+      <c r="S25" s="367"/>
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
     </row>
@@ -12039,23 +12048,23 @@
       <c r="D26" s="32"/>
       <c r="E26" s="126"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="358"/>
-      <c r="H26" s="359"/>
-      <c r="I26" s="359"/>
-      <c r="J26" s="361"/>
-      <c r="K26" s="365"/>
-      <c r="L26" s="366"/>
-      <c r="M26" s="366"/>
-      <c r="N26" s="367"/>
+      <c r="G26" s="343"/>
+      <c r="H26" s="344"/>
+      <c r="I26" s="344"/>
+      <c r="J26" s="346"/>
+      <c r="K26" s="350"/>
+      <c r="L26" s="351"/>
+      <c r="M26" s="351"/>
+      <c r="N26" s="352"/>
       <c r="O26" s="121" t="s">
         <v>322</v>
       </c>
       <c r="P26" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="Q26" s="344"/>
-      <c r="R26" s="337"/>
-      <c r="S26" s="339"/>
+      <c r="Q26" s="371"/>
+      <c r="R26" s="365"/>
+      <c r="S26" s="367"/>
       <c r="T26" s="57"/>
       <c r="U26" s="57"/>
     </row>
@@ -12070,23 +12079,23 @@
       <c r="D27" s="32"/>
       <c r="E27" s="126"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="358"/>
-      <c r="H27" s="359"/>
-      <c r="I27" s="359"/>
-      <c r="J27" s="361"/>
-      <c r="K27" s="365"/>
-      <c r="L27" s="366"/>
-      <c r="M27" s="366"/>
-      <c r="N27" s="367"/>
+      <c r="G27" s="343"/>
+      <c r="H27" s="344"/>
+      <c r="I27" s="344"/>
+      <c r="J27" s="346"/>
+      <c r="K27" s="350"/>
+      <c r="L27" s="351"/>
+      <c r="M27" s="351"/>
+      <c r="N27" s="352"/>
       <c r="O27" s="121" t="s">
         <v>321</v>
       </c>
       <c r="P27" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="Q27" s="344"/>
-      <c r="R27" s="337"/>
-      <c r="S27" s="339"/>
+      <c r="Q27" s="371"/>
+      <c r="R27" s="365"/>
+      <c r="S27" s="367"/>
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
     </row>
@@ -12101,23 +12110,23 @@
       <c r="D28" s="32"/>
       <c r="E28" s="126"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="358"/>
-      <c r="H28" s="359"/>
-      <c r="I28" s="359"/>
-      <c r="J28" s="361"/>
-      <c r="K28" s="365"/>
-      <c r="L28" s="366"/>
-      <c r="M28" s="366"/>
-      <c r="N28" s="367"/>
+      <c r="G28" s="343"/>
+      <c r="H28" s="344"/>
+      <c r="I28" s="344"/>
+      <c r="J28" s="346"/>
+      <c r="K28" s="350"/>
+      <c r="L28" s="351"/>
+      <c r="M28" s="351"/>
+      <c r="N28" s="352"/>
       <c r="O28" s="121" t="s">
         <v>323</v>
       </c>
       <c r="P28" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="Q28" s="344"/>
-      <c r="R28" s="337"/>
-      <c r="S28" s="339"/>
+      <c r="Q28" s="371"/>
+      <c r="R28" s="365"/>
+      <c r="S28" s="367"/>
       <c r="T28" s="57"/>
       <c r="U28" s="57"/>
     </row>
@@ -12132,23 +12141,23 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="358"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="359"/>
-      <c r="J29" s="361"/>
-      <c r="K29" s="365"/>
-      <c r="L29" s="366"/>
-      <c r="M29" s="366"/>
-      <c r="N29" s="367"/>
+      <c r="G29" s="343"/>
+      <c r="H29" s="344"/>
+      <c r="I29" s="344"/>
+      <c r="J29" s="346"/>
+      <c r="K29" s="350"/>
+      <c r="L29" s="351"/>
+      <c r="M29" s="351"/>
+      <c r="N29" s="352"/>
       <c r="O29" s="121" t="s">
         <v>324</v>
       </c>
       <c r="P29" s="121" t="s">
         <v>324</v>
       </c>
-      <c r="Q29" s="344"/>
-      <c r="R29" s="337"/>
-      <c r="S29" s="339"/>
+      <c r="Q29" s="371"/>
+      <c r="R29" s="365"/>
+      <c r="S29" s="367"/>
       <c r="T29" s="57"/>
       <c r="U29" s="57"/>
     </row>
@@ -12163,23 +12172,23 @@
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="358"/>
-      <c r="H30" s="359"/>
-      <c r="I30" s="359"/>
-      <c r="J30" s="361"/>
-      <c r="K30" s="365"/>
-      <c r="L30" s="366"/>
-      <c r="M30" s="366"/>
-      <c r="N30" s="367"/>
+      <c r="G30" s="343"/>
+      <c r="H30" s="344"/>
+      <c r="I30" s="344"/>
+      <c r="J30" s="346"/>
+      <c r="K30" s="350"/>
+      <c r="L30" s="351"/>
+      <c r="M30" s="351"/>
+      <c r="N30" s="352"/>
       <c r="O30" s="121" t="s">
         <v>208</v>
       </c>
       <c r="P30" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="Q30" s="344"/>
-      <c r="R30" s="337"/>
-      <c r="S30" s="339"/>
+      <c r="Q30" s="371"/>
+      <c r="R30" s="365"/>
+      <c r="S30" s="367"/>
       <c r="T30" s="57"/>
       <c r="U30" s="57"/>
     </row>
@@ -12194,23 +12203,23 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="358"/>
-      <c r="H31" s="359"/>
-      <c r="I31" s="359"/>
-      <c r="J31" s="361"/>
-      <c r="K31" s="365"/>
-      <c r="L31" s="366"/>
-      <c r="M31" s="366"/>
-      <c r="N31" s="367"/>
+      <c r="G31" s="343"/>
+      <c r="H31" s="344"/>
+      <c r="I31" s="344"/>
+      <c r="J31" s="346"/>
+      <c r="K31" s="350"/>
+      <c r="L31" s="351"/>
+      <c r="M31" s="351"/>
+      <c r="N31" s="352"/>
       <c r="O31" s="121" t="s">
         <v>203</v>
       </c>
       <c r="P31" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="Q31" s="344"/>
-      <c r="R31" s="337"/>
-      <c r="S31" s="339"/>
+      <c r="Q31" s="371"/>
+      <c r="R31" s="365"/>
+      <c r="S31" s="367"/>
       <c r="T31" s="57"/>
       <c r="U31" s="57"/>
     </row>
@@ -12225,23 +12234,23 @@
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="358"/>
-      <c r="H32" s="359"/>
-      <c r="I32" s="359"/>
-      <c r="J32" s="359"/>
-      <c r="K32" s="365"/>
-      <c r="L32" s="366"/>
-      <c r="M32" s="366"/>
-      <c r="N32" s="367"/>
+      <c r="G32" s="343"/>
+      <c r="H32" s="344"/>
+      <c r="I32" s="344"/>
+      <c r="J32" s="344"/>
+      <c r="K32" s="350"/>
+      <c r="L32" s="351"/>
+      <c r="M32" s="351"/>
+      <c r="N32" s="352"/>
       <c r="O32" s="122" t="s">
         <v>204</v>
       </c>
       <c r="P32" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="Q32" s="344"/>
-      <c r="R32" s="337"/>
-      <c r="S32" s="340"/>
+      <c r="Q32" s="371"/>
+      <c r="R32" s="365"/>
+      <c r="S32" s="361"/>
       <c r="T32" s="57"/>
       <c r="U32" s="57"/>
     </row>
@@ -12256,37 +12265,37 @@
       <c r="D33" s="113"/>
       <c r="E33" s="113"/>
       <c r="F33" s="113"/>
-      <c r="G33" s="347" t="s">
+      <c r="G33" s="353" t="s">
         <v>220</v>
       </c>
-      <c r="H33" s="347" t="s">
+      <c r="H33" s="353" t="s">
         <v>207</v>
       </c>
-      <c r="I33" s="347" t="s">
+      <c r="I33" s="353" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="350" t="s">
+      <c r="J33" s="356" t="s">
         <v>225</v>
       </c>
-      <c r="K33" s="352" t="s">
+      <c r="K33" s="358" t="s">
         <v>330</v>
       </c>
-      <c r="L33" s="353"/>
-      <c r="M33" s="353"/>
-      <c r="N33" s="354"/>
+      <c r="L33" s="359"/>
+      <c r="M33" s="359"/>
+      <c r="N33" s="360"/>
       <c r="O33" s="123" t="s">
         <v>134</v>
       </c>
       <c r="P33" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="Q33" s="341" t="s">
+      <c r="Q33" s="368" t="s">
         <v>207</v>
       </c>
-      <c r="R33" s="336" t="s">
+      <c r="R33" s="364" t="s">
         <v>205</v>
       </c>
-      <c r="S33" s="338" t="s">
+      <c r="S33" s="366" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12301,23 +12310,23 @@
       <c r="D34" s="113"/>
       <c r="E34" s="113"/>
       <c r="F34" s="113"/>
-      <c r="G34" s="348"/>
-      <c r="H34" s="348"/>
-      <c r="I34" s="348"/>
-      <c r="J34" s="351"/>
-      <c r="K34" s="340"/>
-      <c r="L34" s="355"/>
-      <c r="M34" s="355"/>
-      <c r="N34" s="356"/>
+      <c r="G34" s="354"/>
+      <c r="H34" s="354"/>
+      <c r="I34" s="354"/>
+      <c r="J34" s="357"/>
+      <c r="K34" s="361"/>
+      <c r="L34" s="362"/>
+      <c r="M34" s="362"/>
+      <c r="N34" s="363"/>
       <c r="O34" s="124" t="s">
         <v>325</v>
       </c>
       <c r="P34" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="Q34" s="342"/>
-      <c r="R34" s="337"/>
-      <c r="S34" s="339"/>
+      <c r="Q34" s="369"/>
+      <c r="R34" s="365"/>
+      <c r="S34" s="367"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" customHeight="1">
       <c r="A35" s="32">
@@ -12330,23 +12339,23 @@
       <c r="D35" s="113"/>
       <c r="E35" s="113"/>
       <c r="F35" s="113"/>
-      <c r="G35" s="348"/>
-      <c r="H35" s="348"/>
-      <c r="I35" s="348"/>
-      <c r="J35" s="351"/>
-      <c r="K35" s="340"/>
-      <c r="L35" s="355"/>
-      <c r="M35" s="355"/>
-      <c r="N35" s="356"/>
+      <c r="G35" s="354"/>
+      <c r="H35" s="354"/>
+      <c r="I35" s="354"/>
+      <c r="J35" s="357"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="362"/>
+      <c r="M35" s="362"/>
+      <c r="N35" s="363"/>
       <c r="O35" s="128" t="s">
         <v>327</v>
       </c>
       <c r="P35" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="Q35" s="342"/>
-      <c r="R35" s="337"/>
-      <c r="S35" s="339"/>
+      <c r="Q35" s="369"/>
+      <c r="R35" s="365"/>
+      <c r="S35" s="367"/>
     </row>
     <row r="36" spans="1:21" ht="13.5" customHeight="1">
       <c r="A36" s="32">
@@ -12359,23 +12368,23 @@
       <c r="D36" s="113"/>
       <c r="E36" s="113"/>
       <c r="F36" s="113"/>
-      <c r="G36" s="348"/>
-      <c r="H36" s="348"/>
-      <c r="I36" s="348"/>
-      <c r="J36" s="351"/>
-      <c r="K36" s="340"/>
-      <c r="L36" s="355"/>
-      <c r="M36" s="355"/>
-      <c r="N36" s="356"/>
+      <c r="G36" s="354"/>
+      <c r="H36" s="354"/>
+      <c r="I36" s="354"/>
+      <c r="J36" s="357"/>
+      <c r="K36" s="361"/>
+      <c r="L36" s="362"/>
+      <c r="M36" s="362"/>
+      <c r="N36" s="363"/>
       <c r="O36" s="128" t="s">
         <v>329</v>
       </c>
       <c r="P36" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="Q36" s="342"/>
-      <c r="R36" s="337"/>
-      <c r="S36" s="339"/>
+      <c r="Q36" s="369"/>
+      <c r="R36" s="365"/>
+      <c r="S36" s="367"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1">
       <c r="A37" s="32">
@@ -12388,23 +12397,23 @@
       <c r="D37" s="113"/>
       <c r="E37" s="113"/>
       <c r="F37" s="113"/>
-      <c r="G37" s="349"/>
-      <c r="H37" s="348"/>
-      <c r="I37" s="348"/>
-      <c r="J37" s="348"/>
-      <c r="K37" s="340"/>
-      <c r="L37" s="355"/>
-      <c r="M37" s="355"/>
-      <c r="N37" s="356"/>
+      <c r="G37" s="355"/>
+      <c r="H37" s="354"/>
+      <c r="I37" s="354"/>
+      <c r="J37" s="354"/>
+      <c r="K37" s="361"/>
+      <c r="L37" s="362"/>
+      <c r="M37" s="362"/>
+      <c r="N37" s="363"/>
       <c r="O37" s="128" t="s">
         <v>210</v>
       </c>
       <c r="P37" s="127">
         <v>1</v>
       </c>
-      <c r="Q37" s="342"/>
-      <c r="R37" s="337"/>
-      <c r="S37" s="340"/>
+      <c r="Q37" s="369"/>
+      <c r="R37" s="365"/>
+      <c r="S37" s="361"/>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1">
       <c r="A38" s="32">
@@ -12417,23 +12426,23 @@
       <c r="D38" s="113"/>
       <c r="E38" s="113"/>
       <c r="F38" s="113"/>
-      <c r="G38" s="349"/>
-      <c r="H38" s="348"/>
-      <c r="I38" s="348"/>
-      <c r="J38" s="348"/>
-      <c r="K38" s="340"/>
-      <c r="L38" s="355"/>
-      <c r="M38" s="355"/>
-      <c r="N38" s="356"/>
+      <c r="G38" s="355"/>
+      <c r="H38" s="354"/>
+      <c r="I38" s="354"/>
+      <c r="J38" s="354"/>
+      <c r="K38" s="361"/>
+      <c r="L38" s="362"/>
+      <c r="M38" s="362"/>
+      <c r="N38" s="363"/>
       <c r="O38" s="124" t="s">
         <v>208</v>
       </c>
       <c r="P38" s="124" t="s">
         <v>209</v>
       </c>
-      <c r="Q38" s="342"/>
-      <c r="R38" s="337"/>
-      <c r="S38" s="340"/>
+      <c r="Q38" s="369"/>
+      <c r="R38" s="365"/>
+      <c r="S38" s="361"/>
     </row>
     <row r="39" spans="1:21" s="33" customFormat="1" ht="19.5" customHeight="1">
       <c r="A39" s="189">
@@ -12446,37 +12455,37 @@
       <c r="D39" s="189"/>
       <c r="E39" s="189"/>
       <c r="F39" s="190"/>
-      <c r="G39" s="376" t="s">
+      <c r="G39" s="311" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="378" t="s">
+      <c r="H39" s="313" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="378" t="s">
+      <c r="I39" s="313" t="s">
         <v>197</v>
       </c>
-      <c r="J39" s="379" t="s">
+      <c r="J39" s="314" t="s">
         <v>389</v>
       </c>
-      <c r="K39" s="381" t="s">
+      <c r="K39" s="316" t="s">
         <v>391</v>
       </c>
-      <c r="L39" s="327"/>
-      <c r="M39" s="327"/>
-      <c r="N39" s="327"/>
-      <c r="O39" s="326" t="s">
+      <c r="L39" s="317"/>
+      <c r="M39" s="317"/>
+      <c r="N39" s="317"/>
+      <c r="O39" s="377" t="s">
         <v>392</v>
       </c>
-      <c r="P39" s="326" t="s">
+      <c r="P39" s="377" t="s">
         <v>392</v>
       </c>
-      <c r="Q39" s="328" t="s">
+      <c r="Q39" s="378" t="s">
         <v>165</v>
       </c>
-      <c r="R39" s="330" t="s">
+      <c r="R39" s="380" t="s">
         <v>198</v>
       </c>
-      <c r="S39" s="332" t="s">
+      <c r="S39" s="382" t="s">
         <v>300</v>
       </c>
       <c r="T39" s="57"/>
@@ -12493,19 +12502,19 @@
       <c r="D40" s="218"/>
       <c r="E40" s="218"/>
       <c r="F40" s="219"/>
-      <c r="G40" s="377"/>
-      <c r="H40" s="378"/>
-      <c r="I40" s="378"/>
-      <c r="J40" s="380"/>
-      <c r="K40" s="327"/>
-      <c r="L40" s="327"/>
-      <c r="M40" s="327"/>
-      <c r="N40" s="327"/>
-      <c r="O40" s="327"/>
-      <c r="P40" s="327"/>
-      <c r="Q40" s="329"/>
-      <c r="R40" s="331"/>
-      <c r="S40" s="333"/>
+      <c r="G40" s="312"/>
+      <c r="H40" s="313"/>
+      <c r="I40" s="313"/>
+      <c r="J40" s="315"/>
+      <c r="K40" s="317"/>
+      <c r="L40" s="317"/>
+      <c r="M40" s="317"/>
+      <c r="N40" s="317"/>
+      <c r="O40" s="317"/>
+      <c r="P40" s="317"/>
+      <c r="Q40" s="379"/>
+      <c r="R40" s="381"/>
+      <c r="S40" s="383"/>
       <c r="T40" s="57"/>
       <c r="U40" s="57"/>
     </row>
@@ -12532,12 +12541,12 @@
       <c r="J41" s="221" t="s">
         <v>409</v>
       </c>
-      <c r="K41" s="309" t="s">
-        <v>411</v>
-      </c>
-      <c r="L41" s="310"/>
-      <c r="M41" s="310"/>
-      <c r="N41" s="310"/>
+      <c r="K41" s="375" t="s">
+        <v>412</v>
+      </c>
+      <c r="L41" s="376"/>
+      <c r="M41" s="376"/>
+      <c r="N41" s="376"/>
       <c r="O41" s="216"/>
       <c r="P41" s="216"/>
       <c r="Q41" s="216" t="s">
@@ -12556,11 +12565,68 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="83">
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="R33:R38"/>
+    <mergeCell ref="S33:S38"/>
+    <mergeCell ref="Q33:Q38"/>
+    <mergeCell ref="Q15:Q32"/>
+    <mergeCell ref="R15:R32"/>
+    <mergeCell ref="S15:S32"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="K11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:N38"/>
+    <mergeCell ref="G15:G32"/>
+    <mergeCell ref="H15:H32"/>
+    <mergeCell ref="I15:I32"/>
+    <mergeCell ref="J15:J32"/>
+    <mergeCell ref="K15:N32"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:N6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="Q11:Q12"/>
@@ -12577,68 +12643,11 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:N6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="G15:G32"/>
-    <mergeCell ref="H15:H32"/>
-    <mergeCell ref="I15:I32"/>
-    <mergeCell ref="J15:J32"/>
-    <mergeCell ref="K15:N32"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:N38"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="R33:R38"/>
-    <mergeCell ref="S33:S38"/>
-    <mergeCell ref="Q33:Q38"/>
-    <mergeCell ref="Q15:Q32"/>
-    <mergeCell ref="R15:R32"/>
-    <mergeCell ref="S15:S32"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="K11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:N40"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048242:Q1048576"/>
@@ -12662,10 +12671,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:J28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12681,10 +12690,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="247"/>
+      <c r="B1" s="274"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -12715,8 +12724,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247"/>
+      <c r="A2" s="274"/>
+      <c r="B2" s="274"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -12880,110 +12889,110 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="B15" s="69"/>
-      <c r="C15" s="386" t="s">
+      <c r="C15" s="388" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="386"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="386"/>
-      <c r="G15" s="386"/>
-      <c r="H15" s="386"/>
+      <c r="D15" s="388"/>
+      <c r="E15" s="388"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="388"/>
+      <c r="H15" s="388"/>
       <c r="I15" s="40"/>
       <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="B16" s="40"/>
-      <c r="C16" s="386" t="s">
+      <c r="C16" s="388" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="386"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="386"/>
-      <c r="G16" s="386"/>
-      <c r="H16" s="386"/>
+      <c r="D16" s="388"/>
+      <c r="E16" s="388"/>
+      <c r="F16" s="388"/>
+      <c r="G16" s="388"/>
+      <c r="H16" s="388"/>
       <c r="I16" s="40"/>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="40"/>
-      <c r="C17" s="386" t="s">
+      <c r="C17" s="388" t="s">
         <v>307</v>
       </c>
-      <c r="D17" s="386"/>
-      <c r="E17" s="386"/>
-      <c r="F17" s="386"/>
-      <c r="G17" s="386"/>
-      <c r="H17" s="386"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="388"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="388"/>
       <c r="I17" s="131"/>
       <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="40"/>
-      <c r="C18" s="386" t="s">
+      <c r="C18" s="388" t="s">
         <v>308</v>
       </c>
-      <c r="D18" s="386"/>
-      <c r="E18" s="386"/>
-      <c r="F18" s="386"/>
-      <c r="G18" s="386"/>
-      <c r="H18" s="386"/>
+      <c r="D18" s="388"/>
+      <c r="E18" s="388"/>
+      <c r="F18" s="388"/>
+      <c r="G18" s="388"/>
+      <c r="H18" s="388"/>
       <c r="I18" s="131"/>
       <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="B19" s="40"/>
-      <c r="C19" s="386" t="s">
+      <c r="C19" s="388" t="s">
         <v>309</v>
       </c>
-      <c r="D19" s="386"/>
-      <c r="E19" s="386"/>
-      <c r="F19" s="386"/>
-      <c r="G19" s="386"/>
-      <c r="H19" s="386"/>
+      <c r="D19" s="388"/>
+      <c r="E19" s="388"/>
+      <c r="F19" s="388"/>
+      <c r="G19" s="388"/>
+      <c r="H19" s="388"/>
       <c r="I19" s="131"/>
       <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="225" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1">
+      <c r="B21" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1">
-      <c r="B21" s="40"/>
-      <c r="C21" s="384" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" s="385"/>
-      <c r="E21" s="385"/>
-      <c r="F21" s="385"/>
-      <c r="G21" s="385"/>
-      <c r="H21" s="385"/>
-      <c r="I21" s="385"/>
-      <c r="J21" s="385"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="43"/>
+      <c r="C22" s="386" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="387"/>
+      <c r="E22" s="387"/>
+      <c r="F22" s="387"/>
+      <c r="G22" s="387"/>
+      <c r="H22" s="387"/>
+      <c r="I22" s="387"/>
+      <c r="J22" s="387"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
-      <c r="B23" s="69" t="s">
-        <v>120</v>
-      </c>
+      <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -12994,7 +13003,9 @@
       <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
-      <c r="B24" s="69"/>
+      <c r="B24" s="69" t="s">
+        <v>120</v>
+      </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -13005,8 +13016,7 @@
       <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -13017,9 +13027,7 @@
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
-      <c r="A26" s="64" t="s">
-        <v>113</v>
-      </c>
+      <c r="A26" s="39"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -13030,61 +13038,63 @@
       <c r="I26" s="40"/>
       <c r="J26" s="43"/>
     </row>
-    <row r="27" spans="1:10" ht="72" customHeight="1">
-      <c r="A27" s="64"/>
+    <row r="27" spans="1:10" ht="12" customHeight="1">
+      <c r="A27" s="64" t="s">
+        <v>113</v>
+      </c>
       <c r="B27" s="40"/>
-      <c r="C27" s="387" t="s">
-        <v>363</v>
-      </c>
-      <c r="D27" s="385"/>
-      <c r="E27" s="385"/>
-      <c r="F27" s="385"/>
-      <c r="G27" s="385"/>
-      <c r="H27" s="385"/>
-      <c r="I27" s="385"/>
-      <c r="J27" s="385"/>
-    </row>
-    <row r="28" spans="1:10" ht="78" customHeight="1">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:10" ht="72" customHeight="1">
       <c r="A28" s="64"/>
       <c r="B28" s="40"/>
-      <c r="C28" s="388" t="s">
+      <c r="C28" s="389" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" s="387"/>
+      <c r="E28" s="387"/>
+      <c r="F28" s="387"/>
+      <c r="G28" s="387"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="387"/>
+      <c r="J28" s="387"/>
+    </row>
+    <row r="29" spans="1:10" ht="78" customHeight="1">
+      <c r="A29" s="64"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="390" t="s">
         <v>314</v>
       </c>
-      <c r="D28" s="388"/>
-      <c r="E28" s="388"/>
-      <c r="F28" s="388"/>
-      <c r="G28" s="388"/>
-      <c r="H28" s="388"/>
-      <c r="I28" s="388"/>
-      <c r="J28" s="388"/>
-    </row>
-    <row r="29" spans="1:10" ht="90" customHeight="1">
-      <c r="A29" s="181" t="s">
+      <c r="D29" s="390"/>
+      <c r="E29" s="390"/>
+      <c r="F29" s="390"/>
+      <c r="G29" s="390"/>
+      <c r="H29" s="390"/>
+      <c r="I29" s="390"/>
+      <c r="J29" s="390"/>
+    </row>
+    <row r="30" spans="1:10" ht="90" customHeight="1">
+      <c r="A30" s="181" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="389" t="s">
+      <c r="B30" s="182"/>
+      <c r="C30" s="391" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="389"/>
-      <c r="E29" s="389"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="389"/>
-      <c r="H29" s="389"/>
-      <c r="I29" s="389"/>
-      <c r="J29" s="389"/>
-    </row>
-    <row r="30" spans="1:10" ht="11.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="D30" s="391"/>
+      <c r="E30" s="391"/>
+      <c r="F30" s="391"/>
+      <c r="G30" s="391"/>
+      <c r="H30" s="391"/>
+      <c r="I30" s="391"/>
+      <c r="J30" s="391"/>
     </row>
     <row r="31" spans="1:10" ht="11.25">
       <c r="A31" s="64"/>
@@ -13101,264 +13111,260 @@
     <row r="32" spans="1:10" ht="11.25">
       <c r="A32" s="64"/>
       <c r="B32" s="40"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-    </row>
-    <row r="33" spans="1:10" ht="12" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" ht="12" customHeight="1">
-      <c r="A34" s="64" t="s">
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="226"/>
+    </row>
+    <row r="33" spans="1:10" ht="11.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="226"/>
+    </row>
+    <row r="34" spans="1:10" ht="11.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="226"/>
+    </row>
+    <row r="35" spans="1:10" ht="11.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+    </row>
+    <row r="36" spans="1:10" ht="11.25">
+      <c r="A36" s="64"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="226"/>
+      <c r="J36" s="226"/>
+    </row>
+    <row r="37" spans="1:10" ht="11.25">
+      <c r="A37" s="64"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="226"/>
+    </row>
+    <row r="38" spans="1:10" ht="11.25">
+      <c r="A38" s="64"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="226"/>
+    </row>
+    <row r="39" spans="1:10" ht="11.25">
+      <c r="A39" s="64"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="226"/>
+      <c r="F39" s="226"/>
+      <c r="G39" s="226"/>
+      <c r="H39" s="226"/>
+      <c r="I39" s="226"/>
+      <c r="J39" s="226"/>
+    </row>
+    <row r="40" spans="1:10" ht="11.25">
+      <c r="A40" s="64"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="226"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="226"/>
+    </row>
+    <row r="41" spans="1:10" ht="11.25">
+      <c r="A41" s="64"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="226"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="226"/>
+      <c r="H41" s="226"/>
+      <c r="I41" s="226"/>
+      <c r="J41" s="226"/>
+    </row>
+    <row r="42" spans="1:10" ht="11.25">
+      <c r="A42" s="64"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="226"/>
+      <c r="G42" s="226"/>
+      <c r="H42" s="226"/>
+      <c r="I42" s="226"/>
+      <c r="J42" s="226"/>
+    </row>
+    <row r="43" spans="1:10" ht="11.25">
+      <c r="A43" s="64"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="226"/>
+      <c r="J43" s="226"/>
+    </row>
+    <row r="44" spans="1:10" ht="11.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="226"/>
+      <c r="D44" s="226"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="226"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="226"/>
+      <c r="I44" s="226"/>
+      <c r="J44" s="226"/>
+    </row>
+    <row r="45" spans="1:10" ht="11.25">
+      <c r="A45" s="64"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="226"/>
+    </row>
+    <row r="46" spans="1:10" ht="11.25">
+      <c r="A46" s="64"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="226"/>
+      <c r="J46" s="226"/>
+    </row>
+    <row r="47" spans="1:10" ht="11.25">
+      <c r="A47" s="64"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="158"/>
+    </row>
+    <row r="48" spans="1:10" ht="11.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="158"/>
+    </row>
+    <row r="49" spans="1:10" ht="12" customHeight="1">
+      <c r="A49" s="39"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" spans="1:10" ht="12" customHeight="1">
+      <c r="A50" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" ht="12" customHeight="1">
-      <c r="B35" s="69" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="43"/>
+    </row>
+    <row r="51" spans="1:10" ht="12" customHeight="1">
+      <c r="B51" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1">
-      <c r="B36" s="40"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" spans="1:10" ht="12" customHeight="1">
-      <c r="B37" s="40"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" spans="1:10" ht="12" customHeight="1">
-      <c r="B38" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="1:10" ht="12" customHeight="1">
-      <c r="B39" s="69"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" spans="1:10" ht="12" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" spans="1:10" ht="12" customHeight="1">
-      <c r="A41" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" spans="1:10" ht="12" customHeight="1">
-      <c r="B42" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="1:10" ht="12" customHeight="1">
-      <c r="B43" s="40"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="43"/>
-    </row>
-    <row r="44" spans="1:10" ht="12" customHeight="1">
-      <c r="B44" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="B45" s="69"/>
-      <c r="C45" s="384"/>
-      <c r="D45" s="384"/>
-      <c r="E45" s="384"/>
-      <c r="F45" s="384"/>
-      <c r="G45" s="384"/>
-      <c r="H45" s="384"/>
-      <c r="I45" s="384"/>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" spans="1:10" ht="12" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="384"/>
-      <c r="D46" s="384"/>
-      <c r="E46" s="384"/>
-      <c r="F46" s="384"/>
-      <c r="G46" s="384"/>
-      <c r="H46" s="384"/>
-      <c r="I46" s="384"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" spans="1:10" ht="12" customHeight="1">
-      <c r="A47" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="43"/>
-    </row>
-    <row r="48" spans="1:10" ht="12" customHeight="1">
-      <c r="B48" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="43"/>
-    </row>
-    <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="69"/>
-      <c r="C49" s="382" t="s">
-        <v>312</v>
-      </c>
-      <c r="D49" s="382"/>
-      <c r="E49" s="382"/>
-      <c r="F49" s="382"/>
-      <c r="G49" s="382"/>
-      <c r="H49" s="382"/>
-      <c r="I49" s="382"/>
-      <c r="J49" s="43"/>
-    </row>
-    <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="69"/>
-      <c r="C50" s="382"/>
-      <c r="D50" s="382"/>
-      <c r="E50" s="382"/>
-      <c r="F50" s="382"/>
-      <c r="G50" s="382"/>
-      <c r="H50" s="382"/>
-      <c r="I50" s="382"/>
-      <c r="J50" s="43"/>
-    </row>
-    <row r="51" spans="1:10" ht="12" customHeight="1">
-      <c r="B51" s="69"/>
-      <c r="C51" s="382"/>
-      <c r="D51" s="382"/>
-      <c r="E51" s="382"/>
-      <c r="F51" s="382"/>
-      <c r="G51" s="382"/>
-      <c r="H51" s="382"/>
-      <c r="I51" s="382"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
       <c r="J51" s="43"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1">
-      <c r="B52" s="69"/>
-      <c r="C52" s="382"/>
-      <c r="D52" s="382"/>
-      <c r="E52" s="382"/>
-      <c r="F52" s="382"/>
-      <c r="G52" s="382"/>
-      <c r="H52" s="382"/>
-      <c r="I52" s="382"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
       <c r="J52" s="43"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1">
-      <c r="B53" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
@@ -13368,23 +13374,20 @@
       <c r="J53" s="43"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1">
-      <c r="B54" s="69"/>
-      <c r="C54" s="383" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="383"/>
-      <c r="E54" s="383"/>
-      <c r="F54" s="383"/>
-      <c r="G54" s="383"/>
-      <c r="H54" s="383"/>
-      <c r="I54" s="383"/>
+      <c r="B54" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1">
-      <c r="A55" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="40"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="72"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
@@ -13395,8 +13398,9 @@
       <c r="J55" s="43"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1">
-      <c r="B56" s="69"/>
-      <c r="C56" s="72"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -13406,6 +13410,9 @@
       <c r="J56" s="43"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1">
+      <c r="A57" s="64" t="s">
+        <v>124</v>
+      </c>
       <c r="B57" s="40"/>
       <c r="C57" s="72"/>
       <c r="D57" s="40"/>
@@ -13417,8 +13424,10 @@
       <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1">
-      <c r="B58" s="69"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="72"/>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40"/>
@@ -13428,8 +13437,8 @@
       <c r="J58" s="43"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1">
-      <c r="B59" s="69"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40"/>
@@ -13439,7 +13448,9 @@
       <c r="J59" s="43"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1">
-      <c r="B60" s="40"/>
+      <c r="B60" s="69" t="s">
+        <v>122</v>
+      </c>
       <c r="C60" s="40"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
@@ -13450,29 +13461,32 @@
       <c r="J60" s="43"/>
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1">
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="386"/>
+      <c r="D61" s="386"/>
+      <c r="E61" s="386"/>
+      <c r="F61" s="386"/>
+      <c r="G61" s="386"/>
+      <c r="H61" s="386"/>
+      <c r="I61" s="386"/>
       <c r="J61" s="43"/>
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1">
-      <c r="B62" s="69"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="386"/>
+      <c r="D62" s="386"/>
+      <c r="E62" s="386"/>
+      <c r="F62" s="386"/>
+      <c r="G62" s="386"/>
+      <c r="H62" s="386"/>
+      <c r="I62" s="386"/>
       <c r="J62" s="43"/>
     </row>
     <row r="63" spans="1:10" ht="12" customHeight="1">
-      <c r="A63" s="39"/>
+      <c r="A63" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="B63" s="40"/>
       <c r="C63" s="72"/>
       <c r="D63" s="40"/>
@@ -13484,8 +13498,9 @@
       <c r="J63" s="43"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
+      <c r="B64" s="69" t="s">
+        <v>126</v>
+      </c>
       <c r="C64" s="72"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -13496,53 +13511,55 @@
       <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="384" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" s="384"/>
+      <c r="E65" s="384"/>
+      <c r="F65" s="384"/>
+      <c r="G65" s="384"/>
+      <c r="H65" s="384"/>
+      <c r="I65" s="384"/>
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
-      <c r="A66" s="64"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="384"/>
+      <c r="D66" s="384"/>
+      <c r="E66" s="384"/>
+      <c r="F66" s="384"/>
+      <c r="G66" s="384"/>
+      <c r="H66" s="384"/>
+      <c r="I66" s="384"/>
       <c r="J66" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="B67" s="69"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="384"/>
+      <c r="E67" s="384"/>
+      <c r="F67" s="384"/>
+      <c r="G67" s="384"/>
+      <c r="H67" s="384"/>
+      <c r="I67" s="384"/>
       <c r="J67" s="43"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1">
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="384"/>
+      <c r="D68" s="384"/>
+      <c r="E68" s="384"/>
+      <c r="F68" s="384"/>
+      <c r="G68" s="384"/>
+      <c r="H68" s="384"/>
+      <c r="I68" s="384"/>
       <c r="J68" s="43"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
-      <c r="B69" s="69"/>
+      <c r="B69" s="69" t="s">
+        <v>127</v>
+      </c>
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
@@ -13553,21 +13570,24 @@
       <c r="J69" s="43"/>
     </row>
     <row r="70" spans="1:10" ht="12" customHeight="1">
-      <c r="A70" s="39"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="385" t="s">
+        <v>313</v>
+      </c>
+      <c r="D70" s="385"/>
+      <c r="E70" s="385"/>
+      <c r="F70" s="385"/>
+      <c r="G70" s="385"/>
+      <c r="H70" s="385"/>
+      <c r="I70" s="385"/>
       <c r="J70" s="43"/>
     </row>
     <row r="71" spans="1:10" ht="12" customHeight="1">
-      <c r="A71" s="64"/>
+      <c r="A71" s="64" t="s">
+        <v>128</v>
+      </c>
       <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="40"/>
@@ -13577,9 +13597,8 @@
       <c r="J71" s="43"/>
     </row>
     <row r="72" spans="1:10" ht="12" customHeight="1">
-      <c r="A72" s="39"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="40"/>
@@ -13589,9 +13608,8 @@
       <c r="J72" s="43"/>
     </row>
     <row r="73" spans="1:10" ht="12" customHeight="1">
-      <c r="A73" s="39"/>
       <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
+      <c r="C73" s="72"/>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="F73" s="40"/>
@@ -13601,8 +13619,7 @@
       <c r="J73" s="43"/>
     </row>
     <row r="74" spans="1:10" ht="12" customHeight="1">
-      <c r="A74" s="39"/>
-      <c r="B74" s="40"/>
+      <c r="B74" s="69"/>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
@@ -13613,8 +13630,7 @@
       <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" ht="12" customHeight="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="40"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
@@ -13625,7 +13641,6 @@
       <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" ht="12" customHeight="1">
-      <c r="A76" s="39"/>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
       <c r="D76" s="40"/>
@@ -13637,7 +13652,6 @@
       <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:10" ht="12" customHeight="1">
-      <c r="A77" s="39"/>
       <c r="B77" s="40"/>
       <c r="C77" s="40"/>
       <c r="D77" s="40"/>
@@ -13649,8 +13663,7 @@
       <c r="J77" s="43"/>
     </row>
     <row r="78" spans="1:10" ht="12" customHeight="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
+      <c r="B78" s="69"/>
       <c r="C78" s="40"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
@@ -13663,7 +13676,7 @@
     <row r="79" spans="1:10" ht="12" customHeight="1">
       <c r="A79" s="39"/>
       <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="40"/>
@@ -13675,7 +13688,7 @@
     <row r="80" spans="1:10" ht="12" customHeight="1">
       <c r="A80" s="39"/>
       <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="40"/>
@@ -13687,7 +13700,7 @@
     <row r="81" spans="1:10" ht="12" customHeight="1">
       <c r="A81" s="39"/>
       <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
+      <c r="C81" s="72"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="F81" s="40"/>
@@ -13697,7 +13710,7 @@
       <c r="J81" s="43"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
-      <c r="A82" s="39"/>
+      <c r="A82" s="64"/>
       <c r="B82" s="40"/>
       <c r="C82" s="40"/>
       <c r="D82" s="40"/>
@@ -13709,8 +13722,7 @@
       <c r="J82" s="43"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1">
-      <c r="A83" s="39"/>
-      <c r="B83" s="40"/>
+      <c r="B83" s="69"/>
       <c r="C83" s="40"/>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
@@ -13721,7 +13733,6 @@
       <c r="J83" s="43"/>
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1">
-      <c r="A84" s="39"/>
       <c r="B84" s="40"/>
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
@@ -13733,8 +13744,7 @@
       <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" ht="12" customHeight="1">
-      <c r="A85" s="39"/>
-      <c r="B85" s="40"/>
+      <c r="B85" s="69"/>
       <c r="C85" s="40"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
@@ -13757,7 +13767,7 @@
       <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1">
-      <c r="A87" s="39"/>
+      <c r="A87" s="64"/>
       <c r="B87" s="40"/>
       <c r="C87" s="40"/>
       <c r="D87" s="40"/>
@@ -13841,33 +13851,225 @@
       <c r="J93" s="43"/>
     </row>
     <row r="94" spans="1:10" ht="12" customHeight="1">
-      <c r="A94" s="44"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="52"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="43"/>
+    </row>
+    <row r="95" spans="1:10" ht="12" customHeight="1">
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="43"/>
+    </row>
+    <row r="96" spans="1:10" ht="12" customHeight="1">
+      <c r="A96" s="39"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="43"/>
+    </row>
+    <row r="97" spans="1:10" ht="12" customHeight="1">
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="43"/>
+    </row>
+    <row r="98" spans="1:10" ht="12" customHeight="1">
+      <c r="A98" s="39"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="43"/>
+    </row>
+    <row r="99" spans="1:10" ht="12" customHeight="1">
+      <c r="A99" s="39"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="43"/>
+    </row>
+    <row r="100" spans="1:10" ht="12" customHeight="1">
+      <c r="A100" s="39"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="43"/>
+    </row>
+    <row r="101" spans="1:10" ht="12" customHeight="1">
+      <c r="A101" s="39"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="43"/>
+    </row>
+    <row r="102" spans="1:10" ht="12" customHeight="1">
+      <c r="A102" s="39"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="43"/>
+    </row>
+    <row r="103" spans="1:10" ht="12" customHeight="1">
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="43"/>
+    </row>
+    <row r="104" spans="1:10" ht="12" customHeight="1">
+      <c r="A104" s="39"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="43"/>
+    </row>
+    <row r="105" spans="1:10" ht="12" customHeight="1">
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="43"/>
+    </row>
+    <row r="106" spans="1:10" ht="12" customHeight="1">
+      <c r="A106" s="39"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="43"/>
+    </row>
+    <row r="107" spans="1:10" ht="12" customHeight="1">
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="43"/>
+    </row>
+    <row r="108" spans="1:10" ht="12" customHeight="1">
+      <c r="A108" s="39"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="43"/>
+    </row>
+    <row r="109" spans="1:10" ht="12" customHeight="1">
+      <c r="A109" s="39"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="43"/>
+    </row>
+    <row r="110" spans="1:10" ht="12" customHeight="1">
+      <c r="A110" s="44"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C49:I52"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C65:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C22:J22"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="C62:I62"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -13876,7 +14078,7 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="72" max="9" man="1"/>
+    <brk id="88" max="9" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -13904,10 +14106,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="274" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="247"/>
+      <c r="B1" s="274"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -13938,8 +14140,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247"/>
+      <c r="A2" s="274"/>
+      <c r="B2" s="274"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
